--- a/app/src/main/java/com/renfei/mylottery/file/胆码尾巴统计.xlsx
+++ b/app/src/main/java/com/renfei/mylottery/file/胆码尾巴统计.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\77873\Desktop\other\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WorkSpace\DemoProject\MyLottery\app\src\main\java\com\renfei\mylottery\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB4EA950-2C3F-47A6-839D-B7A6C5103756}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F073B42-D46B-4B7F-8976-EA6090A3232E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="沙尾吧" sheetId="5" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="917" uniqueCount="658">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="958" uniqueCount="687">
   <si>
     <t>56</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2640,6 +2640,120 @@
   </si>
   <si>
     <t>153</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2568</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>67</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>45</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>74</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>08</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>67124538</t>
+  </si>
+  <si>
+    <t>671245</t>
+  </si>
+  <si>
+    <t>9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>28</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>827</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>08</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0267</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>68</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>58</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1238</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>820</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>82</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>036</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>036</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3057,8 +3171,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33C85FA2-5BCC-40CB-8D0B-9FB594EB2DDB}">
   <dimension ref="A1:AA35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AB28" sqref="AB28"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="Y35" sqref="Y35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -4842,11 +4956,17 @@
       <c r="N24" s="2" t="s">
         <v>521</v>
       </c>
+      <c r="O24" s="2" t="s">
+        <v>665</v>
+      </c>
       <c r="P24" s="2" t="s">
         <v>620</v>
       </c>
       <c r="Q24" s="4" t="s">
         <v>622</v>
+      </c>
+      <c r="R24" s="2" t="s">
+        <v>660</v>
       </c>
       <c r="S24" s="4" t="s">
         <v>624</v>
@@ -4871,10 +4991,72 @@
       <c r="A25" s="1" t="s">
         <v>464</v>
       </c>
-      <c r="N25" s="1" t="s">
+      <c r="B25" s="1" t="s">
+        <v>685</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>673</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>658</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>659</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>660</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>661</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>662</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>663</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>662</v>
+      </c>
+      <c r="L25" s="2" t="s">
+        <v>664</v>
+      </c>
+      <c r="M25" s="2" t="s">
+        <v>661</v>
+      </c>
+      <c r="N25" s="2" t="s">
         <v>524</v>
       </c>
-      <c r="X25" s="12"/>
+      <c r="O25" s="2" t="s">
+        <v>663</v>
+      </c>
+      <c r="P25" s="2" t="s">
+        <v>666</v>
+      </c>
+      <c r="Q25" s="2" t="s">
+        <v>667</v>
+      </c>
+      <c r="R25" s="2" t="s">
+        <v>668</v>
+      </c>
+      <c r="S25" s="2" t="s">
+        <v>669</v>
+      </c>
+      <c r="T25" s="2" t="s">
+        <v>670</v>
+      </c>
+      <c r="U25" s="2" t="s">
+        <v>666</v>
+      </c>
+      <c r="X25" s="11" t="s">
+        <v>671</v>
+      </c>
+      <c r="Y25" s="2" t="s">
+        <v>672</v>
+      </c>
+      <c r="Z25" s="2" t="s">
+        <v>673</v>
+      </c>
     </row>
     <row r="26" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
@@ -4938,8 +5120,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{846D6261-C472-40E1-A259-34C194E9E14A}">
   <dimension ref="A1:U24"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Z23" sqref="Z23"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AB16" sqref="AB16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -6059,6 +6241,60 @@
       <c r="A21" s="1" t="s">
         <v>380</v>
       </c>
+      <c r="B21" s="1" t="s">
+        <v>686</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>674</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>676</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>675</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>677</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>676</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>678</v>
+      </c>
+      <c r="I21" s="4" t="s">
+        <v>679</v>
+      </c>
+      <c r="J21" s="4" t="s">
+        <v>681</v>
+      </c>
+      <c r="K21" s="2" t="s">
+        <v>680</v>
+      </c>
+      <c r="M21" s="4" t="s">
+        <v>674</v>
+      </c>
+      <c r="N21" s="2" t="s">
+        <v>678</v>
+      </c>
+      <c r="O21" s="2" t="s">
+        <v>682</v>
+      </c>
+      <c r="P21" s="4" t="s">
+        <v>674</v>
+      </c>
+      <c r="R21" s="2" t="s">
+        <v>683</v>
+      </c>
+      <c r="S21" s="2" t="s">
+        <v>683</v>
+      </c>
+      <c r="T21" s="2" t="s">
+        <v>683</v>
+      </c>
+      <c r="U21" s="4" t="s">
+        <v>684</v>
+      </c>
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">

--- a/app/src/main/java/com/renfei/mylottery/file/胆码尾巴统计.xlsx
+++ b/app/src/main/java/com/renfei/mylottery/file/胆码尾巴统计.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WorkSpace\DemoProject\MyLottery\app\src\main\java\com\renfei\mylottery\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F073B42-D46B-4B7F-8976-EA6090A3232E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CEA345A-6D4B-4D3C-B4E6-2C75B22B6F2B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="958" uniqueCount="687">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="960" uniqueCount="689">
   <si>
     <t>56</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2754,6 +2754,14 @@
   </si>
   <si>
     <t>036</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3172,7 +3180,7 @@
   <dimension ref="A1:AA35"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Y35" sqref="Y35"/>
+      <selection activeCell="W34" sqref="W34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -4915,6 +4923,9 @@
       <c r="Z23" s="2" t="s">
         <v>620</v>
       </c>
+      <c r="AA23" s="2" t="s">
+        <v>688</v>
+      </c>
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
@@ -5056,6 +5067,9 @@
       </c>
       <c r="Z25" s="2" t="s">
         <v>673</v>
+      </c>
+      <c r="AA25" s="2" t="s">
+        <v>687</v>
       </c>
     </row>
     <row r="26" spans="1:27" x14ac:dyDescent="0.25">
@@ -5121,7 +5135,7 @@
   <dimension ref="A1:U24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AB16" sqref="AB16"/>
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>

--- a/app/src/main/java/com/renfei/mylottery/file/胆码尾巴统计.xlsx
+++ b/app/src/main/java/com/renfei/mylottery/file/胆码尾巴统计.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WorkSpace\DemoProject\MyLottery\app\src\main\java\com\renfei\mylottery\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CEA345A-6D4B-4D3C-B4E6-2C75B22B6F2B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89A45092-C19E-4E42-82AF-A16D59F5B492}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="252" windowWidth="18324" windowHeight="12108" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="沙尾吧" sheetId="5" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="960" uniqueCount="689">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="989" uniqueCount="711">
   <si>
     <t>56</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2695,12 +2695,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>67124538</t>
-  </si>
-  <si>
-    <t>671245</t>
-  </si>
-  <si>
     <t>9</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2762,6 +2756,102 @@
   </si>
   <si>
     <t>6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3568</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>78</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>87</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>61245738</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>612457</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>46</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>24</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>28</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>158</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>24</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>89</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>29</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>59</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>58</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2680</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>39</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2985</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>298</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3180,7 +3270,7 @@
   <dimension ref="A1:AA35"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="W34" sqref="W34"/>
+      <selection activeCell="U26" sqref="U26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -4924,7 +5014,7 @@
         <v>620</v>
       </c>
       <c r="AA23" s="2" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.25">
@@ -5003,10 +5093,10 @@
         <v>464</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>658</v>
@@ -5026,8 +5116,8 @@
       <c r="I25" s="2" t="s">
         <v>663</v>
       </c>
-      <c r="J25" s="2" t="s">
-        <v>662</v>
+      <c r="J25" s="4" t="s">
+        <v>81</v>
       </c>
       <c r="L25" s="2" t="s">
         <v>664</v>
@@ -5060,24 +5150,63 @@
         <v>666</v>
       </c>
       <c r="X25" s="11" t="s">
+        <v>693</v>
+      </c>
+      <c r="Y25" s="2" t="s">
+        <v>694</v>
+      </c>
+      <c r="Z25" s="2" t="s">
         <v>671</v>
       </c>
-      <c r="Y25" s="2" t="s">
-        <v>672</v>
-      </c>
-      <c r="Z25" s="2" t="s">
-        <v>673</v>
-      </c>
       <c r="AA25" s="2" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
     </row>
     <row r="26" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>465</v>
       </c>
+      <c r="D26" s="1" t="s">
+        <v>687</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>688</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>689</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>690</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>691</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>692</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>695</v>
+      </c>
+      <c r="L26" s="1" t="s">
+        <v>692</v>
+      </c>
+      <c r="M26" s="1" t="s">
+        <v>696</v>
+      </c>
       <c r="N26" s="1" t="s">
         <v>532</v>
+      </c>
+      <c r="P26" s="1" t="s">
+        <v>692</v>
+      </c>
+      <c r="R26" s="1" t="s">
+        <v>697</v>
+      </c>
+      <c r="T26" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="U26" s="1" t="s">
+        <v>689</v>
       </c>
       <c r="X26" s="12"/>
     </row>
@@ -5135,7 +5264,7 @@
   <dimension ref="A1:U24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+      <selection activeCell="Y14" sqref="Y14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -6256,63 +6385,111 @@
         <v>380</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="C21" s="4" t="s">
+        <v>672</v>
+      </c>
+      <c r="D21" s="2" t="s">
         <v>674</v>
       </c>
-      <c r="D21" s="2" t="s">
+      <c r="E21" s="4" t="s">
+        <v>673</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>675</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>674</v>
+      </c>
+      <c r="H21" s="2" t="s">
         <v>676</v>
       </c>
-      <c r="E21" s="4" t="s">
-        <v>675</v>
-      </c>
-      <c r="F21" s="2" t="s">
+      <c r="I21" s="4" t="s">
         <v>677</v>
       </c>
-      <c r="G21" s="2" t="s">
+      <c r="J21" s="4" t="s">
+        <v>679</v>
+      </c>
+      <c r="K21" s="2" t="s">
+        <v>678</v>
+      </c>
+      <c r="M21" s="4" t="s">
+        <v>672</v>
+      </c>
+      <c r="N21" s="2" t="s">
         <v>676</v>
       </c>
-      <c r="H21" s="2" t="s">
-        <v>678</v>
-      </c>
-      <c r="I21" s="4" t="s">
-        <v>679</v>
-      </c>
-      <c r="J21" s="4" t="s">
+      <c r="O21" s="2" t="s">
+        <v>680</v>
+      </c>
+      <c r="P21" s="4" t="s">
+        <v>672</v>
+      </c>
+      <c r="R21" s="2" t="s">
         <v>681</v>
       </c>
-      <c r="K21" s="2" t="s">
-        <v>680</v>
-      </c>
-      <c r="M21" s="4" t="s">
-        <v>674</v>
-      </c>
-      <c r="N21" s="2" t="s">
-        <v>678</v>
-      </c>
-      <c r="O21" s="2" t="s">
+      <c r="S21" s="2" t="s">
+        <v>681</v>
+      </c>
+      <c r="T21" s="2" t="s">
+        <v>681</v>
+      </c>
+      <c r="U21" s="4" t="s">
         <v>682</v>
-      </c>
-      <c r="P21" s="4" t="s">
-        <v>674</v>
-      </c>
-      <c r="R21" s="2" t="s">
-        <v>683</v>
-      </c>
-      <c r="S21" s="2" t="s">
-        <v>683</v>
-      </c>
-      <c r="T21" s="2" t="s">
-        <v>683</v>
-      </c>
-      <c r="U21" s="4" t="s">
-        <v>684</v>
       </c>
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>381</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>699</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>701</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>700</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>702</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>704</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>705</v>
+      </c>
+      <c r="M22" s="1" t="s">
+        <v>706</v>
+      </c>
+      <c r="N22" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="O22" s="1" t="s">
+        <v>707</v>
+      </c>
+      <c r="P22" s="1" t="s">
+        <v>708</v>
+      </c>
+      <c r="R22" s="1" t="s">
+        <v>709</v>
+      </c>
+      <c r="S22" s="1" t="s">
+        <v>709</v>
+      </c>
+      <c r="T22" s="1" t="s">
+        <v>710</v>
+      </c>
+      <c r="U22" s="1" t="s">
+        <v>703</v>
       </c>
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.25">

--- a/app/src/main/java/com/renfei/mylottery/file/胆码尾巴统计.xlsx
+++ b/app/src/main/java/com/renfei/mylottery/file/胆码尾巴统计.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WorkSpace\DemoProject\MyLottery\app\src\main\java\com\renfei\mylottery\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89A45092-C19E-4E42-82AF-A16D59F5B492}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A83B3EF1-1DB8-4503-A6EB-CC18D528A908}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3120" yWindow="252" windowWidth="18324" windowHeight="12108" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="989" uniqueCount="711">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2475" uniqueCount="719">
   <si>
     <t>56</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2852,6 +2852,38 @@
   </si>
   <si>
     <t>298</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>672</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>45</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>89</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>84956</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8495627</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3269,8 +3301,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33C85FA2-5BCC-40CB-8D0B-9FB594EB2DDB}">
   <dimension ref="A1:AA35"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="U26" sqref="U26"/>
+    <sheetView topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="X26" sqref="X26:AA26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -5166,49 +5198,75 @@
       <c r="A26" s="1" t="s">
         <v>465</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="B26" s="1" t="s">
+        <v>711</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>712</v>
+      </c>
+      <c r="D26" s="4" t="s">
         <v>687</v>
       </c>
-      <c r="E26" s="1" t="s">
+      <c r="E26" s="2" t="s">
         <v>688</v>
       </c>
-      <c r="F26" s="1" t="s">
+      <c r="F26" s="2" t="s">
         <v>689</v>
       </c>
-      <c r="G26" s="1" t="s">
+      <c r="G26" s="2" t="s">
         <v>690</v>
       </c>
-      <c r="H26" s="1" t="s">
+      <c r="H26" s="2" t="s">
         <v>691</v>
       </c>
-      <c r="I26" s="1" t="s">
+      <c r="I26" s="2" t="s">
         <v>692</v>
       </c>
-      <c r="J26" s="1" t="s">
+      <c r="J26" s="2" t="s">
         <v>695</v>
       </c>
-      <c r="L26" s="1" t="s">
+      <c r="L26" s="2" t="s">
         <v>692</v>
       </c>
-      <c r="M26" s="1" t="s">
+      <c r="M26" s="4" t="s">
         <v>696</v>
       </c>
-      <c r="N26" s="1" t="s">
+      <c r="N26" s="2" t="s">
         <v>532</v>
       </c>
-      <c r="P26" s="1" t="s">
+      <c r="O26" s="2" t="s">
+        <v>713</v>
+      </c>
+      <c r="P26" s="2" t="s">
         <v>692</v>
       </c>
-      <c r="R26" s="1" t="s">
+      <c r="Q26" s="4" t="s">
+        <v>714</v>
+      </c>
+      <c r="R26" s="2" t="s">
         <v>697</v>
       </c>
-      <c r="T26" s="1" t="s">
+      <c r="S26" s="2" t="s">
+        <v>715</v>
+      </c>
+      <c r="T26" s="2" t="s">
         <v>698</v>
       </c>
-      <c r="U26" s="1" t="s">
+      <c r="U26" s="2" t="s">
         <v>689</v>
       </c>
-      <c r="X26" s="12"/>
+      <c r="X26" s="16" t="s">
+        <v>717</v>
+      </c>
+      <c r="Y26" s="4" t="s">
+        <v>716</v>
+      </c>
+      <c r="Z26" s="4" t="s">
+        <v>718</v>
+      </c>
+      <c r="AA26" s="4" t="s">
+        <v>718</v>
+      </c>
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
@@ -5264,7 +5322,7 @@
   <dimension ref="A1:U24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Y14" sqref="Y14"/>
+      <selection activeCell="E22" activeCellId="5" sqref="P22 M22 K22 J22 G22 E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -6443,52 +6501,55 @@
       <c r="A22" s="1" t="s">
         <v>381</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="B22" s="1" t="s">
+        <v>711</v>
+      </c>
+      <c r="C22" s="2" t="s">
         <v>699</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="D22" s="2" t="s">
         <v>701</v>
       </c>
-      <c r="E22" s="1" t="s">
+      <c r="E22" s="4" t="s">
         <v>700</v>
       </c>
-      <c r="G22" s="1" t="s">
+      <c r="G22" s="4" t="s">
         <v>702</v>
       </c>
-      <c r="H22" s="1" t="s">
+      <c r="H22" s="2" t="s">
         <v>703</v>
       </c>
-      <c r="I22" s="1" t="s">
+      <c r="I22" s="2" t="s">
         <v>703</v>
       </c>
-      <c r="J22" s="1" t="s">
+      <c r="J22" s="4" t="s">
         <v>704</v>
       </c>
-      <c r="K22" s="1" t="s">
+      <c r="K22" s="4" t="s">
         <v>705</v>
       </c>
-      <c r="M22" s="1" t="s">
+      <c r="M22" s="4" t="s">
         <v>706</v>
       </c>
-      <c r="N22" s="1" t="s">
+      <c r="N22" s="2" t="s">
         <v>703</v>
       </c>
-      <c r="O22" s="1" t="s">
+      <c r="O22" s="2" t="s">
         <v>707</v>
       </c>
-      <c r="P22" s="1" t="s">
+      <c r="P22" s="4" t="s">
         <v>708</v>
       </c>
-      <c r="R22" s="1" t="s">
+      <c r="R22" s="2" t="s">
         <v>709</v>
       </c>
-      <c r="S22" s="1" t="s">
+      <c r="S22" s="2" t="s">
         <v>709</v>
       </c>
-      <c r="T22" s="1" t="s">
+      <c r="T22" s="2" t="s">
         <v>710</v>
       </c>
-      <c r="U22" s="1" t="s">
+      <c r="U22" s="2" t="s">
         <v>703</v>
       </c>
     </row>

--- a/app/src/main/java/com/renfei/mylottery/file/胆码尾巴统计.xlsx
+++ b/app/src/main/java/com/renfei/mylottery/file/胆码尾巴统计.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22130"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WorkSpace\DemoProject\MyLottery\app\src\main\java\com\renfei\mylottery\file\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{938A6924-57B1-4223-BF25-E98BB81AB29F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12465" activeTab="3"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="沙尾吧" sheetId="5" r:id="rId1"/>
@@ -17,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1281" uniqueCount="384">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1279" uniqueCount="399">
   <si>
     <t>期号</t>
   </si>
@@ -1045,9 +1051,6 @@
     <t>千古一胆</t>
   </si>
   <si>
-    <t>彩坛独霸一方</t>
-  </si>
-  <si>
     <t>毒胆帅哥</t>
   </si>
   <si>
@@ -1078,110 +1081,170 @@
     <t>毒霸一方</t>
   </si>
   <si>
-    <t>综合</t>
-  </si>
-  <si>
     <t>154</t>
   </si>
   <si>
+    <t>开奖号码</t>
+  </si>
+  <si>
+    <t>紫霞仙子</t>
+  </si>
+  <si>
+    <t>行走的果壳</t>
+  </si>
+  <si>
+    <t>陌乀路</t>
+  </si>
+  <si>
+    <t>手机维修师看3D</t>
+  </si>
+  <si>
+    <t>w玉娇龙</t>
+  </si>
+  <si>
+    <t>旧人离</t>
+  </si>
+  <si>
+    <t>射雕666</t>
+  </si>
+  <si>
+    <t>四川3D狂</t>
+  </si>
+  <si>
+    <t>a蓝琪儿</t>
+  </si>
+  <si>
+    <t>江苏龙哥</t>
+  </si>
+  <si>
+    <t>苑北方</t>
+  </si>
+  <si>
+    <t>南充老兵</t>
+  </si>
+  <si>
+    <t>无名呀</t>
+  </si>
+  <si>
+    <t>dagger</t>
+  </si>
+  <si>
+    <t>超人再现</t>
+  </si>
+  <si>
+    <t>解说人生</t>
+  </si>
+  <si>
+    <t>kvkvkv</t>
+  </si>
+  <si>
+    <t>出现&gt;2的次数</t>
+  </si>
+  <si>
+    <t>1348059</t>
+  </si>
+  <si>
+    <t>267</t>
+  </si>
+  <si>
+    <t>321</t>
+  </si>
+  <si>
+    <t>322</t>
+  </si>
+  <si>
+    <t>323</t>
+  </si>
+  <si>
+    <t>324</t>
+  </si>
+  <si>
+    <t>325</t>
+  </si>
+  <si>
+    <t>326</t>
+  </si>
+  <si>
+    <t>327</t>
+  </si>
+  <si>
     <t>698</t>
-  </si>
-  <si>
-    <t>开奖号码</t>
-  </si>
-  <si>
-    <t>紫霞仙子</t>
-  </si>
-  <si>
-    <t>行走的果壳</t>
-  </si>
-  <si>
-    <t>陌乀路</t>
-  </si>
-  <si>
-    <t>手机维修师看3D</t>
-  </si>
-  <si>
-    <t>w玉娇龙</t>
-  </si>
-  <si>
-    <t>旧人离</t>
-  </si>
-  <si>
-    <t>射雕666</t>
-  </si>
-  <si>
-    <t>四川3D狂</t>
-  </si>
-  <si>
-    <t>a蓝琪儿</t>
-  </si>
-  <si>
-    <t>江苏龙哥</t>
-  </si>
-  <si>
-    <t>苑北方</t>
-  </si>
-  <si>
-    <t>南充老兵</t>
-  </si>
-  <si>
-    <t>无名呀</t>
-  </si>
-  <si>
-    <t>dagger</t>
-  </si>
-  <si>
-    <t>超人再现</t>
-  </si>
-  <si>
-    <t>解说人生</t>
-  </si>
-  <si>
-    <t>kvkvkv</t>
-  </si>
-  <si>
-    <t>出现&gt;2的次数</t>
-  </si>
-  <si>
-    <t>1348059</t>
-  </si>
-  <si>
-    <t>267</t>
-  </si>
-  <si>
-    <t>321</t>
-  </si>
-  <si>
-    <t>322</t>
-  </si>
-  <si>
-    <t>323</t>
-  </si>
-  <si>
-    <t>324</t>
-  </si>
-  <si>
-    <t>325</t>
-  </si>
-  <si>
-    <t>326</t>
-  </si>
-  <si>
-    <t>327</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>双胆</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>独胆</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>综合出现次数&gt;3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>15</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>69</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>6</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>70</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>7</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>彩坛毒霸一方</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>9</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>8</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>6</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="21">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1197,151 +1260,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <sz val="9"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="43">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1362,13 +1296,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.8"/>
+        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1392,7 +1326,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2" tint="-0.0999786370433668"/>
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1410,192 +1344,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="3" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -1603,253 +1363,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="36" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1956,62 +1474,36 @@
     <xf numFmtId="49" fontId="0" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2269,30 +1761,30 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z35"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="N43" sqref="N43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.775" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="10.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="4" width="5.775" style="14" customWidth="1"/>
-    <col min="5" max="21" width="8.775" style="14" customWidth="1"/>
-    <col min="22" max="22" width="3.775" style="14" customWidth="1"/>
-    <col min="23" max="23" width="15.3333333333333" style="14" customWidth="1"/>
-    <col min="24" max="24" width="17.4416666666667" style="14" customWidth="1"/>
-    <col min="25" max="25" width="8.775" style="14" customWidth="1"/>
-    <col min="26" max="16384" width="10.775" style="14"/>
+    <col min="1" max="4" width="5.77734375" style="14" customWidth="1"/>
+    <col min="5" max="21" width="8.77734375" style="14" customWidth="1"/>
+    <col min="22" max="22" width="3.77734375" style="14" customWidth="1"/>
+    <col min="23" max="23" width="15.33203125" style="14" customWidth="1"/>
+    <col min="24" max="24" width="17.44140625" style="14" customWidth="1"/>
+    <col min="25" max="25" width="8.77734375" style="14" customWidth="1"/>
+    <col min="26" max="16384" width="10.77734375" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" ht="28.5" spans="1:26">
+    <row r="1" spans="1:26" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -2370,7 +1862,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:25">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
         <v>25</v>
       </c>
@@ -2438,7 +1930,7 @@
       </c>
       <c r="Y2" s="17"/>
     </row>
-    <row r="3" spans="1:25">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
         <v>40</v>
       </c>
@@ -2508,7 +2000,7 @@
       </c>
       <c r="Y3" s="17"/>
     </row>
-    <row r="4" spans="1:25">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
         <v>53</v>
       </c>
@@ -2576,7 +2068,7 @@
       </c>
       <c r="Y4" s="17"/>
     </row>
-    <row r="5" spans="1:25">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
         <v>62</v>
       </c>
@@ -2648,7 +2140,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:25">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
         <v>70</v>
       </c>
@@ -2720,7 +2212,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="7" spans="1:25">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
         <v>77</v>
       </c>
@@ -2790,7 +2282,7 @@
       </c>
       <c r="Y7" s="17"/>
     </row>
-    <row r="8" spans="1:25">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
         <v>82</v>
       </c>
@@ -2865,7 +2357,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="9" spans="1:25">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
         <v>92</v>
       </c>
@@ -2940,7 +2432,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="10" spans="1:25">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
         <v>98</v>
       </c>
@@ -3013,7 +2505,7 @@
       </c>
       <c r="Y10" s="17"/>
     </row>
-    <row r="11" spans="1:25">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
         <v>54</v>
       </c>
@@ -3088,7 +2580,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="12" spans="1:25">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
         <v>115</v>
       </c>
@@ -3163,7 +2655,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="13" spans="1:25">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
         <v>122</v>
       </c>
@@ -3236,7 +2728,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:25">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A14" s="14" t="s">
         <v>127</v>
       </c>
@@ -3310,7 +2802,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:24">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
         <v>132</v>
       </c>
@@ -3381,7 +2873,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="16" spans="1:25">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A16" s="14" t="s">
         <v>138</v>
       </c>
@@ -3455,7 +2947,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="17" spans="1:25">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
         <v>146</v>
       </c>
@@ -3527,7 +3019,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="18" spans="1:25">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A18" s="14" t="s">
         <v>152</v>
       </c>
@@ -3601,7 +3093,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="19" spans="1:24">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A19" s="14" t="s">
         <v>160</v>
       </c>
@@ -3667,7 +3159,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="20" spans="1:24">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
         <v>166</v>
       </c>
@@ -3735,7 +3227,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="21" spans="1:25">
+    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A21" s="14" t="s">
         <v>172</v>
       </c>
@@ -3806,7 +3298,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="22" spans="1:26">
+    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A22" s="14" t="s">
         <v>178</v>
       </c>
@@ -3883,7 +3375,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="23" spans="1:26">
+    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A23" s="14" t="s">
         <v>184</v>
       </c>
@@ -3960,7 +3452,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="24" spans="1:25">
+    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A24" s="14" t="s">
         <v>190</v>
       </c>
@@ -4034,7 +3526,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="25" spans="1:26">
+    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A25" s="14" t="s">
         <v>196</v>
       </c>
@@ -4111,7 +3603,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="26" spans="1:26">
+    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A26" s="14" t="s">
         <v>202</v>
       </c>
@@ -4186,7 +3678,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="27" spans="1:26">
+    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A27" s="14" t="s">
         <v>208</v>
       </c>
@@ -4260,7 +3752,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="28" spans="1:24">
+    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A28" s="14" t="s">
         <v>213</v>
       </c>
@@ -4300,7 +3792,6 @@
       <c r="P28" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="Q28" s="14"/>
       <c r="R28" s="14" t="s">
         <v>33</v>
       </c>
@@ -4320,59 +3811,58 @@
         <v>217</v>
       </c>
     </row>
-    <row r="29" spans="1:23">
+    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A29" s="14" t="s">
         <v>218</v>
       </c>
       <c r="W29" s="33"/>
     </row>
-    <row r="30" spans="23:23">
+    <row r="30" spans="1:26" x14ac:dyDescent="0.25">
       <c r="W30" s="33"/>
     </row>
-    <row r="31" spans="23:23">
+    <row r="31" spans="1:26" x14ac:dyDescent="0.25">
       <c r="W31" s="33"/>
     </row>
-    <row r="32" spans="23:23">
+    <row r="32" spans="1:26" x14ac:dyDescent="0.25">
       <c r="W32" s="33"/>
     </row>
-    <row r="33" spans="23:23">
+    <row r="33" spans="23:23" x14ac:dyDescent="0.25">
       <c r="W33" s="33"/>
     </row>
-    <row r="34" spans="23:23">
+    <row r="34" spans="23:23" x14ac:dyDescent="0.25">
       <c r="W34" s="33"/>
     </row>
-    <row r="35" spans="23:23">
+    <row r="35" spans="23:23" x14ac:dyDescent="0.25">
       <c r="W35" s="33"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AT21"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L24" sqref="L24"/>
+    <sheetView topLeftCell="J1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="V12" sqref="V12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="6.775" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="6.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="15" width="6.775" style="14"/>
-    <col min="16" max="16" width="3.775" style="14" customWidth="1"/>
-    <col min="17" max="17" width="10.4416666666667" style="14" customWidth="1"/>
-    <col min="18" max="33" width="6.775" style="14"/>
-    <col min="34" max="34" width="8.625" style="14" customWidth="1"/>
-    <col min="35" max="35" width="3.775" style="14" customWidth="1"/>
-    <col min="36" max="36" width="13.5583333333333" style="14" customWidth="1"/>
-    <col min="37" max="16384" width="6.775" style="14"/>
+    <col min="1" max="15" width="6.77734375" style="14"/>
+    <col min="16" max="16" width="3.77734375" style="14" customWidth="1"/>
+    <col min="17" max="17" width="10.44140625" style="14" customWidth="1"/>
+    <col min="18" max="33" width="6.77734375" style="14"/>
+    <col min="34" max="34" width="8.6640625" style="14" customWidth="1"/>
+    <col min="35" max="35" width="3.77734375" style="14" customWidth="1"/>
+    <col min="36" max="36" width="13.5546875" style="14" customWidth="1"/>
+    <col min="37" max="16384" width="6.77734375" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" ht="36" customHeight="1" spans="1:46">
+    <row r="1" spans="1:46" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5"/>
       <c r="B1" s="5"/>
       <c r="C1" s="5" t="s">
@@ -4483,7 +3973,7 @@
       <c r="AS1" s="5"/>
       <c r="AT1" s="5"/>
     </row>
-    <row r="2" spans="1:32">
+    <row r="2" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
         <v>160</v>
       </c>
@@ -4557,7 +4047,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="3" spans="1:35">
+    <row r="3" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
         <v>166</v>
       </c>
@@ -4637,7 +4127,7 @@
       <c r="AH3" s="17"/>
       <c r="AI3" s="17"/>
     </row>
-    <row r="4" spans="1:35">
+    <row r="4" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
         <v>172</v>
       </c>
@@ -4719,7 +4209,7 @@
       <c r="AH4" s="17"/>
       <c r="AI4" s="17"/>
     </row>
-    <row r="5" spans="1:37">
+    <row r="5" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
         <v>178</v>
       </c>
@@ -4818,7 +4308,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="6" spans="1:37">
+    <row r="6" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
         <v>184</v>
       </c>
@@ -4920,7 +4410,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="7" spans="1:37">
+    <row r="7" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
         <v>190</v>
       </c>
@@ -5025,7 +4515,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="8" spans="1:37">
+    <row r="8" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
         <v>196</v>
       </c>
@@ -5130,7 +4620,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="9" spans="1:37">
+    <row r="9" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
         <v>202</v>
       </c>
@@ -5232,7 +4722,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="10" spans="1:37">
+    <row r="10" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
         <v>208</v>
       </c>
@@ -5337,7 +4827,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:37">
+    <row r="11" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
         <v>213</v>
       </c>
@@ -5438,15 +4928,18 @@
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:24">
+    <row r="12" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
         <v>218</v>
       </c>
+      <c r="V12" s="40" t="s">
+        <v>390</v>
+      </c>
       <c r="X12" s="14" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="13" spans="1:24">
+    <row r="13" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
         <v>317</v>
       </c>
@@ -5454,7 +4947,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="14" spans="1:24">
+    <row r="14" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A14" s="14" t="s">
         <v>318</v>
       </c>
@@ -5462,7 +4955,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="15" spans="1:24">
+    <row r="15" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
         <v>319</v>
       </c>
@@ -5470,7 +4963,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="16" spans="1:24">
+    <row r="16" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A16" s="14" t="s">
         <v>320</v>
       </c>
@@ -5478,7 +4971,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="17" spans="1:24">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
         <v>321</v>
       </c>
@@ -5486,7 +4979,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="18" spans="1:24">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A18" s="14" t="s">
         <v>322</v>
       </c>
@@ -5494,7 +4987,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="19" spans="1:24">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A19" s="14" t="s">
         <v>284</v>
       </c>
@@ -5502,7 +4995,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="20" spans="1:24">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
         <v>323</v>
       </c>
@@ -5510,36 +5003,35 @@
         <v>119</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A21" s="14" t="s">
         <v>324</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:AG29"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:AH14"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K35" sqref="K35"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="W19" sqref="W19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.66666666666667" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="4.6640625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="31" width="4.66666666666667" style="5" customWidth="1"/>
-    <col min="32" max="32" width="10.625" style="5" customWidth="1"/>
-    <col min="33" max="16362" width="4.66666666666667" style="5" customWidth="1"/>
-    <col min="16363" max="16384" width="4.66666666666667" style="5"/>
+    <col min="1" max="31" width="4.6640625" style="5" customWidth="1"/>
+    <col min="32" max="32" width="10.6640625" style="5" customWidth="1"/>
+    <col min="33" max="16362" width="4.6640625" style="5" customWidth="1"/>
+    <col min="16363" max="16384" width="4.6640625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" ht="57" spans="1:33">
+    <row r="1" spans="1:34" ht="82.8" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -5597,50 +5089,55 @@
       <c r="S1" s="6" t="s">
         <v>341</v>
       </c>
-      <c r="T1" s="6" t="s">
+      <c r="T1" s="41" t="s">
+        <v>393</v>
+      </c>
+      <c r="U1" s="7" t="s">
         <v>342</v>
       </c>
-      <c r="U1" s="7" t="s">
+      <c r="V1" s="6" t="s">
         <v>343</v>
       </c>
-      <c r="V1" s="6" t="s">
+      <c r="W1" s="6" t="s">
         <v>344</v>
       </c>
-      <c r="W1" s="6" t="s">
+      <c r="X1" s="6" t="s">
         <v>345</v>
       </c>
-      <c r="X1" s="6" t="s">
+      <c r="Y1" s="6" t="s">
         <v>346</v>
       </c>
-      <c r="Y1" s="6" t="s">
+      <c r="Z1" s="6" t="s">
         <v>347</v>
       </c>
-      <c r="Z1" s="6" t="s">
+      <c r="AA1" s="6" t="s">
         <v>348</v>
       </c>
-      <c r="AA1" s="6" t="s">
+      <c r="AB1" s="6" t="s">
         <v>349</v>
       </c>
-      <c r="AB1" s="6" t="s">
+      <c r="AC1" s="6" t="s">
         <v>350</v>
       </c>
-      <c r="AC1" s="6" t="s">
+      <c r="AD1" s="7" t="s">
         <v>351</v>
       </c>
-      <c r="AD1" s="7" t="s">
-        <v>352</v>
-      </c>
-      <c r="AF1" s="5" t="s">
-        <v>353</v>
-      </c>
-      <c r="AG1" s="13"/>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="AF1" s="37" t="s">
+        <v>384</v>
+      </c>
+      <c r="AG1" s="37" t="s">
+        <v>382</v>
+      </c>
+      <c r="AH1" s="37" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>25</v>
+        <v>146</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>26</v>
+        <v>83</v>
       </c>
       <c r="C2" s="8"/>
       <c r="D2" s="8"/>
@@ -5650,15 +5147,17 @@
       <c r="H2" s="8"/>
       <c r="I2" s="8"/>
       <c r="J2" s="8"/>
-      <c r="K2" s="8"/>
+      <c r="K2" s="9" t="s">
+        <v>27</v>
+      </c>
       <c r="L2" s="8"/>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>40</v>
+        <v>152</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>41</v>
+        <v>153</v>
       </c>
       <c r="C3" s="8"/>
       <c r="D3" s="8"/>
@@ -5668,15 +5167,17 @@
       <c r="H3" s="8"/>
       <c r="I3" s="8"/>
       <c r="J3" s="8"/>
-      <c r="K3" s="8"/>
+      <c r="K3" s="9" t="s">
+        <v>46</v>
+      </c>
       <c r="L3" s="8"/>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>53</v>
+        <v>160</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>54</v>
+        <v>161</v>
       </c>
       <c r="C4" s="8"/>
       <c r="D4" s="8"/>
@@ -5686,15 +5187,20 @@
       <c r="H4" s="8"/>
       <c r="I4" s="8"/>
       <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
+      <c r="K4" s="9" t="s">
+        <v>35</v>
+      </c>
       <c r="L4" s="8"/>
-    </row>
-    <row r="5" spans="1:12">
+      <c r="S4" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>62</v>
+        <v>166</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>63</v>
+        <v>167</v>
       </c>
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
@@ -5704,15 +5210,23 @@
       <c r="H5" s="8"/>
       <c r="I5" s="8"/>
       <c r="J5" s="8"/>
-      <c r="K5" s="8"/>
+      <c r="K5" s="9" t="s">
+        <v>42</v>
+      </c>
       <c r="L5" s="8"/>
-    </row>
-    <row r="6" spans="1:12">
+      <c r="P5" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="S5" s="9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>70</v>
+        <v>172</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>71</v>
+        <v>173</v>
       </c>
       <c r="C6" s="8"/>
       <c r="D6" s="8"/>
@@ -5722,15 +5236,23 @@
       <c r="H6" s="8"/>
       <c r="I6" s="8"/>
       <c r="J6" s="8"/>
-      <c r="K6" s="8"/>
+      <c r="K6" s="9" t="s">
+        <v>35</v>
+      </c>
       <c r="L6" s="8"/>
-    </row>
-    <row r="7" spans="1:12">
+      <c r="P6" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="S6" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>77</v>
+        <v>178</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>78</v>
+        <v>179</v>
       </c>
       <c r="C7" s="8"/>
       <c r="D7" s="8"/>
@@ -5740,15 +5262,23 @@
       <c r="H7" s="8"/>
       <c r="I7" s="8"/>
       <c r="J7" s="8"/>
-      <c r="K7" s="8"/>
+      <c r="K7" s="9" t="s">
+        <v>34</v>
+      </c>
       <c r="L7" s="8"/>
-    </row>
-    <row r="8" spans="1:12">
+      <c r="P7" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="S7" s="9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>82</v>
+        <v>184</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>83</v>
+        <v>185</v>
       </c>
       <c r="C8" s="8"/>
       <c r="D8" s="8"/>
@@ -5756,701 +5286,474 @@
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
+      <c r="I8" s="9" t="s">
+        <v>27</v>
+      </c>
       <c r="J8" s="8"/>
-      <c r="K8" s="8"/>
+      <c r="K8" s="10" t="s">
+        <v>32</v>
+      </c>
       <c r="L8" s="8"/>
-    </row>
-    <row r="9" spans="1:12">
+      <c r="O8" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="P8" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="S8" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="T8" s="36" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="9" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>92</v>
+        <v>190</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>93</v>
+        <v>191</v>
       </c>
       <c r="C9" s="8"/>
       <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
+      <c r="E9" s="9" t="s">
+        <v>33</v>
+      </c>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
+      <c r="I9" s="9" t="s">
+        <v>33</v>
+      </c>
       <c r="J9" s="8"/>
-      <c r="K9" s="8"/>
+      <c r="K9" s="9" t="s">
+        <v>33</v>
+      </c>
       <c r="L9" s="8"/>
-    </row>
-    <row r="10" spans="1:12">
+      <c r="O9" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="P9" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="S9" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="T9" s="36" t="s">
+        <v>395</v>
+      </c>
+      <c r="AD9" s="12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>98</v>
+        <v>196</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>99</v>
+        <v>197</v>
       </c>
       <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
+      <c r="D10" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>35</v>
+      </c>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
+      <c r="H10" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="I10" s="9" t="s">
+        <v>35</v>
+      </c>
       <c r="J10" s="8"/>
-      <c r="K10" s="8"/>
+      <c r="K10" s="9" t="s">
+        <v>57</v>
+      </c>
       <c r="L10" s="8"/>
-    </row>
-    <row r="11" spans="1:12">
+      <c r="O10" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="P10" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="S10" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="T10" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="X10" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="AC10" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="AD10" s="12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>54</v>
+        <v>202</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>107</v>
+        <v>203</v>
       </c>
       <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
+      <c r="D11" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>42</v>
+      </c>
       <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8"/>
-      <c r="J11" s="8"/>
-      <c r="K11" s="8"/>
+      <c r="G11" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="H11" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="I11" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="J11" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="K11" s="10" t="s">
+        <v>29</v>
+      </c>
       <c r="L11" s="8"/>
-    </row>
-    <row r="12" spans="1:12">
+      <c r="M11" s="9">
+        <v>2</v>
+      </c>
+      <c r="N11" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="O11" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="P11" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="S11" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="T11" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="V11" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="X11" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z11" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="AC11" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="AD11" s="12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
-        <v>115</v>
+        <v>208</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8"/>
-      <c r="J12" s="8"/>
-      <c r="K12" s="8"/>
-      <c r="L12" s="8"/>
-    </row>
-    <row r="13" spans="1:12">
+        <v>209</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="G12" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="H12" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="I12" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="J12" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="K12" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="L12" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="M12" s="9">
+        <v>1</v>
+      </c>
+      <c r="N12" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="O12" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="P12" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q12" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="R12" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="S12" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="T12" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="U12" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="V12" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="W12" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="X12" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y12" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z12" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA12" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="AB12" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="AC12" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="AD12" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="AF12" s="12" t="s">
+        <v>352</v>
+      </c>
+      <c r="AG12" s="36" t="s">
+        <v>385</v>
+      </c>
+      <c r="AH12" s="36" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="13" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
-        <v>122</v>
+        <v>213</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="8"/>
-      <c r="J13" s="8"/>
-      <c r="K13" s="8"/>
-      <c r="L13" s="8"/>
-    </row>
-    <row r="14" spans="1:12">
+        <v>313</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="F13" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="G13" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="I13" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="J13" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="K13" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="L13" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="M13" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="N13" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="O13" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="P13" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q13" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="R13" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="S13" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="T13" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="U13" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="V13" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="W13" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="X13" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y13" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z13" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="AA13" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB13" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="AC13" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="AD13" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="AF13" s="38" t="s">
+        <v>381</v>
+      </c>
+      <c r="AG13" s="38" t="s">
+        <v>387</v>
+      </c>
+      <c r="AH13" s="38" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="14" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="8"/>
-      <c r="J14" s="8"/>
-      <c r="K14" s="8"/>
-      <c r="L14" s="8"/>
-    </row>
-    <row r="15" spans="1:12">
-      <c r="A15" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="8"/>
-      <c r="J15" s="8"/>
-      <c r="K15" s="8"/>
-      <c r="L15" s="8"/>
-    </row>
-    <row r="16" spans="1:12">
-      <c r="A16" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="8"/>
-      <c r="J16" s="8"/>
-      <c r="K16" s="8"/>
-      <c r="L16" s="8"/>
-    </row>
-    <row r="17" spans="1:12">
-      <c r="A17" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="8"/>
-      <c r="I17" s="8"/>
-      <c r="J17" s="8"/>
-      <c r="K17" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="L17" s="8"/>
-    </row>
-    <row r="18" spans="1:12">
-      <c r="A18" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="8"/>
-      <c r="I18" s="8"/>
-      <c r="J18" s="8"/>
-      <c r="K18" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="L18" s="8"/>
-    </row>
-    <row r="19" spans="1:19">
-      <c r="A19" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="8"/>
-      <c r="I19" s="8"/>
-      <c r="J19" s="8"/>
-      <c r="K19" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="L19" s="8"/>
-      <c r="S19" s="9" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="20" spans="1:19">
-      <c r="A20" s="5" t="s">
-        <v>166</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="8"/>
-      <c r="I20" s="8"/>
-      <c r="J20" s="8"/>
-      <c r="K20" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="L20" s="8"/>
-      <c r="P20" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="S20" s="9" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="21" spans="1:19">
-      <c r="A21" s="5" t="s">
-        <v>172</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>173</v>
-      </c>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="8"/>
-      <c r="G21" s="8"/>
-      <c r="H21" s="8"/>
-      <c r="I21" s="8"/>
-      <c r="J21" s="8"/>
-      <c r="K21" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="L21" s="8"/>
-      <c r="P21" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="S21" s="9" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="22" spans="1:19">
-      <c r="A22" s="5" t="s">
-        <v>178</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>179</v>
-      </c>
-      <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="8"/>
-      <c r="H22" s="8"/>
-      <c r="I22" s="8"/>
-      <c r="J22" s="8"/>
-      <c r="K22" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="L22" s="8"/>
-      <c r="P22" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="S22" s="9" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="23" spans="1:19">
-      <c r="A23" s="5" t="s">
-        <v>184</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>185</v>
-      </c>
-      <c r="C23" s="8"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8"/>
-      <c r="G23" s="8"/>
-      <c r="H23" s="8"/>
-      <c r="I23" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="J23" s="8"/>
-      <c r="K23" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="L23" s="8"/>
-      <c r="O23" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="P23" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="S23" s="9" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="24" spans="1:30">
-      <c r="A24" s="5" t="s">
-        <v>190</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>191</v>
-      </c>
-      <c r="C24" s="8"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="F24" s="8"/>
-      <c r="G24" s="8"/>
-      <c r="H24" s="8"/>
-      <c r="I24" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="J24" s="8"/>
-      <c r="K24" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="L24" s="8"/>
-      <c r="O24" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="P24" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="S24" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="AD24" s="12" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="25" spans="1:30">
-      <c r="A25" s="5" t="s">
-        <v>196</v>
-      </c>
-      <c r="B25" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="C25" s="8"/>
-      <c r="D25" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="E25" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="F25" s="8"/>
-      <c r="G25" s="8"/>
-      <c r="H25" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="I25" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="J25" s="8"/>
-      <c r="K25" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="L25" s="8"/>
-      <c r="O25" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="P25" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="S25" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="T25" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="X25" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="AC25" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="AD25" s="12" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="26" spans="1:30">
-      <c r="A26" s="5" t="s">
-        <v>202</v>
-      </c>
-      <c r="B26" s="5" t="s">
-        <v>203</v>
-      </c>
-      <c r="C26" s="8"/>
-      <c r="D26" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="E26" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="F26" s="8"/>
-      <c r="G26" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="H26" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="I26" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="J26" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="K26" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="L26" s="8"/>
-      <c r="M26" s="9">
-        <v>2</v>
-      </c>
-      <c r="N26" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="O26" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="P26" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="S26" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="T26" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="V26" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="X26" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="Z26" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="AC26" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="AD26" s="12" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="27" spans="1:32">
-      <c r="A27" s="5" t="s">
-        <v>208</v>
-      </c>
-      <c r="B27" s="5" t="s">
-        <v>209</v>
-      </c>
-      <c r="C27" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="D27" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="E27" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="F27" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="G27" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="H27" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="I27" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="J27" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="K27" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="L27" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="M27" s="9">
-        <v>1</v>
-      </c>
-      <c r="N27" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="O27" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="P27" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q27" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="R27" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="S27" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="T27" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="U27" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="V27" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="W27" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="X27" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="Y27" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="Z27" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="AA27" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="AB27" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC27" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="AD27" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="AF27" s="12" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="28" spans="1:32">
-      <c r="A28" s="5" t="s">
-        <v>213</v>
-      </c>
-      <c r="B28" s="5" t="s">
-        <v>313</v>
-      </c>
-      <c r="C28" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="D28" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="E28" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="F28" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="G28" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="H28" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="I28" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="J28" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="K28" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="L28" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="M28" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="N28" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="O28" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="P28" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q28" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="R28" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="S28" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="T28" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="U28" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="V28" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="W28" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="X28" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="Y28" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="Z28" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="AA28" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="AB28" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="AC28" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="AD28" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="AF28" s="9" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1">
-      <c r="A29" s="5" t="s">
         <v>218</v>
       </c>
+      <c r="C14" s="37" t="s">
+        <v>396</v>
+      </c>
+      <c r="D14" s="37" t="s">
+        <v>397</v>
+      </c>
+      <c r="E14" s="37" t="s">
+        <v>395</v>
+      </c>
+      <c r="G14" s="37" t="s">
+        <v>395</v>
+      </c>
+      <c r="H14" s="39"/>
+      <c r="I14" s="37" t="s">
+        <v>389</v>
+      </c>
+      <c r="J14" s="37" t="s">
+        <v>396</v>
+      </c>
+      <c r="K14" s="37" t="s">
+        <v>389</v>
+      </c>
+      <c r="L14" s="37" t="s">
+        <v>391</v>
+      </c>
+      <c r="O14" s="37" t="s">
+        <v>391</v>
+      </c>
+      <c r="P14" s="37" t="s">
+        <v>392</v>
+      </c>
+      <c r="R14" s="37" t="s">
+        <v>396</v>
+      </c>
+      <c r="T14" s="37" t="s">
+        <v>391</v>
+      </c>
+      <c r="U14" s="37" t="s">
+        <v>396</v>
+      </c>
+      <c r="V14" s="37" t="s">
+        <v>396</v>
+      </c>
+      <c r="W14" s="37" t="s">
+        <v>395</v>
+      </c>
+      <c r="Y14" s="37" t="s">
+        <v>397</v>
+      </c>
+      <c r="AA14" s="37" t="s">
+        <v>396</v>
+      </c>
+      <c r="AB14" s="37" t="s">
+        <v>394</v>
+      </c>
+      <c r="AC14" s="37" t="s">
+        <v>398</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AX19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U7" sqref="U7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="U2" sqref="U2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.625" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="4.6640625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="28" width="4.625" style="1" customWidth="1"/>
+    <col min="1" max="28" width="4.6640625" style="1" customWidth="1"/>
     <col min="29" max="29" width="14" style="1" customWidth="1"/>
-    <col min="30" max="16384" width="4.625" style="1" customWidth="1"/>
+    <col min="30" max="30" width="4.6640625" style="1" customWidth="1"/>
+    <col min="31" max="16384" width="4.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="57" spans="1:30">
+    <row r="1" spans="1:50" ht="96.6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
@@ -6468,7 +5771,7 @@
         <v>5</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>12</v>
@@ -6477,67 +5780,67 @@
         <v>14</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>13</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="P1" s="1" t="s">
         <v>19</v>
       </c>
       <c r="Q1" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="T1" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>363</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>366</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>368</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>370</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>371</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>372</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>374</v>
       </c>
       <c r="AD1" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:50">
+    <row r="2" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>213</v>
       </c>
@@ -6621,10 +5924,10 @@
         <v>32</v>
       </c>
       <c r="AC2" s="3" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="AD2" s="3" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="AE2" s="4"/>
       <c r="AF2" s="4"/>
@@ -6647,93 +5950,93 @@
       <c r="AW2" s="4"/>
       <c r="AX2" s="4"/>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
+    <row r="8" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
+    <row r="9" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
+    <row r="10" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
+    <row r="11" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="12" spans="1:1">
+    <row r="12" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
+    <row r="13" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="14" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="15" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="16" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="14" spans="1:1">
-      <c r="A14" s="1" t="s">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="15" spans="1:1">
-      <c r="A15" s="1" t="s">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="16" spans="1:1">
-      <c r="A16" s="1" t="s">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
-      <c r="A17" s="1" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1">
-      <c r="A18" s="1" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1">
-      <c r="A19" s="1" t="s">
-        <v>383</v>
-      </c>
-    </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/app/src/main/java/com/renfei/mylottery/file/胆码尾巴统计.xlsx
+++ b/app/src/main/java/com/renfei/mylottery/file/胆码尾巴统计.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WorkSpace\DemoProject\MyLottery\app\src\main\java\com\renfei\mylottery\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8277DF95-A02A-403A-8748-D80E5B347A2C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F2D868D-AC2D-4B41-9A90-EAF412F05BD8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6180" yWindow="756" windowWidth="14184" windowHeight="11472" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="论坛胆码" sheetId="3" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="977" uniqueCount="571">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1024" uniqueCount="607">
   <si>
     <t>彩坛的达人</t>
   </si>
@@ -2097,7 +2097,151 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>345789</t>
+    <t>044</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>8</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>71</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>7</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>374589</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>06</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>02</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>16</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>46</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>06</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>38</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>03</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>80</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>21</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>13</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>910</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>12</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>23</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>26</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>56</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>19</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>48</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>57</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>8</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>25</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>49</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>01</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>7</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>08</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>81</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>6</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>480157</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2693</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2546,8 +2690,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AO33"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B19" sqref="B16:B19"/>
+    <sheetView topLeftCell="Q1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AG22" sqref="AG22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -4143,88 +4287,149 @@
       <c r="A20" s="8" t="s">
         <v>193</v>
       </c>
-      <c r="C20" s="18" t="s">
+      <c r="B20" s="18" t="s">
+        <v>570</v>
+      </c>
+      <c r="C20" s="22" t="s">
         <v>560</v>
       </c>
-      <c r="D20" s="18" t="s">
+      <c r="D20" s="21" t="s">
         <v>561</v>
       </c>
-      <c r="E20" s="18" t="s">
+      <c r="E20" s="22" t="s">
         <v>562</v>
       </c>
-      <c r="F20" s="18" t="s">
+      <c r="F20" s="22" t="s">
         <v>563</v>
       </c>
-      <c r="G20" s="18" t="s">
+      <c r="G20" s="21" t="s">
         <v>558</v>
       </c>
-      <c r="H20" s="18" t="s">
+      <c r="H20" s="22" t="s">
         <v>564</v>
       </c>
-      <c r="I20" s="18" t="s">
+      <c r="I20" s="21" t="s">
         <v>508</v>
       </c>
-      <c r="J20" s="18" t="s">
+      <c r="J20" s="21" t="s">
         <v>558</v>
       </c>
-      <c r="K20" s="18" t="s">
+      <c r="K20" s="22" t="s">
         <v>563</v>
       </c>
-      <c r="L20" s="18" t="s">
+      <c r="L20" s="22" t="s">
         <v>566</v>
       </c>
-      <c r="M20" s="18" t="s">
+      <c r="M20" s="21" t="s">
         <v>565</v>
       </c>
-      <c r="O20" s="18" t="s">
+      <c r="O20" s="21" t="s">
         <v>567</v>
       </c>
-      <c r="P20" s="18" t="s">
+      <c r="P20" s="21" t="s">
         <v>567</v>
       </c>
-      <c r="Q20" s="18" t="s">
+      <c r="Q20" s="22" t="s">
         <v>568</v>
       </c>
-      <c r="R20" s="18" t="s">
+      <c r="R20" s="22" t="s">
         <v>569</v>
       </c>
-      <c r="T20" s="18" t="s">
+      <c r="T20" s="22" t="s">
         <v>521</v>
       </c>
-      <c r="U20" s="18" t="s">
+      <c r="U20" s="21" t="s">
         <v>556</v>
       </c>
-      <c r="V20" s="18" t="s">
+      <c r="V20" s="21" t="s">
         <v>557</v>
       </c>
-      <c r="W20" s="18" t="s">
+      <c r="W20" s="21" t="s">
         <v>537</v>
       </c>
-      <c r="Y20" s="18" t="s">
+      <c r="X20" s="21" t="s">
+        <v>581</v>
+      </c>
+      <c r="Y20" s="22" t="s">
         <v>524</v>
       </c>
-      <c r="Z20" s="18" t="s">
+      <c r="Z20" s="22" t="s">
         <v>540</v>
       </c>
-      <c r="AA20" s="18" t="s">
+      <c r="AA20" s="22" t="s">
         <v>535</v>
       </c>
-      <c r="AB20" s="18" t="s">
+      <c r="AB20" s="21" t="s">
         <v>558</v>
       </c>
-      <c r="AC20" s="18" t="s">
+      <c r="AC20" s="22" t="s">
         <v>541</v>
       </c>
-      <c r="AE20" s="18" t="s">
+      <c r="AE20" s="21" t="s">
         <v>559</v>
       </c>
-      <c r="AF20" s="18" t="s">
+      <c r="AF20" s="22" t="s">
         <v>560</v>
       </c>
     </row>
     <row r="21" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
         <v>194</v>
+      </c>
+      <c r="C21" s="18" t="s">
+        <v>586</v>
+      </c>
+      <c r="D21" s="18" t="s">
+        <v>587</v>
+      </c>
+      <c r="E21" s="18" t="s">
+        <v>588</v>
+      </c>
+      <c r="F21" s="18" t="s">
+        <v>589</v>
+      </c>
+      <c r="G21" s="18" t="s">
+        <v>590</v>
+      </c>
+      <c r="H21" s="18" t="s">
+        <v>581</v>
+      </c>
+      <c r="I21" s="18" t="s">
+        <v>591</v>
+      </c>
+      <c r="J21" s="18" t="s">
+        <v>592</v>
+      </c>
+      <c r="K21" s="18" t="s">
+        <v>586</v>
+      </c>
+      <c r="M21" s="18" t="s">
+        <v>592</v>
+      </c>
+      <c r="T21" s="18" t="s">
+        <v>577</v>
+      </c>
+      <c r="U21" s="18" t="s">
+        <v>573</v>
+      </c>
+      <c r="V21" s="18"/>
+      <c r="W21" s="18" t="s">
+        <v>580</v>
+      </c>
+      <c r="Y21" s="18" t="s">
+        <v>582</v>
+      </c>
+      <c r="Z21" s="18" t="s">
+        <v>583</v>
+      </c>
+      <c r="AA21" s="18" t="s">
+        <v>584</v>
+      </c>
+      <c r="AB21" s="18" t="s">
+        <v>585</v>
+      </c>
+      <c r="AC21" s="18" t="s">
+        <v>583</v>
       </c>
     </row>
     <row r="22" spans="1:32" x14ac:dyDescent="0.25">
@@ -4298,8 +4503,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AV22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AA14" sqref="AA14"/>
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="AB15" sqref="AB15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.6640625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -5385,72 +5590,142 @@
       <c r="A14" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="D14" s="17" t="s">
+      <c r="B14" s="17" t="s">
+        <v>570</v>
+      </c>
+      <c r="C14" s="17" t="s">
+        <v>571</v>
+      </c>
+      <c r="D14" s="20" t="s">
         <v>549</v>
       </c>
-      <c r="E14" s="17" t="s">
+      <c r="E14" s="19" t="s">
         <v>550</v>
       </c>
-      <c r="F14" s="17" t="s">
+      <c r="F14" s="20" t="s">
         <v>504</v>
       </c>
-      <c r="H14" s="17" t="s">
+      <c r="G14" s="23"/>
+      <c r="H14" s="19" t="s">
         <v>509</v>
       </c>
-      <c r="I14" s="17" t="s">
+      <c r="I14" s="19" t="s">
         <v>505</v>
       </c>
-      <c r="J14" s="17" t="s">
+      <c r="J14" s="19" t="s">
         <v>551</v>
       </c>
       <c r="K14" s="23"/>
-      <c r="L14" s="17" t="s">
+      <c r="L14" s="19" t="s">
         <v>501</v>
       </c>
-      <c r="N14" s="17" t="s">
+      <c r="M14" s="19" t="s">
+        <v>574</v>
+      </c>
+      <c r="N14" s="19" t="s">
         <v>515</v>
       </c>
-      <c r="O14" s="17" t="s">
+      <c r="O14" s="19" t="s">
         <v>517</v>
       </c>
-      <c r="P14" s="17" t="s">
+      <c r="P14" s="19" t="s">
         <v>521</v>
       </c>
-      <c r="R14" s="17" t="s">
+      <c r="Q14" s="19" t="s">
+        <v>575</v>
+      </c>
+      <c r="R14" s="19" t="s">
         <v>512</v>
       </c>
-      <c r="S14" s="17" t="s">
+      <c r="S14" s="19" t="s">
         <v>552</v>
       </c>
-      <c r="T14" s="17" t="s">
+      <c r="T14" s="19" t="s">
         <v>524</v>
       </c>
-      <c r="U14" s="17" t="s">
+      <c r="U14" s="20" t="s">
         <v>498</v>
       </c>
-      <c r="V14" s="17" t="s">
+      <c r="V14" s="19" t="s">
         <v>505</v>
       </c>
-      <c r="W14" s="17" t="s">
+      <c r="W14" s="19" t="s">
         <v>555</v>
       </c>
-      <c r="X14" s="17" t="s">
+      <c r="X14" s="19" t="s">
         <v>526</v>
       </c>
-      <c r="Y14" s="17" t="s">
+      <c r="Y14" s="19" t="s">
         <v>510</v>
       </c>
-      <c r="AA14" s="17" t="s">
-        <v>570</v>
+      <c r="AA14" s="20" t="s">
+        <v>576</v>
       </c>
     </row>
     <row r="15" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>194</v>
       </c>
+      <c r="D15" s="17" t="s">
+        <v>593</v>
+      </c>
+      <c r="E15" s="17" t="s">
+        <v>594</v>
+      </c>
+      <c r="F15" s="17" t="s">
+        <v>595</v>
+      </c>
+      <c r="G15" s="17" t="s">
+        <v>573</v>
+      </c>
+      <c r="H15" s="17" t="s">
+        <v>596</v>
+      </c>
+      <c r="I15" s="17" t="s">
+        <v>597</v>
+      </c>
+      <c r="J15" s="17" t="s">
+        <v>598</v>
+      </c>
       <c r="K15" s="23"/>
       <c r="L15" s="17" t="s">
         <v>503</v>
+      </c>
+      <c r="M15" s="17" t="s">
+        <v>574</v>
+      </c>
+      <c r="N15" s="17" t="s">
+        <v>599</v>
+      </c>
+      <c r="O15" s="17" t="s">
+        <v>600</v>
+      </c>
+      <c r="P15" s="17" t="s">
+        <v>578</v>
+      </c>
+      <c r="R15" s="17" t="s">
+        <v>601</v>
+      </c>
+      <c r="S15" s="17" t="s">
+        <v>597</v>
+      </c>
+      <c r="T15" s="17" t="s">
+        <v>602</v>
+      </c>
+      <c r="U15" s="17" t="s">
+        <v>603</v>
+      </c>
+      <c r="V15" s="17" t="s">
+        <v>604</v>
+      </c>
+      <c r="Y15" s="17" t="s">
+        <v>597</v>
+      </c>
+      <c r="AA15" s="17" t="s">
+        <v>605</v>
+      </c>
+      <c r="AB15" s="17" t="s">
+        <v>606</v>
       </c>
     </row>
     <row r="16" spans="1:48" x14ac:dyDescent="0.25">
@@ -5516,7 +5791,7 @@
   <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="P17" sqref="P17"/>
+      <selection activeCell="C18" sqref="C18:D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -5758,58 +6033,70 @@
         <v>491</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="C17" s="17" t="s">
+      <c r="B17" s="17" t="s">
+        <v>570</v>
+      </c>
+      <c r="C17" s="19" t="s">
         <v>554</v>
       </c>
-      <c r="D17" s="17" t="s">
+      <c r="D17" s="19" t="s">
         <v>553</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E17" s="17" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C18" s="17" t="s">
+        <v>579</v>
+      </c>
+      <c r="D18" s="17" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>478</v>
       </c>

--- a/app/src/main/java/com/renfei/mylottery/file/胆码尾巴统计.xlsx
+++ b/app/src/main/java/com/renfei/mylottery/file/胆码尾巴统计.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WorkSpace\DemoProject\MyLottery\app\src\main\java\com\renfei\mylottery\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88D689D8-2343-4CC7-BB3E-A463512862BE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FFB54A3-8607-4C4C-9FF8-6F3A3B6C2096}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3504" yWindow="192" windowWidth="17820" windowHeight="11472" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="论坛胆码" sheetId="3" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1055" uniqueCount="621">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1120" uniqueCount="675">
   <si>
     <t>彩坛的达人</t>
   </si>
@@ -2307,6 +2307,222 @@
   </si>
   <si>
     <t>65</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>432</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>8</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>07</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>12</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>9</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>80713</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>单挑</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>24569</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>432</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>38</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>26</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>39</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>51</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>35</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>17</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>56</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>25</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>27</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>84</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>67</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>78</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>9</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>45</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>72</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>60</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>57</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>89</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>28</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>18</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>631</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>19</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>68</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>16</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>15</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1869</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>186</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5267</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>52</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0136</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>7</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>和</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>14</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>770,158,239</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2395,7 +2611,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2477,6 +2693,18 @@
     </xf>
     <xf numFmtId="49" fontId="3" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2758,8 +2986,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AN33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Q22" sqref="Q22"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AE23" sqref="AE23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -4470,88 +4698,169 @@
       <c r="A22" s="8" t="s">
         <v>186</v>
       </c>
-      <c r="C22" s="18" t="s">
+      <c r="B22" s="18" t="s">
+        <v>621</v>
+      </c>
+      <c r="C22" s="22" t="s">
         <v>609</v>
       </c>
-      <c r="D22" s="18" t="s">
+      <c r="D22" s="22" t="s">
         <v>610</v>
       </c>
-      <c r="E22" s="18" t="s">
+      <c r="E22" s="22" t="s">
         <v>609</v>
       </c>
-      <c r="F22" s="18" t="s">
+      <c r="F22" s="22" t="s">
         <v>601</v>
       </c>
-      <c r="G22" s="18" t="s">
+      <c r="G22" s="21" t="s">
         <v>603</v>
       </c>
-      <c r="H22" s="18" t="s">
+      <c r="H22" s="22" t="s">
         <v>611</v>
       </c>
-      <c r="I22" s="18" t="s">
+      <c r="I22" s="22" t="s">
         <v>612</v>
       </c>
-      <c r="J22" s="18" t="s">
+      <c r="J22" s="22" t="s">
         <v>601</v>
       </c>
-      <c r="K22" s="18" t="s">
+      <c r="K22" s="22" t="s">
         <v>601</v>
       </c>
-      <c r="L22" s="18" t="s">
+      <c r="L22" s="21" t="s">
         <v>597</v>
       </c>
-      <c r="N22" s="18" t="s">
+      <c r="N22" s="22" t="s">
         <v>620</v>
       </c>
-      <c r="O22" s="18" t="s">
+      <c r="O22" s="22" t="s">
         <v>620</v>
       </c>
-      <c r="P22" s="18" t="s">
+      <c r="P22" s="22" t="s">
         <v>620</v>
       </c>
-      <c r="Q22" s="18" t="s">
+      <c r="Q22" s="22" t="s">
         <v>620</v>
       </c>
-      <c r="S22" s="18" t="s">
+      <c r="S22" s="21" t="s">
         <v>600</v>
       </c>
-      <c r="T22" s="18" t="s">
+      <c r="T22" s="22" t="s">
         <v>601</v>
       </c>
-      <c r="U22" s="18" t="s">
+      <c r="U22" s="22" t="s">
         <v>584</v>
       </c>
-      <c r="V22" s="18" t="s">
+      <c r="V22" s="22" t="s">
         <v>601</v>
       </c>
-      <c r="W22" s="18" t="s">
+      <c r="W22" s="22" t="s">
         <v>602</v>
       </c>
-      <c r="X22" s="18" t="s">
+      <c r="X22" s="21" t="s">
         <v>603</v>
       </c>
-      <c r="Y22" s="18" t="s">
+      <c r="Y22" s="21" t="s">
         <v>604</v>
       </c>
-      <c r="Z22" s="18" t="s">
+      <c r="Z22" s="22" t="s">
         <v>605</v>
       </c>
-      <c r="AA22" s="18" t="s">
+      <c r="AA22" s="21" t="s">
         <v>606</v>
       </c>
-      <c r="AB22" s="18" t="s">
+      <c r="AB22" s="21" t="s">
         <v>607</v>
       </c>
-      <c r="AD22" s="18" t="s">
+      <c r="AD22" s="21" t="s">
         <v>608</v>
       </c>
-      <c r="AE22" s="18" t="s">
+      <c r="AE22" s="21" t="s">
         <v>600</v>
       </c>
     </row>
     <row r="23" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="s">
         <v>187</v>
+      </c>
+      <c r="C23" s="18" t="s">
+        <v>659</v>
+      </c>
+      <c r="D23" s="18" t="s">
+        <v>660</v>
+      </c>
+      <c r="E23" s="18" t="s">
+        <v>655</v>
+      </c>
+      <c r="F23" s="18" t="s">
+        <v>661</v>
+      </c>
+      <c r="G23" s="18" t="s">
+        <v>645</v>
+      </c>
+      <c r="H23" s="18" t="s">
+        <v>662</v>
+      </c>
+      <c r="I23" s="18" t="s">
+        <v>662</v>
+      </c>
+      <c r="J23" s="18" t="s">
+        <v>663</v>
+      </c>
+      <c r="K23" s="18" t="s">
+        <v>661</v>
+      </c>
+      <c r="L23" s="18" t="s">
+        <v>664</v>
+      </c>
+      <c r="N23" s="18" t="s">
+        <v>665</v>
+      </c>
+      <c r="O23" s="18" t="s">
+        <v>665</v>
+      </c>
+      <c r="P23" s="18" t="s">
+        <v>666</v>
+      </c>
+      <c r="Q23" s="18" t="s">
+        <v>659</v>
+      </c>
+      <c r="S23" s="18" t="s">
+        <v>635</v>
+      </c>
+      <c r="T23" s="18" t="s">
+        <v>636</v>
+      </c>
+      <c r="U23" s="18" t="s">
+        <v>637</v>
+      </c>
+      <c r="V23" s="18" t="s">
+        <v>638</v>
+      </c>
+      <c r="W23" s="18" t="s">
+        <v>639</v>
+      </c>
+      <c r="X23" s="18" t="s">
+        <v>640</v>
+      </c>
+      <c r="Y23" s="18" t="s">
+        <v>641</v>
+      </c>
+      <c r="Z23" s="18" t="s">
+        <v>642</v>
+      </c>
+      <c r="AA23" s="18" t="s">
+        <v>643</v>
+      </c>
+      <c r="AB23" s="18" t="s">
+        <v>644</v>
+      </c>
+      <c r="AD23" s="18" t="s">
+        <v>667</v>
+      </c>
+      <c r="AE23" s="18" t="s">
+        <v>668</v>
       </c>
     </row>
     <row r="24" spans="1:31" x14ac:dyDescent="0.25">
@@ -4615,8 +4924,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AU22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="AE10" sqref="AE10"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17:X17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.6640625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -4706,6 +5015,9 @@
       </c>
       <c r="AA1" s="1" t="s">
         <v>176</v>
+      </c>
+      <c r="AB1" s="28" t="s">
+        <v>629</v>
       </c>
     </row>
     <row r="2" spans="1:47" x14ac:dyDescent="0.25">
@@ -5828,67 +6140,151 @@
       <c r="A16" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="E16" s="17" t="s">
+      <c r="B16" s="28" t="s">
+        <v>621</v>
+      </c>
+      <c r="C16" s="28" t="s">
+        <v>627</v>
+      </c>
+      <c r="D16" s="19" t="s">
+        <v>625</v>
+      </c>
+      <c r="E16" s="19" t="s">
         <v>612</v>
       </c>
-      <c r="F16" s="17" t="s">
+      <c r="F16" s="19" t="s">
         <v>598</v>
       </c>
-      <c r="G16" s="17" t="s">
+      <c r="G16" s="19" t="s">
         <v>613</v>
       </c>
-      <c r="H16" s="17" t="s">
+      <c r="H16" s="19" t="s">
         <v>614</v>
       </c>
-      <c r="I16" s="17" t="s">
+      <c r="I16" s="19" t="s">
         <v>593</v>
       </c>
-      <c r="J16" s="17" t="s">
+      <c r="J16" s="19" t="s">
         <v>592</v>
       </c>
-      <c r="K16" s="17" t="s">
+      <c r="K16" s="19" t="s">
         <v>477</v>
       </c>
-      <c r="L16" s="17" t="s">
+      <c r="L16" s="20" t="s">
         <v>615</v>
       </c>
-      <c r="M16" s="17" t="s">
+      <c r="M16" s="19" t="s">
         <v>616</v>
       </c>
-      <c r="N16" s="17" t="s">
+      <c r="N16" s="20" t="s">
         <v>617</v>
       </c>
-      <c r="O16" s="17" t="s">
+      <c r="O16" s="19" t="s">
         <v>618</v>
       </c>
-      <c r="Q16" s="17" t="s">
+      <c r="P16" s="19" t="s">
+        <v>622</v>
+      </c>
+      <c r="Q16" s="19" t="s">
         <v>592</v>
       </c>
-      <c r="S16" s="17" t="s">
+      <c r="R16" s="19" t="s">
+        <v>623</v>
+      </c>
+      <c r="S16" s="19" t="s">
         <v>614</v>
       </c>
-      <c r="T16" s="17" t="s">
+      <c r="T16" s="19" t="s">
         <v>596</v>
       </c>
-      <c r="U16" s="17" t="s">
+      <c r="U16" s="19" t="s">
         <v>598</v>
       </c>
-      <c r="W16" s="17" t="s">
+      <c r="V16" s="19" t="s">
+        <v>624</v>
+      </c>
+      <c r="W16" s="19" t="s">
         <v>600</v>
       </c>
-      <c r="X16" s="17" t="s">
+      <c r="X16" s="19" t="s">
         <v>596</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="Z16" s="19" t="s">
+        <v>628</v>
+      </c>
+      <c r="AA16" s="19" t="s">
+        <v>630</v>
+      </c>
+      <c r="AB16" s="20" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="17" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>187</v>
       </c>
+      <c r="D17" s="28" t="s">
+        <v>626</v>
+      </c>
+      <c r="E17" s="30" t="s">
+        <v>645</v>
+      </c>
+      <c r="F17" s="30" t="s">
+        <v>646</v>
+      </c>
+      <c r="G17" s="30" t="s">
+        <v>647</v>
+      </c>
+      <c r="H17" s="30" t="s">
+        <v>648</v>
+      </c>
+      <c r="I17" s="30" t="s">
+        <v>646</v>
+      </c>
+      <c r="J17" s="30" t="s">
+        <v>649</v>
+      </c>
       <c r="K17" s="17" t="s">
         <v>484</v>
       </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L17" s="30" t="s">
+        <v>650</v>
+      </c>
+      <c r="M17" s="30" t="s">
+        <v>651</v>
+      </c>
+      <c r="N17" s="30" t="s">
+        <v>652</v>
+      </c>
+      <c r="O17" s="30" t="s">
+        <v>653</v>
+      </c>
+      <c r="Q17" s="30" t="s">
+        <v>649</v>
+      </c>
+      <c r="R17" s="30" t="s">
+        <v>654</v>
+      </c>
+      <c r="S17" s="30" t="s">
+        <v>655</v>
+      </c>
+      <c r="T17" s="30" t="s">
+        <v>656</v>
+      </c>
+      <c r="U17" s="30" t="s">
+        <v>657</v>
+      </c>
+      <c r="W17" s="30" t="s">
+        <v>658</v>
+      </c>
+      <c r="X17" s="30" t="s">
+        <v>647</v>
+      </c>
+      <c r="AA17" s="30" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="18" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>188</v>
       </c>
@@ -5896,7 +6292,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>189</v>
       </c>
@@ -5904,19 +6300,22 @@
         <v>482</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:27" x14ac:dyDescent="0.25">
       <c r="K20" s="17" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:27" x14ac:dyDescent="0.25">
       <c r="K21" s="17" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:27" x14ac:dyDescent="0.25">
       <c r="K22" s="17" t="s">
         <v>476</v>
+      </c>
+      <c r="AA22" s="28" t="s">
+        <v>632</v>
       </c>
     </row>
   </sheetData>
@@ -5928,10 +6327,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{304C9FB2-4070-439F-B7C9-22D65780E3D1}">
-  <dimension ref="A1:G27"/>
+  <dimension ref="A1:I27"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="U17" sqref="U17"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -5939,10 +6338,12 @@
     <col min="1" max="4" width="5.77734375" style="1"/>
     <col min="5" max="5" width="3.77734375" style="1" customWidth="1"/>
     <col min="6" max="6" width="6.6640625" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="5.77734375" style="1"/>
+    <col min="7" max="8" width="5.77734375" style="1"/>
+    <col min="9" max="9" width="11.44140625" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="5.77734375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
         <v>226</v>
       </c>
@@ -5950,7 +6351,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>135</v>
       </c>
@@ -5958,7 +6359,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>141</v>
       </c>
@@ -5972,12 +6373,14 @@
         <v>418</v>
       </c>
       <c r="E4" s="25"/>
-      <c r="F4" s="28" t="s">
+      <c r="F4" s="32" t="s">
         <v>588</v>
       </c>
-      <c r="G4" s="28"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G4" s="32"/>
+      <c r="H4" s="32"/>
+      <c r="I4" s="32"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C5" s="17"/>
       <c r="D5" s="17"/>
       <c r="E5" s="25"/>
@@ -5987,8 +6390,14 @@
       <c r="G5" s="17" t="s">
         <v>590</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H5" s="31" t="s">
+        <v>671</v>
+      </c>
+      <c r="I5" s="31" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>119</v>
       </c>
@@ -6003,7 +6412,7 @@
       </c>
       <c r="E6" s="25"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>124</v>
       </c>
@@ -6018,7 +6427,7 @@
       </c>
       <c r="E7" s="25"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>133</v>
       </c>
@@ -6033,7 +6442,7 @@
       </c>
       <c r="E8" s="25"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>134</v>
       </c>
@@ -6048,7 +6457,7 @@
       </c>
       <c r="E9" s="25"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>135</v>
       </c>
@@ -6063,7 +6472,7 @@
       </c>
       <c r="E10" s="25"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>136</v>
       </c>
@@ -6078,7 +6487,7 @@
       </c>
       <c r="E11" s="25"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>137</v>
       </c>
@@ -6093,7 +6502,7 @@
       </c>
       <c r="E12" s="25"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>138</v>
       </c>
@@ -6108,7 +6517,7 @@
       </c>
       <c r="E13" s="25"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>78</v>
       </c>
@@ -6123,7 +6532,7 @@
       </c>
       <c r="E14" s="25"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>139</v>
       </c>
@@ -6138,7 +6547,7 @@
       </c>
       <c r="E15" s="25"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>140</v>
       </c>
@@ -6159,7 +6568,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>183</v>
       </c>
@@ -6180,7 +6589,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>184</v>
       </c>
@@ -6201,7 +6610,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>185</v>
       </c>
@@ -6222,62 +6631,80 @@
         <v>596</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="C20" s="17" t="s">
+      <c r="B20" s="29" t="s">
+        <v>633</v>
+      </c>
+      <c r="C20" s="20" t="s">
         <v>599</v>
       </c>
-      <c r="D20" s="17" t="s">
+      <c r="D20" s="20" t="s">
         <v>619</v>
       </c>
       <c r="E20" s="25"/>
-      <c r="F20" s="17" t="s">
+      <c r="F20" s="19" t="s">
         <v>597</v>
       </c>
-      <c r="G20" s="17" t="s">
+      <c r="G20" s="20" t="s">
         <v>598</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C21" s="29" t="s">
+        <v>634</v>
+      </c>
+      <c r="D21" s="29" t="s">
+        <v>634</v>
+      </c>
+      <c r="G21" s="31" t="s">
+        <v>670</v>
+      </c>
+      <c r="H21" s="31" t="s">
+        <v>672</v>
+      </c>
+      <c r="I21" s="31" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>453</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="F4:I4"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/app/src/main/java/com/renfei/mylottery/file/胆码尾巴统计.xlsx
+++ b/app/src/main/java/com/renfei/mylottery/file/胆码尾巴统计.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22228"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WorkSpace\DemoProject\MyLottery\app\src\main\java\com\renfei\mylottery\file\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAB0A1F1-F5B0-4AA6-A8CA-EA626989FC03}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12465" activeTab="1"/>
+    <workbookView xWindow="348" yWindow="852" windowWidth="17820" windowHeight="11472" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="论坛胆码" sheetId="3" r:id="rId1"/>
@@ -16,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1123" uniqueCount="297">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1350" uniqueCount="437">
   <si>
     <t>彩坛的达人</t>
   </si>
@@ -876,12 +882,6 @@
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>组选号码</t>
-  </si>
-  <si>
-    <t>开出次数</t>
-  </si>
-  <si>
     <t>开奖号</t>
   </si>
   <si>
@@ -907,19 +907,580 @@
   </si>
   <si>
     <t>770,158,239</t>
+  </si>
+  <si>
+    <t>14</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>798</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>03</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>18</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>58</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>57</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>27</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>02</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>07</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>51</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>79</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>75</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>05</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>9</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>8</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>7</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>92</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>52</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>6</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>15</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>643</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>56</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>16</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>67</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>46</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>615</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>61</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>545</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>8</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>24</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>28</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5972</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>15</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>51</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>36</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0527</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>05</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>03</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>06</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>38</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>09</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>13</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>01</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>30</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>35</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>46</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>56</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>9</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>45</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>07</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>69</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>6</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>226,569</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>23</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>242</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>408569</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>083</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>19</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>34</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>57</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>29</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>903</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>90</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>05</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>37</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>78</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>69</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>15</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>01</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>60</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>09</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>56</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>056</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>48</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>8</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>47</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>7</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>68</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>25</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>24</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2487</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0365</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>19</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>16</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>627</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>18</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>57</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>46</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>6157</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>615</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>61</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>14</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>125</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>336</t>
+  </si>
+  <si>
+    <t>8</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>27</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>01</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>27</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>23</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>46</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>67</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>69</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>47</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>24</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>03</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>78</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>15</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>8</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>35</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>9</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>08</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>02</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>20869</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>14537</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2746</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>26</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>870</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>29</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>79</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>07</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>37</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>7902</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>790</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="21">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -931,155 +1492,27 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <sz val="9"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="38">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1100,210 +1533,30 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2" tint="-0.0999786370433668"/>
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799951170384838"/>
+        <fgColor theme="9" tint="0.79992065187536243"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -1311,253 +1564,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1637,62 +1648,42 @@
     <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="3" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1950,30 +1941,30 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AN33"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AE23" sqref="AE23"/>
+    <sheetView topLeftCell="K1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Q27" sqref="Q27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="6.775" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="6.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="12" width="6.775" style="11"/>
-    <col min="13" max="13" width="3.775" style="11" customWidth="1"/>
-    <col min="14" max="14" width="10.4416666666667" style="11" customWidth="1"/>
-    <col min="15" max="28" width="6.775" style="11"/>
-    <col min="29" max="29" width="3.775" style="11" customWidth="1"/>
-    <col min="30" max="30" width="13.5583333333333" style="11" customWidth="1"/>
-    <col min="31" max="16384" width="6.775" style="11"/>
+    <col min="1" max="12" width="6.77734375" style="11"/>
+    <col min="13" max="13" width="3.77734375" style="11" customWidth="1"/>
+    <col min="14" max="14" width="10.44140625" style="11" customWidth="1"/>
+    <col min="15" max="28" width="6.77734375" style="11"/>
+    <col min="29" max="29" width="3.77734375" style="11" customWidth="1"/>
+    <col min="30" max="30" width="13.5546875" style="11" customWidth="1"/>
+    <col min="31" max="16384" width="6.77734375" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" ht="36" customHeight="1" spans="1:40">
+    <row r="1" spans="1:40" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1" t="s">
@@ -2066,7 +2057,7 @@
       <c r="AM1" s="1"/>
       <c r="AN1" s="1"/>
     </row>
-    <row r="2" spans="1:31">
+    <row r="2" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
         <v>24</v>
       </c>
@@ -2147,7 +2138,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="3" spans="1:31">
+    <row r="3" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
         <v>48</v>
       </c>
@@ -2231,7 +2222,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="4" spans="1:31">
+    <row r="4" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
         <v>65</v>
       </c>
@@ -2318,7 +2309,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="5" spans="1:31">
+    <row r="5" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
         <v>81</v>
       </c>
@@ -2405,7 +2396,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="6" spans="1:31">
+    <row r="6" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
         <v>95</v>
       </c>
@@ -2492,7 +2483,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="7" spans="1:31">
+    <row r="7" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
         <v>103</v>
       </c>
@@ -2579,7 +2570,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="1:31">
+    <row r="8" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
         <v>114</v>
       </c>
@@ -2665,7 +2656,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:31">
+    <row r="9" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
         <v>120</v>
       </c>
@@ -2751,7 +2742,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="10" spans="1:31">
+    <row r="10" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
         <v>132</v>
       </c>
@@ -2837,7 +2828,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:31">
+    <row r="11" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
         <v>141</v>
       </c>
@@ -2923,7 +2914,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="12" spans="1:31">
+    <row r="12" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
         <v>149</v>
       </c>
@@ -3007,7 +2998,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="13" spans="1:31">
+    <row r="13" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
         <v>156</v>
       </c>
@@ -3075,7 +3066,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="14" spans="1:31">
+    <row r="14" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
         <v>161</v>
       </c>
@@ -3161,7 +3152,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="15" spans="1:31">
+    <row r="15" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
         <v>169</v>
       </c>
@@ -3243,7 +3234,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="16" spans="1:31">
+    <row r="16" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
         <v>57</v>
       </c>
@@ -3329,7 +3320,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="17" spans="1:28">
+    <row r="17" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A17" s="11" t="s">
         <v>181</v>
       </c>
@@ -3365,7 +3356,7 @@
       <c r="AA17" s="12"/>
       <c r="AB17" s="12"/>
     </row>
-    <row r="18" spans="1:31">
+    <row r="18" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
         <v>183</v>
       </c>
@@ -3415,7 +3406,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="19" spans="1:31">
+    <row r="19" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A19" s="11" t="s">
         <v>185</v>
       </c>
@@ -3494,7 +3485,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="20" spans="1:31">
+    <row r="20" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A20" s="11" t="s">
         <v>189</v>
       </c>
@@ -3580,7 +3571,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="21" spans="1:31">
+    <row r="21" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A21" s="11" t="s">
         <v>194</v>
       </c>
@@ -3666,7 +3657,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="22" spans="1:31">
+    <row r="22" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A22" s="11" t="s">
         <v>202</v>
       </c>
@@ -3752,164 +3743,484 @@
         <v>50</v>
       </c>
     </row>
-    <row r="23" spans="1:31">
+    <row r="23" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A23" s="11" t="s">
         <v>207</v>
       </c>
-      <c r="C23" s="14" t="s">
+      <c r="B23" s="29" t="s">
+        <v>296</v>
+      </c>
+      <c r="C23" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="D23" s="14" t="s">
+      <c r="D23" s="15" t="s">
         <v>208</v>
       </c>
-      <c r="E23" s="14" t="s">
+      <c r="E23" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="F23" s="14" t="s">
+      <c r="F23" s="16" t="s">
         <v>197</v>
       </c>
-      <c r="G23" s="14" t="s">
+      <c r="G23" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="H23" s="14" t="s">
+      <c r="H23" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="I23" s="14" t="s">
+      <c r="I23" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="J23" s="14" t="s">
+      <c r="J23" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="K23" s="14" t="s">
+      <c r="K23" s="16" t="s">
         <v>197</v>
       </c>
-      <c r="L23" s="14" t="s">
+      <c r="L23" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="N23" s="14" t="s">
+      <c r="N23" s="16" t="s">
         <v>209</v>
       </c>
-      <c r="O23" s="14" t="s">
+      <c r="O23" s="16" t="s">
         <v>209</v>
       </c>
-      <c r="P23" s="14" t="s">
+      <c r="P23" s="16" t="s">
         <v>210</v>
       </c>
-      <c r="Q23" s="14" t="s">
+      <c r="Q23" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="S23" s="14" t="s">
+      <c r="S23" s="15" t="s">
         <v>143</v>
       </c>
-      <c r="T23" s="14" t="s">
+      <c r="T23" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="U23" s="14" t="s">
+      <c r="U23" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="V23" s="14" t="s">
+      <c r="V23" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="W23" s="14" t="s">
+      <c r="W23" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="X23" s="14" t="s">
+      <c r="X23" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="Y23" s="14" t="s">
+      <c r="Y23" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="Z23" s="14" t="s">
+      <c r="Z23" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="AA23" s="14" t="s">
+      <c r="AA23" s="16" t="s">
         <v>211</v>
       </c>
-      <c r="AB23" s="14" t="s">
+      <c r="AB23" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="AD23" s="14" t="s">
+      <c r="AD23" s="16" t="s">
         <v>212</v>
       </c>
-      <c r="AE23" s="14" t="s">
+      <c r="AE23" s="15" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="24" spans="1:1">
+    <row r="24" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A24" s="11" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="25" spans="1:1">
+      <c r="B24" s="14" t="s">
+        <v>327</v>
+      </c>
+      <c r="C24" s="16" t="s">
+        <v>319</v>
+      </c>
+      <c r="D24" s="16" t="s">
+        <v>320</v>
+      </c>
+      <c r="E24" s="16" t="s">
+        <v>321</v>
+      </c>
+      <c r="F24" s="15" t="s">
+        <v>322</v>
+      </c>
+      <c r="G24" s="16" t="s">
+        <v>319</v>
+      </c>
+      <c r="H24" s="15" t="s">
+        <v>298</v>
+      </c>
+      <c r="I24" s="15" t="s">
+        <v>323</v>
+      </c>
+      <c r="J24" s="16" t="s">
+        <v>324</v>
+      </c>
+      <c r="K24" s="15" t="s">
+        <v>322</v>
+      </c>
+      <c r="L24" s="15" t="s">
+        <v>322</v>
+      </c>
+      <c r="N24" s="16" t="s">
+        <v>325</v>
+      </c>
+      <c r="O24" s="16" t="s">
+        <v>325</v>
+      </c>
+      <c r="P24" s="16" t="s">
+        <v>325</v>
+      </c>
+      <c r="Q24" s="15" t="s">
+        <v>326</v>
+      </c>
+      <c r="S24" s="15" t="s">
+        <v>298</v>
+      </c>
+      <c r="T24" s="16" t="s">
+        <v>300</v>
+      </c>
+      <c r="U24" s="16" t="s">
+        <v>335</v>
+      </c>
+      <c r="V24" s="16" t="s">
+        <v>301</v>
+      </c>
+      <c r="W24" s="15" t="s">
+        <v>336</v>
+      </c>
+      <c r="X24" s="15" t="s">
+        <v>302</v>
+      </c>
+      <c r="Y24" s="15" t="s">
+        <v>303</v>
+      </c>
+      <c r="Z24" s="15" t="s">
+        <v>304</v>
+      </c>
+      <c r="AA24" s="16" t="s">
+        <v>305</v>
+      </c>
+      <c r="AB24" s="15" t="s">
+        <v>303</v>
+      </c>
+      <c r="AD24" s="16" t="s">
+        <v>337</v>
+      </c>
+      <c r="AE24" s="16" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="25" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A25" s="11" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="26" spans="1:1">
+      <c r="B25" s="14" t="s">
+        <v>357</v>
+      </c>
+      <c r="C25" s="15" t="s">
+        <v>338</v>
+      </c>
+      <c r="D25" s="15" t="s">
+        <v>361</v>
+      </c>
+      <c r="E25" s="15" t="s">
+        <v>342</v>
+      </c>
+      <c r="F25" s="15" t="s">
+        <v>362</v>
+      </c>
+      <c r="G25" s="16" t="s">
+        <v>363</v>
+      </c>
+      <c r="H25" s="15" t="s">
+        <v>364</v>
+      </c>
+      <c r="I25" s="16" t="s">
+        <v>347</v>
+      </c>
+      <c r="J25" s="15" t="s">
+        <v>341</v>
+      </c>
+      <c r="K25" s="15" t="s">
+        <v>362</v>
+      </c>
+      <c r="L25" s="16" t="s">
+        <v>365</v>
+      </c>
+      <c r="N25" s="15" t="s">
+        <v>366</v>
+      </c>
+      <c r="O25" s="15" t="s">
+        <v>366</v>
+      </c>
+      <c r="P25" s="15" t="s">
+        <v>366</v>
+      </c>
+      <c r="Q25" s="15" t="s">
+        <v>367</v>
+      </c>
+      <c r="S25" s="15" t="s">
+        <v>339</v>
+      </c>
+      <c r="T25" s="15" t="s">
+        <v>340</v>
+      </c>
+      <c r="U25" s="17"/>
+      <c r="V25" s="15" t="s">
+        <v>341</v>
+      </c>
+      <c r="W25" s="15" t="s">
+        <v>342</v>
+      </c>
+      <c r="X25" s="15" t="s">
+        <v>343</v>
+      </c>
+      <c r="Y25" s="15" t="s">
+        <v>344</v>
+      </c>
+      <c r="Z25" s="15" t="s">
+        <v>338</v>
+      </c>
+      <c r="AA25" s="15" t="s">
+        <v>345</v>
+      </c>
+      <c r="AB25" s="15" t="s">
+        <v>346</v>
+      </c>
+      <c r="AD25" s="15" t="s">
+        <v>339</v>
+      </c>
+      <c r="AE25" s="15" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="26" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A26" s="11" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="27" spans="1:1">
+      <c r="B26" s="14" t="s">
+        <v>402</v>
+      </c>
+      <c r="C26" s="16" t="s">
+        <v>392</v>
+      </c>
+      <c r="D26" s="16" t="s">
+        <v>393</v>
+      </c>
+      <c r="E26" s="16" t="s">
+        <v>376</v>
+      </c>
+      <c r="F26" s="16" t="s">
+        <v>372</v>
+      </c>
+      <c r="G26" s="16" t="s">
+        <v>394</v>
+      </c>
+      <c r="H26" s="16" t="s">
+        <v>395</v>
+      </c>
+      <c r="I26" s="15" t="s">
+        <v>396</v>
+      </c>
+      <c r="J26" s="15" t="s">
+        <v>381</v>
+      </c>
+      <c r="K26" s="16" t="s">
+        <v>392</v>
+      </c>
+      <c r="L26" s="16" t="s">
+        <v>392</v>
+      </c>
+      <c r="N26" s="16" t="s">
+        <v>397</v>
+      </c>
+      <c r="O26" s="16" t="s">
+        <v>397</v>
+      </c>
+      <c r="P26" s="16" t="s">
+        <v>398</v>
+      </c>
+      <c r="Q26" s="16" t="s">
+        <v>399</v>
+      </c>
+      <c r="S26" s="16" t="s">
+        <v>368</v>
+      </c>
+      <c r="T26" s="15" t="s">
+        <v>369</v>
+      </c>
+      <c r="U26" s="26"/>
+      <c r="V26" s="15" t="s">
+        <v>370</v>
+      </c>
+      <c r="W26" s="15" t="s">
+        <v>371</v>
+      </c>
+      <c r="X26" s="16" t="s">
+        <v>372</v>
+      </c>
+      <c r="Y26" s="16" t="s">
+        <v>373</v>
+      </c>
+      <c r="Z26" s="15" t="s">
+        <v>374</v>
+      </c>
+      <c r="AA26" s="15" t="s">
+        <v>375</v>
+      </c>
+      <c r="AB26" s="16" t="s">
+        <v>376</v>
+      </c>
+      <c r="AD26" s="16" t="s">
+        <v>377</v>
+      </c>
+      <c r="AE26" s="16" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="27" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A27" s="11" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="28" spans="1:1">
+      <c r="C27" s="14" t="s">
+        <v>429</v>
+      </c>
+      <c r="D27" s="14" t="s">
+        <v>430</v>
+      </c>
+      <c r="E27" s="14" t="s">
+        <v>411</v>
+      </c>
+      <c r="F27" s="14" t="s">
+        <v>431</v>
+      </c>
+      <c r="G27" s="14" t="s">
+        <v>414</v>
+      </c>
+      <c r="H27" s="14" t="s">
+        <v>432</v>
+      </c>
+      <c r="I27" s="14" t="s">
+        <v>432</v>
+      </c>
+      <c r="J27" s="14" t="s">
+        <v>433</v>
+      </c>
+      <c r="K27" s="14" t="s">
+        <v>431</v>
+      </c>
+      <c r="L27" s="14" t="s">
+        <v>434</v>
+      </c>
+      <c r="N27" s="14" t="s">
+        <v>435</v>
+      </c>
+      <c r="O27" s="14" t="s">
+        <v>435</v>
+      </c>
+      <c r="P27" s="14" t="s">
+        <v>436</v>
+      </c>
+      <c r="Q27" s="14" t="s">
+        <v>432</v>
+      </c>
+      <c r="S27" s="14" t="s">
+        <v>407</v>
+      </c>
+      <c r="T27" s="14" t="s">
+        <v>408</v>
+      </c>
+      <c r="U27" s="14" t="s">
+        <v>409</v>
+      </c>
+      <c r="V27" s="14" t="s">
+        <v>410</v>
+      </c>
+      <c r="W27" s="14" t="s">
+        <v>411</v>
+      </c>
+      <c r="X27" s="14" t="s">
+        <v>412</v>
+      </c>
+      <c r="Y27" s="14" t="s">
+        <v>413</v>
+      </c>
+      <c r="Z27" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="AA27" s="14" t="s">
+        <v>414</v>
+      </c>
+      <c r="AB27" s="14" t="s">
+        <v>415</v>
+      </c>
+      <c r="AD27" s="14" t="s">
+        <v>428</v>
+      </c>
+      <c r="AE27" s="14" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="28" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A28" s="11" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="29" spans="1:1">
+    <row r="29" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A29" s="11" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="30" spans="1:1">
+    <row r="30" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A30" s="11" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="31" spans="1:1">
+    <row r="31" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A31" s="11" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="32" spans="1:1">
+    <row r="32" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A32" s="11" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="33" spans="1:1">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" s="11" t="s">
         <v>221</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:AU22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:AU28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AA17" sqref="AA17"/>
+    <sheetView topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21:T21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.66666666666667" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="4.6640625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="25" width="4.66666666666667" style="1" customWidth="1"/>
+    <col min="1" max="24" width="6.77734375" style="1" customWidth="1"/>
+    <col min="25" max="25" width="4.6640625" style="1" customWidth="1"/>
     <col min="26" max="26" width="14" style="1" customWidth="1"/>
-    <col min="27" max="27" width="9.66666666666667" style="1" customWidth="1"/>
-    <col min="28" max="16384" width="4.66666666666667" style="1"/>
+    <col min="27" max="27" width="9.6640625" style="1" customWidth="1"/>
+    <col min="28" max="16384" width="4.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="57" spans="1:28">
+    <row r="1" spans="1:47" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>222</v>
       </c>
@@ -3993,7 +4304,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="2" spans="1:47">
+    <row r="2" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>114</v>
       </c>
@@ -4094,7 +4405,7 @@
       <c r="AT2" s="10"/>
       <c r="AU2" s="10"/>
     </row>
-    <row r="3" spans="1:27">
+    <row r="3" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>120</v>
       </c>
@@ -4172,7 +4483,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="4" spans="1:27">
+    <row r="4" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>132</v>
       </c>
@@ -4253,7 +4564,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="5" spans="1:27">
+    <row r="5" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>141</v>
       </c>
@@ -4334,7 +4645,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="6" spans="1:27">
+    <row r="6" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>149</v>
       </c>
@@ -4415,7 +4726,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="7" spans="1:27">
+    <row r="7" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>156</v>
       </c>
@@ -4496,7 +4807,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="8" spans="1:27">
+    <row r="8" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>161</v>
       </c>
@@ -4577,7 +4888,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="9" spans="1:27">
+    <row r="9" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>169</v>
       </c>
@@ -4658,7 +4969,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="10" spans="1:27">
+    <row r="10" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>57</v>
       </c>
@@ -4737,7 +5048,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="11" spans="1:26">
+    <row r="11" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>181</v>
       </c>
@@ -4806,7 +5117,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="12" spans="1:26">
+    <row r="12" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>183</v>
       </c>
@@ -4879,7 +5190,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="13" spans="1:26">
+    <row r="13" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>185</v>
       </c>
@@ -4954,7 +5265,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="14" spans="1:26">
+    <row r="14" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>189</v>
       </c>
@@ -5029,7 +5340,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="15" spans="1:27">
+    <row r="15" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>194</v>
       </c>
@@ -5109,7 +5420,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="16" spans="1:28">
+    <row r="16" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>202</v>
       </c>
@@ -5192,107 +5503,403 @@
         <v>253</v>
       </c>
     </row>
-    <row r="17" spans="1:27">
+    <row r="17" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="B17" s="28" t="s">
+        <v>296</v>
+      </c>
+      <c r="C17" s="28" t="s">
+        <v>297</v>
+      </c>
+      <c r="D17" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="E17" s="2" t="s">
+      <c r="E17" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="F17" s="2" t="s">
+      <c r="F17" s="4" t="s">
         <v>250</v>
       </c>
-      <c r="G17" s="2" t="s">
+      <c r="G17" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="H17" s="2" t="s">
+      <c r="H17" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="I17" s="2" t="s">
+      <c r="I17" s="4" t="s">
         <v>250</v>
       </c>
-      <c r="J17" s="2" t="s">
+      <c r="J17" s="5" t="s">
         <v>256</v>
       </c>
-      <c r="K17" s="2" t="s">
+      <c r="K17" s="4" t="s">
         <v>255</v>
       </c>
-      <c r="L17" s="2" t="s">
+      <c r="L17" s="4" t="s">
         <v>252</v>
       </c>
-      <c r="M17" s="2" t="s">
+      <c r="M17" s="4" t="s">
         <v>283</v>
       </c>
-      <c r="N17" s="2" t="s">
+      <c r="N17" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="O17" s="2" t="s">
+      <c r="O17" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="P17" s="1" t="s">
+      <c r="P17" s="6" t="s">
         <v>251</v>
       </c>
-      <c r="Q17" s="2" t="s">
+      <c r="Q17" s="5" t="s">
         <v>256</v>
       </c>
-      <c r="R17" s="2" t="s">
+      <c r="R17" s="4" t="s">
         <v>253</v>
       </c>
-      <c r="S17" s="2" t="s">
+      <c r="S17" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="T17" s="2" t="s">
+      <c r="T17" s="4" t="s">
         <v>255</v>
       </c>
-      <c r="U17" s="2" t="s">
+      <c r="U17" s="4" t="s">
         <v>251</v>
       </c>
-      <c r="V17" s="1" t="s">
+      <c r="V17" s="6" t="s">
         <v>252</v>
       </c>
-      <c r="W17" s="2" t="s">
+      <c r="W17" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="X17" s="2" t="s">
+      <c r="X17" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="Z17" s="1" t="s">
+      <c r="Z17" s="8" t="s">
         <v>284</v>
       </c>
-      <c r="AA17" s="2" t="s">
+      <c r="AA17" s="5" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="18" spans="1:11">
+    <row r="18" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="K18" s="2" t="s">
+      <c r="B18" s="30" t="s">
+        <v>327</v>
+      </c>
+      <c r="C18" s="30" t="s">
+        <v>328</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>306</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>307</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>309</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="I18" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="J18" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="K18" s="4" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="19" spans="1:11">
+      <c r="L18" s="4" t="s">
+        <v>313</v>
+      </c>
+      <c r="M18" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="N18" s="4" t="s">
+        <v>315</v>
+      </c>
+      <c r="O18" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="P18" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="Q18" s="4" t="s">
+        <v>316</v>
+      </c>
+      <c r="R18" s="4" t="s">
+        <v>316</v>
+      </c>
+      <c r="S18" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="T18" s="4" t="s">
+        <v>317</v>
+      </c>
+      <c r="U18" s="4" t="s">
+        <v>318</v>
+      </c>
+      <c r="V18" s="4" t="s">
+        <v>329</v>
+      </c>
+      <c r="W18" s="5" t="s">
+        <v>330</v>
+      </c>
+      <c r="X18" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="Z18" s="4" t="s">
+        <v>332</v>
+      </c>
+      <c r="AA18" s="5" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="19" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="K19" s="2" t="s">
+      <c r="B19" s="30" t="s">
+        <v>357</v>
+      </c>
+      <c r="C19" s="30" t="s">
+        <v>329</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>344</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>328</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>329</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>348</v>
+      </c>
+      <c r="I19" s="5" t="s">
+        <v>329</v>
+      </c>
+      <c r="J19" s="4" t="s">
+        <v>349</v>
+      </c>
+      <c r="K19" s="4" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="20" spans="11:11">
-      <c r="K20" s="2" t="s">
+      <c r="L19" s="4" t="s">
+        <v>350</v>
+      </c>
+      <c r="M19" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="N19" s="4" t="s">
+        <v>352</v>
+      </c>
+      <c r="O19" s="4" t="s">
+        <v>342</v>
+      </c>
+      <c r="P19" s="4" t="s">
+        <v>349</v>
+      </c>
+      <c r="Q19" s="4" t="s">
+        <v>350</v>
+      </c>
+      <c r="R19" s="4" t="s">
+        <v>328</v>
+      </c>
+      <c r="S19" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="T19" s="4" t="s">
+        <v>333</v>
+      </c>
+      <c r="U19" s="4" t="s">
+        <v>328</v>
+      </c>
+      <c r="V19" s="5" t="s">
+        <v>329</v>
+      </c>
+      <c r="W19" s="5" t="s">
+        <v>331</v>
+      </c>
+      <c r="X19" s="4" t="s">
+        <v>328</v>
+      </c>
+      <c r="Z19" s="5" t="s">
+        <v>359</v>
+      </c>
+      <c r="AA19" s="5" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="20" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="B20" s="31" t="s">
+        <v>402</v>
+      </c>
+      <c r="C20" s="31" t="s">
+        <v>404</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>378</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>369</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>379</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>380</v>
+      </c>
+      <c r="H20" s="4" t="s">
+        <v>381</v>
+      </c>
+      <c r="I20" s="4" t="s">
+        <v>382</v>
+      </c>
+      <c r="J20" s="4" t="s">
+        <v>383</v>
+      </c>
+      <c r="K20" s="4" t="s">
         <v>262</v>
       </c>
-    </row>
-    <row r="21" spans="11:11">
+      <c r="L20" s="4" t="s">
+        <v>384</v>
+      </c>
+      <c r="M20" s="5" t="s">
+        <v>385</v>
+      </c>
+      <c r="N20" s="5" t="s">
+        <v>378</v>
+      </c>
+      <c r="O20" s="4" t="s">
+        <v>386</v>
+      </c>
+      <c r="P20" s="4" t="s">
+        <v>383</v>
+      </c>
+      <c r="Q20" s="4" t="s">
+        <v>380</v>
+      </c>
+      <c r="R20" s="5" t="s">
+        <v>379</v>
+      </c>
+      <c r="S20" s="4" t="s">
+        <v>387</v>
+      </c>
+      <c r="T20" s="4" t="s">
+        <v>380</v>
+      </c>
+      <c r="U20" s="4" t="s">
+        <v>388</v>
+      </c>
+      <c r="V20" s="4" t="s">
+        <v>380</v>
+      </c>
+      <c r="W20" s="7"/>
+      <c r="X20" s="4" t="s">
+        <v>388</v>
+      </c>
+      <c r="Z20" s="5" t="s">
+        <v>389</v>
+      </c>
+      <c r="AA20" s="5" t="s">
+        <v>390</v>
+      </c>
+      <c r="AB20" s="5" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="21" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="D21" s="33" t="s">
+        <v>416</v>
+      </c>
+      <c r="E21" s="33" t="s">
+        <v>411</v>
+      </c>
+      <c r="F21" s="33" t="s">
+        <v>417</v>
+      </c>
+      <c r="G21" s="33" t="s">
+        <v>418</v>
+      </c>
+      <c r="H21" s="33" t="s">
+        <v>419</v>
+      </c>
+      <c r="I21" s="33" t="s">
+        <v>420</v>
+      </c>
+      <c r="J21" s="33" t="s">
+        <v>418</v>
+      </c>
       <c r="K21" s="2" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="22" spans="11:27">
+      <c r="L21" s="33" t="s">
+        <v>421</v>
+      </c>
+      <c r="M21" s="33" t="s">
+        <v>422</v>
+      </c>
+      <c r="N21" s="33" t="s">
+        <v>411</v>
+      </c>
+      <c r="O21" s="33" t="s">
+        <v>410</v>
+      </c>
+      <c r="P21" s="33" t="s">
+        <v>423</v>
+      </c>
+      <c r="Q21" s="33" t="s">
+        <v>424</v>
+      </c>
+      <c r="R21" s="33" t="s">
+        <v>417</v>
+      </c>
+      <c r="S21" s="33" t="s">
+        <v>425</v>
+      </c>
+      <c r="T21" s="33" t="s">
+        <v>420</v>
+      </c>
+      <c r="U21" s="33" t="s">
+        <v>417</v>
+      </c>
+      <c r="V21" s="33" t="s">
+        <v>418</v>
+      </c>
+      <c r="W21" s="7"/>
+      <c r="X21" s="33" t="s">
+        <v>418</v>
+      </c>
+      <c r="Z21" s="33" t="s">
+        <v>426</v>
+      </c>
+      <c r="AA21" s="33" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="22" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>217</v>
+      </c>
       <c r="K22" s="2" t="s">
         <v>249</v>
       </c>
@@ -5300,397 +5907,489 @@
         <v>285</v>
       </c>
     </row>
+    <row r="23" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="24" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="25" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="26" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="27" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="28" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>403</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:I27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:J25"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="5.775" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="5.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="4" width="5.775" style="1"/>
-    <col min="5" max="5" width="3.775" style="1" customWidth="1"/>
-    <col min="6" max="6" width="6.66666666666667" style="1" customWidth="1"/>
-    <col min="7" max="8" width="5.775" style="1"/>
-    <col min="9" max="9" width="11.4416666666667" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="5.775" style="1"/>
+    <col min="1" max="4" width="5.77734375" style="1"/>
+    <col min="5" max="6" width="3.77734375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="6.6640625" style="1" customWidth="1"/>
+    <col min="8" max="9" width="5.77734375" style="1"/>
+    <col min="10" max="10" width="11.44140625" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="5.77734375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="28.5" spans="1:2">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>135</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="4" ht="28.5" spans="1:9">
+      <c r="D1" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="34" t="s">
+        <v>289</v>
+      </c>
+      <c r="H1" s="34"/>
+      <c r="I1" s="34"/>
+      <c r="J1" s="34"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>290</v>
+        <v>120</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>44</v>
       </c>
       <c r="E4" s="3"/>
-      <c r="F4" s="2" t="s">
-        <v>291</v>
-      </c>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-    </row>
-    <row r="5" spans="3:9">
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
+      <c r="F4" s="3"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>60</v>
+      </c>
       <c r="E5" s="3"/>
-      <c r="F5" s="2" t="s">
-        <v>292</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>293</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>294</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5" s="3"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>89</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>28</v>
+        <v>52</v>
       </c>
       <c r="E6" s="3"/>
-    </row>
-    <row r="7" spans="1:5">
+      <c r="F6" s="3"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>120</v>
+        <v>149</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>121</v>
+        <v>150</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>32</v>
+        <v>63</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>44</v>
+        <v>106</v>
       </c>
       <c r="E7" s="3"/>
-    </row>
-    <row r="8" spans="1:5">
+      <c r="F7" s="3"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>132</v>
+        <v>156</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>28</v>
+        <v>157</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>127</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>60</v>
+        <v>93</v>
       </c>
       <c r="E8" s="3"/>
-    </row>
-    <row r="9" spans="1:5">
+      <c r="F8" s="3"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>141</v>
+        <v>161</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>52</v>
+        <v>162</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>55</v>
       </c>
       <c r="E9" s="3"/>
-    </row>
-    <row r="10" spans="1:5">
+      <c r="F9" s="3"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>149</v>
+        <v>169</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>63</v>
+        <v>170</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>74</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>106</v>
+        <v>93</v>
       </c>
       <c r="E10" s="3"/>
-    </row>
-    <row r="11" spans="1:5">
+      <c r="F10" s="3"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>156</v>
+        <v>57</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>157</v>
+        <v>176</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="D11" s="5" t="s">
-        <v>93</v>
+      <c r="D11" s="4" t="s">
+        <v>54</v>
       </c>
       <c r="E11" s="3"/>
-    </row>
-    <row r="12" spans="1:5">
+      <c r="F11" s="3"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>161</v>
+        <v>181</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>55</v>
+        <v>182</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>33</v>
       </c>
       <c r="E12" s="3"/>
-    </row>
-    <row r="13" spans="1:5">
+      <c r="F12" s="3"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>169</v>
+        <v>183</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>170</v>
+        <v>184</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>74</v>
+        <v>40</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="E13" s="3"/>
-    </row>
-    <row r="14" spans="1:5">
+      <c r="F13" s="3"/>
+      <c r="G13" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>57</v>
+        <v>185</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>127</v>
+        <v>186</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>111</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>54</v>
+        <v>118</v>
       </c>
       <c r="E14" s="3"/>
-    </row>
-    <row r="15" spans="1:5">
+      <c r="F14" s="3"/>
+      <c r="G14" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>33</v>
+        <v>190</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>42</v>
       </c>
       <c r="E15" s="3"/>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="F15" s="3"/>
+      <c r="G15" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>183</v>
+        <v>194</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>184</v>
+        <v>195</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="D16" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="C17" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="E16" s="3"/>
-      <c r="F16" s="5" t="s">
-        <v>252</v>
-      </c>
-      <c r="G16" s="4" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>118</v>
+      <c r="D17" s="5" t="s">
+        <v>123</v>
       </c>
       <c r="E17" s="3"/>
-      <c r="F17" s="5" t="s">
-        <v>255</v>
-      </c>
+      <c r="F17" s="3"/>
       <c r="G17" s="4" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
+        <v>98</v>
+      </c>
+      <c r="H17" s="5" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>190</v>
+        <v>207</v>
+      </c>
+      <c r="B18" s="28" t="s">
+        <v>296</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>131</v>
+        <v>28</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="E18" s="3"/>
-      <c r="F18" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="G18" s="5" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
+        <v>28</v>
+      </c>
+      <c r="H18" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="I18" s="27" t="s">
+        <v>295</v>
+      </c>
+      <c r="J18" s="5" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>62</v>
+        <v>173</v>
+      </c>
+      <c r="B19" s="30" t="s">
+        <v>327</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>298</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="E19" s="3"/>
-      <c r="F19" s="4" t="s">
-        <v>252</v>
-      </c>
-      <c r="G19" s="4" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
+        <v>334</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>80</v>
+        <v>214</v>
+      </c>
+      <c r="B20" s="30" t="s">
+        <v>357</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>356</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="E20" s="3"/>
-      <c r="F20" s="4" t="s">
-        <v>98</v>
+        <v>353</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
+        <v>354</v>
+      </c>
+      <c r="H20" s="5" t="s">
+        <v>328</v>
+      </c>
+      <c r="I20" s="5" t="s">
+        <v>349</v>
+      </c>
+      <c r="J20" s="5" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="H21" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="I21" s="2" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1">
+        <v>215</v>
+      </c>
+      <c r="B21" s="31" t="s">
+        <v>402</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>386</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>401</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>383</v>
+      </c>
+      <c r="H21" s="5" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1">
+        <v>216</v>
+      </c>
+      <c r="C22" s="32" t="s">
+        <v>406</v>
+      </c>
+      <c r="D22" s="32" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1">
-      <c r="A25" s="1" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1">
-      <c r="A26" s="1" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1">
-      <c r="A27" s="1" t="s">
         <v>218</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H25" s="30" t="s">
+        <v>358</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="F4:I4"/>
+    <mergeCell ref="G1:J1"/>
   </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/app/src/main/java/com/renfei/mylottery/file/胆码尾巴统计.xlsx
+++ b/app/src/main/java/com/renfei/mylottery/file/胆码尾巴统计.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22228"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WorkSpace\DemoProject\MyLottery\app\src\main\java\com\renfei\mylottery\file\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAB0A1F1-F5B0-4AA6-A8CA-EA626989FC03}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="348" yWindow="852" windowWidth="17820" windowHeight="11472" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="28800" windowHeight="12465"/>
   </bookViews>
   <sheets>
     <sheet name="论坛胆码" sheetId="3" r:id="rId1"/>
@@ -22,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1350" uniqueCount="437">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1354" uniqueCount="321">
   <si>
     <t>彩坛的达人</t>
   </si>
@@ -648,6 +642,9 @@
     <t>325</t>
   </si>
   <si>
+    <t>798</t>
+  </si>
+  <si>
     <t>631</t>
   </si>
   <si>
@@ -666,15 +663,66 @@
     <t>52</t>
   </si>
   <si>
+    <t>545</t>
+  </si>
+  <si>
+    <t>643</t>
+  </si>
+  <si>
+    <t>615</t>
+  </si>
+  <si>
+    <t>0527</t>
+  </si>
+  <si>
     <t>327</t>
   </si>
   <si>
+    <t>242</t>
+  </si>
+  <si>
+    <t>083</t>
+  </si>
+  <si>
+    <t>903</t>
+  </si>
+  <si>
+    <t>90</t>
+  </si>
+  <si>
     <t>328</t>
   </si>
   <si>
+    <t>125</t>
+  </si>
+  <si>
+    <t>627</t>
+  </si>
+  <si>
+    <t>6157</t>
+  </si>
+  <si>
+    <t>056</t>
+  </si>
+  <si>
     <t>329</t>
   </si>
   <si>
+    <t>047</t>
+  </si>
+  <si>
+    <t>870</t>
+  </si>
+  <si>
+    <t>7902</t>
+  </si>
+  <si>
+    <t>790</t>
+  </si>
+  <si>
+    <t>2746</t>
+  </si>
+  <si>
     <t>330</t>
   </si>
   <si>
@@ -816,9 +864,6 @@
     <t>928601357</t>
   </si>
   <si>
-    <t>90</t>
-  </si>
-  <si>
     <t>4013589</t>
   </si>
   <si>
@@ -879,9 +924,33 @@
     <t>20145789</t>
   </si>
   <si>
+    <t>75</t>
+  </si>
+  <si>
+    <t>5972</t>
+  </si>
+  <si>
+    <t>408569</t>
+  </si>
+  <si>
+    <t>2487</t>
+  </si>
+  <si>
+    <t>0365</t>
+  </si>
+  <si>
+    <t>20869</t>
+  </si>
+  <si>
+    <t>14537</t>
+  </si>
+  <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
+    <t>336</t>
+  </si>
+  <si>
     <t>开奖号</t>
   </si>
   <si>
@@ -909,578 +978,20 @@
     <t>770,158,239</t>
   </si>
   <si>
-    <t>14</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>798</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>4</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>03</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>18</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>58</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>57</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>27</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>02</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>07</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>51</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>79</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>75</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>4</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>05</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>9</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>8</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>7</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>92</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>52</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>5</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>6</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>15</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>643</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>56</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>16</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>67</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>46</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>615</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>61</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>545</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>4</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>8</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>24</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>28</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>5972</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>15</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>51</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>36</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0527</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>05</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>03</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>06</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>38</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>09</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>13</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>01</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>30</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>35</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>46</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>56</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>9</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>45</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>07</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>69</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>6</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>226,569</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>23</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>242</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>408569</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>083</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>19</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>34</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>57</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>29</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>903</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>90</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>05</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>37</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>78</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>69</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>15</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>01</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>60</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>09</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>56</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>056</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>48</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>8</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>47</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>7</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>68</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>25</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>24</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>4</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2487</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0365</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>19</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>16</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>627</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>18</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>57</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>46</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>6157</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>615</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>61</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>5</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>14</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>125</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>336</t>
-  </si>
-  <si>
-    <t>8</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>27</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>01</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>27</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>23</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>46</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>67</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>69</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>47</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>24</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>03</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>78</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>15</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>8</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>35</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>4</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>9</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>08</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>02</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>20869</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>14537</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2746</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>26</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>870</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>29</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>79</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>07</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>37</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>7902</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>790</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1492,27 +1003,155 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="39">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1533,30 +1172,216 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79992065187536243"/>
+        <fgColor theme="2" tint="-0.0999786370433668"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
+        <fgColor theme="9" tint="0.799920651875362"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39997558519241921"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -1564,11 +1389,253 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="34" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1585,10 +1652,13 @@
     <xf numFmtId="49" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
@@ -1597,7 +1667,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -1618,19 +1688,19 @@
     <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1639,51 +1709,71 @@
     <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1941,30 +2031,30 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:AN33"/>
   <sheetViews>
-    <sheetView topLeftCell="K1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Q27" sqref="Q27"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="V30" sqref="V30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="6.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="6.775" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="12" width="6.77734375" style="11"/>
-    <col min="13" max="13" width="3.77734375" style="11" customWidth="1"/>
-    <col min="14" max="14" width="10.44140625" style="11" customWidth="1"/>
-    <col min="15" max="28" width="6.77734375" style="11"/>
-    <col min="29" max="29" width="3.77734375" style="11" customWidth="1"/>
-    <col min="30" max="30" width="13.5546875" style="11" customWidth="1"/>
-    <col min="31" max="16384" width="6.77734375" style="11"/>
+    <col min="1" max="12" width="6.775" style="12"/>
+    <col min="13" max="13" width="3.775" style="12" customWidth="1"/>
+    <col min="14" max="14" width="10.4416666666667" style="12" customWidth="1"/>
+    <col min="15" max="28" width="6.775" style="12"/>
+    <col min="29" max="29" width="3.775" style="12" customWidth="1"/>
+    <col min="30" max="30" width="13.5583333333333" style="12" customWidth="1"/>
+    <col min="31" max="16384" width="6.775" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" ht="36" customHeight="1" spans="1:40">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1" t="s">
@@ -1997,54 +2087,54 @@
       <c r="L1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="9"/>
-      <c r="N1" s="18" t="s">
+      <c r="M1" s="10"/>
+      <c r="N1" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="O1" s="11" t="s">
+      <c r="O1" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="P1" s="11" t="s">
+      <c r="P1" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="Q1" s="11" t="s">
+      <c r="Q1" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="S1" s="20" t="s">
+      <c r="S1" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="T1" s="21" t="s">
+      <c r="T1" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="U1" s="21" t="s">
+      <c r="U1" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="V1" s="21" t="s">
+      <c r="V1" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="W1" s="21" t="s">
+      <c r="W1" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="X1" s="21" t="s">
+      <c r="X1" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="Y1" s="21" t="s">
+      <c r="Y1" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="Z1" s="21" t="s">
+      <c r="Z1" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="AA1" s="21" t="s">
+      <c r="AA1" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="AB1" s="21" t="s">
+      <c r="AB1" s="22" t="s">
         <v>23</v>
       </c>
       <c r="AC1" s="1"/>
-      <c r="AD1" s="24" t="s">
+      <c r="AD1" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="AE1" s="24" t="s">
+      <c r="AE1" s="26" t="s">
         <v>13</v>
       </c>
       <c r="AF1" s="1"/>
@@ -2057,2254 +2147,2258 @@
       <c r="AM1" s="1"/>
       <c r="AN1" s="1"/>
     </row>
-    <row r="2" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
+    <row r="2" spans="1:31">
+      <c r="A2" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="E2" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="F2" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="G2" s="12" t="s">
+      <c r="G2" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="H2" s="13" t="s">
+      <c r="H2" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="I2" s="13" t="s">
+      <c r="I2" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="J2" s="12" t="s">
+      <c r="J2" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="K2" s="12" t="s">
+      <c r="K2" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="L2" s="12" t="s">
+      <c r="L2" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="N2" s="12" t="s">
+      <c r="N2" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="O2" s="12" t="s">
+      <c r="O2" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="P2" s="12" t="s">
+      <c r="P2" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="Q2" s="12" t="s">
+      <c r="Q2" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="S2" s="22" t="s">
+      <c r="S2" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="U2" s="12" t="s">
+      <c r="U2" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="V2" s="13" t="s">
+      <c r="V2" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="W2" s="13" t="s">
+      <c r="W2" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="X2" s="13" t="s">
+      <c r="X2" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="Z2" s="13" t="s">
+      <c r="Z2" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="AA2" s="13" t="s">
+      <c r="AA2" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="AB2" s="13" t="s">
+      <c r="AB2" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="AC2" s="25"/>
-      <c r="AD2" s="22" t="s">
+      <c r="AC2" s="27"/>
+      <c r="AD2" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="AE2" s="22" t="s">
+      <c r="AE2" s="23" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="3" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A3" s="11" t="s">
+    <row r="3" spans="1:31">
+      <c r="A3" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="D3" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="E3" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="F3" s="13" t="s">
+      <c r="F3" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="G3" s="12" t="s">
+      <c r="G3" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="H3" s="13" t="s">
+      <c r="H3" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="I3" s="12" t="s">
+      <c r="I3" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="J3" s="13" t="s">
+      <c r="J3" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="K3" s="13" t="s">
+      <c r="K3" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="L3" s="13" t="s">
+      <c r="L3" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="N3" s="13" t="s">
+      <c r="N3" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="O3" s="13" t="s">
+      <c r="O3" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="P3" s="13" t="s">
+      <c r="P3" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="Q3" s="13" t="s">
+      <c r="Q3" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="S3" s="22" t="s">
+      <c r="S3" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="T3" s="13" t="s">
+      <c r="T3" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="U3" s="13" t="s">
+      <c r="U3" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="V3" s="12" t="s">
+      <c r="V3" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="W3" s="13" t="s">
+      <c r="W3" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="X3" s="13" t="s">
+      <c r="X3" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="Z3" s="12" t="s">
+      <c r="Z3" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="AA3" s="13" t="s">
+      <c r="AA3" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="AB3" s="13" t="s">
+      <c r="AB3" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="AC3" s="25"/>
-      <c r="AD3" s="22" t="s">
+      <c r="AC3" s="27"/>
+      <c r="AD3" s="23" t="s">
         <v>64</v>
       </c>
-      <c r="AE3" s="22" t="s">
+      <c r="AE3" s="23" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="4" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A4" s="11" t="s">
+    <row r="4" spans="1:31">
+      <c r="A4" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="D4" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="E4" s="13" t="s">
+      <c r="E4" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="F4" s="13" t="s">
+      <c r="F4" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="G4" s="13" t="s">
+      <c r="G4" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="H4" s="13" t="s">
+      <c r="H4" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="I4" s="12" t="s">
+      <c r="I4" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="J4" s="12" t="s">
+      <c r="J4" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="K4" s="13" t="s">
+      <c r="K4" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="L4" s="13" t="s">
+      <c r="L4" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="N4" s="13" t="s">
+      <c r="N4" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="O4" s="13" t="s">
+      <c r="O4" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="P4" s="13" t="s">
+      <c r="P4" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="Q4" s="13" t="s">
+      <c r="Q4" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="S4" s="22" t="s">
+      <c r="S4" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="T4" s="13" t="s">
+      <c r="T4" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="U4" s="13" t="s">
+      <c r="U4" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="V4" s="12" t="s">
+      <c r="V4" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="W4" s="13" t="s">
+      <c r="W4" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="X4" s="13" t="s">
+      <c r="X4" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="Y4" s="13" t="s">
+      <c r="Y4" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="Z4" s="13" t="s">
+      <c r="Z4" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="AA4" s="13" t="s">
+      <c r="AA4" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="AB4" s="13" t="s">
+      <c r="AB4" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="AC4" s="25"/>
-      <c r="AD4" s="22" t="s">
+      <c r="AC4" s="27"/>
+      <c r="AD4" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="AE4" s="22" t="s">
+      <c r="AE4" s="23" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="5" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A5" s="11" t="s">
+    <row r="5" spans="1:31">
+      <c r="A5" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="D5" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="E5" s="13" t="s">
+      <c r="E5" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="F5" s="13" t="s">
+      <c r="F5" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="G5" s="12" t="s">
+      <c r="G5" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="H5" s="12" t="s">
+      <c r="H5" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="I5" s="13" t="s">
+      <c r="I5" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="J5" s="12" t="s">
+      <c r="J5" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="K5" s="13" t="s">
+      <c r="K5" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="L5" s="12" t="s">
+      <c r="L5" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="N5" s="13" t="s">
+      <c r="N5" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="O5" s="13" t="s">
+      <c r="O5" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="P5" s="13" t="s">
+      <c r="P5" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="Q5" s="12" t="s">
+      <c r="Q5" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="S5" s="22" t="s">
+      <c r="S5" s="23" t="s">
         <v>88</v>
       </c>
-      <c r="T5" s="13" t="s">
+      <c r="T5" s="14" t="s">
         <v>89</v>
       </c>
-      <c r="U5" s="12" t="s">
+      <c r="U5" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="V5" s="12" t="s">
+      <c r="V5" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="W5" s="13" t="s">
+      <c r="W5" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="X5" s="12" t="s">
+      <c r="X5" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="Y5" s="13" t="s">
+      <c r="Y5" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="Z5" s="13" t="s">
+      <c r="Z5" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="AA5" s="13" t="s">
+      <c r="AA5" s="14" t="s">
         <v>92</v>
       </c>
-      <c r="AB5" s="12" t="s">
+      <c r="AB5" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="AC5" s="25"/>
-      <c r="AD5" s="22" t="s">
+      <c r="AC5" s="27"/>
+      <c r="AD5" s="23" t="s">
         <v>94</v>
       </c>
-      <c r="AE5" s="22" t="s">
+      <c r="AE5" s="23" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="6" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A6" s="11" t="s">
+    <row r="6" spans="1:31">
+      <c r="A6" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="D6" s="12" t="s">
+      <c r="D6" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="E6" s="12" t="s">
+      <c r="E6" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="F6" s="13" t="s">
+      <c r="F6" s="14" t="s">
         <v>98</v>
       </c>
-      <c r="G6" s="13" t="s">
+      <c r="G6" s="14" t="s">
         <v>98</v>
       </c>
-      <c r="H6" s="12" t="s">
+      <c r="H6" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="I6" s="12" t="s">
+      <c r="I6" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="J6" s="12" t="s">
+      <c r="J6" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="K6" s="13" t="s">
+      <c r="K6" s="14" t="s">
         <v>98</v>
       </c>
-      <c r="L6" s="12" t="s">
+      <c r="L6" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="N6" s="13" t="s">
+      <c r="N6" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="O6" s="13" t="s">
+      <c r="O6" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="P6" s="13" t="s">
+      <c r="P6" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="Q6" s="13" t="s">
+      <c r="Q6" s="14" t="s">
         <v>98</v>
       </c>
-      <c r="S6" s="23" t="s">
+      <c r="S6" s="24" t="s">
         <v>80</v>
       </c>
-      <c r="T6" s="13" t="s">
+      <c r="T6" s="14" t="s">
         <v>93</v>
       </c>
-      <c r="U6" s="13" t="s">
+      <c r="U6" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="V6" s="13" t="s">
+      <c r="V6" s="14" t="s">
         <v>93</v>
       </c>
-      <c r="W6" s="13" t="s">
+      <c r="W6" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="X6" s="13" t="s">
+      <c r="X6" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="Y6" s="13" t="s">
+      <c r="Y6" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="Z6" s="13" t="s">
+      <c r="Z6" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="AA6" s="12" t="s">
+      <c r="AA6" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="AB6" s="13" t="s">
+      <c r="AB6" s="14" t="s">
         <v>93</v>
       </c>
-      <c r="AC6" s="25"/>
-      <c r="AD6" s="22" t="s">
+      <c r="AC6" s="27"/>
+      <c r="AD6" s="23" t="s">
         <v>102</v>
       </c>
-      <c r="AE6" s="22" t="s">
+      <c r="AE6" s="23" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="7" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A7" s="11" t="s">
+    <row r="7" spans="1:31">
+      <c r="A7" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="C7" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="D7" s="13" t="s">
+      <c r="D7" s="14" t="s">
         <v>105</v>
       </c>
-      <c r="E7" s="13" t="s">
+      <c r="E7" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="F7" s="13" t="s">
+      <c r="F7" s="14" t="s">
         <v>106</v>
       </c>
-      <c r="G7" s="13" t="s">
+      <c r="G7" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="H7" s="12" t="s">
+      <c r="H7" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="I7" s="12" t="s">
+      <c r="I7" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="J7" s="13" t="s">
+      <c r="J7" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="K7" s="13" t="s">
+      <c r="K7" s="14" t="s">
         <v>106</v>
       </c>
-      <c r="L7" s="13" t="s">
+      <c r="L7" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="N7" s="13" t="s">
+      <c r="N7" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="O7" s="13" t="s">
+      <c r="O7" s="14" t="s">
         <v>109</v>
       </c>
-      <c r="P7" s="13" t="s">
+      <c r="P7" s="14" t="s">
         <v>110</v>
       </c>
-      <c r="Q7" s="13" t="s">
+      <c r="Q7" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="S7" s="23" t="s">
+      <c r="S7" s="24" t="s">
         <v>85</v>
       </c>
-      <c r="T7" s="13" t="s">
+      <c r="T7" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="U7" s="13" t="s">
+      <c r="U7" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="V7" s="13" t="s">
+      <c r="V7" s="14" t="s">
         <v>111</v>
       </c>
-      <c r="W7" s="13" t="s">
+      <c r="W7" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="X7" s="13" t="s">
+      <c r="X7" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="Y7" s="13" t="s">
+      <c r="Y7" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="Z7" s="13" t="s">
+      <c r="Z7" s="14" t="s">
         <v>112</v>
       </c>
-      <c r="AA7" s="13" t="s">
+      <c r="AA7" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="AB7" s="13" t="s">
+      <c r="AB7" s="14" t="s">
         <v>106</v>
       </c>
-      <c r="AC7" s="25"/>
-      <c r="AD7" s="13" t="s">
+      <c r="AC7" s="27"/>
+      <c r="AD7" s="14" t="s">
         <v>113</v>
       </c>
-      <c r="AE7" s="22" t="s">
+      <c r="AE7" s="23" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A8" s="11" t="s">
+    <row r="8" spans="1:31">
+      <c r="A8" s="12" t="s">
         <v>114</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="12" t="s">
         <v>115</v>
       </c>
-      <c r="C8" s="12" t="s">
+      <c r="C8" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="D8" s="12" t="s">
+      <c r="D8" s="13" t="s">
         <v>116</v>
       </c>
-      <c r="E8" s="12" t="s">
+      <c r="E8" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="F8" s="12" t="s">
+      <c r="F8" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="G8" s="13" t="s">
+      <c r="G8" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="H8" s="13" t="s">
+      <c r="H8" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="I8" s="12" t="s">
+      <c r="I8" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="J8" s="12" t="s">
+      <c r="J8" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="K8" s="12" t="s">
+      <c r="K8" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="L8" s="13" t="s">
+      <c r="L8" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="N8" s="12" t="s">
+      <c r="N8" s="13" t="s">
         <v>117</v>
       </c>
-      <c r="O8" s="12" t="s">
+      <c r="O8" s="13" t="s">
         <v>117</v>
       </c>
-      <c r="P8" s="12" t="s">
+      <c r="P8" s="13" t="s">
         <v>117</v>
       </c>
-      <c r="Q8" s="12" t="s">
+      <c r="Q8" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="S8" s="22" t="s">
+      <c r="S8" s="23" t="s">
         <v>80</v>
       </c>
-      <c r="T8" s="13" t="s">
+      <c r="T8" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="U8" s="16" t="s">
+      <c r="U8" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="V8" s="13" t="s">
+      <c r="V8" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="W8" s="13" t="s">
+      <c r="W8" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="X8" s="13" t="s">
+      <c r="X8" s="14" t="s">
         <v>118</v>
       </c>
-      <c r="Y8" s="12" t="s">
+      <c r="Y8" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="Z8" s="13" t="s">
+      <c r="Z8" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="AA8" s="13" t="s">
+      <c r="AA8" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="AB8" s="13" t="s">
+      <c r="AB8" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="AD8" s="13" t="s">
+      <c r="AD8" s="14" t="s">
         <v>119</v>
       </c>
-      <c r="AE8" s="13" t="s">
+      <c r="AE8" s="14" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A9" s="11" t="s">
+    <row r="9" spans="1:31">
+      <c r="A9" s="12" t="s">
         <v>120</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="12" t="s">
         <v>121</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="C9" s="14" t="s">
         <v>98</v>
       </c>
-      <c r="D9" s="12" t="s">
+      <c r="D9" s="13" t="s">
         <v>122</v>
       </c>
-      <c r="E9" s="12" t="s">
+      <c r="E9" s="13" t="s">
         <v>123</v>
       </c>
-      <c r="F9" s="13" t="s">
+      <c r="F9" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="G9" s="12" t="s">
+      <c r="G9" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="H9" s="12" t="s">
+      <c r="H9" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="I9" s="13" t="s">
+      <c r="I9" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="J9" s="13" t="s">
+      <c r="J9" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="K9" s="13" t="s">
+      <c r="K9" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="L9" s="12" t="s">
+      <c r="L9" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="N9" s="13" t="s">
+      <c r="N9" s="14" t="s">
         <v>124</v>
       </c>
-      <c r="O9" s="13" t="s">
+      <c r="O9" s="14" t="s">
         <v>125</v>
       </c>
-      <c r="P9" s="13" t="s">
+      <c r="P9" s="14" t="s">
         <v>126</v>
       </c>
-      <c r="Q9" s="12" t="s">
+      <c r="Q9" s="13" t="s">
         <v>123</v>
       </c>
-      <c r="S9" s="23" t="s">
+      <c r="S9" s="24" t="s">
         <v>91</v>
       </c>
-      <c r="T9" s="12" t="s">
+      <c r="T9" s="13" t="s">
         <v>123</v>
       </c>
-      <c r="U9" s="13" t="s">
+      <c r="U9" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="V9" s="12" t="s">
+      <c r="V9" s="13" t="s">
         <v>127</v>
       </c>
-      <c r="W9" s="13" t="s">
+      <c r="W9" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="X9" s="12" t="s">
+      <c r="X9" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="Y9" s="12" t="s">
+      <c r="Y9" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="Z9" s="13" t="s">
+      <c r="Z9" s="14" t="s">
         <v>128</v>
       </c>
-      <c r="AA9" s="12" t="s">
+      <c r="AA9" s="13" t="s">
         <v>129</v>
       </c>
-      <c r="AB9" s="13" t="s">
+      <c r="AB9" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="AD9" s="13" t="s">
+      <c r="AD9" s="14" t="s">
         <v>130</v>
       </c>
-      <c r="AE9" s="12" t="s">
+      <c r="AE9" s="13" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="10" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A10" s="11" t="s">
+    <row r="10" spans="1:31">
+      <c r="A10" s="12" t="s">
         <v>132</v>
       </c>
-      <c r="B10" s="14" t="s">
+      <c r="B10" s="15" t="s">
         <v>133</v>
       </c>
-      <c r="C10" s="15" t="s">
+      <c r="C10" s="16" t="s">
         <v>98</v>
       </c>
-      <c r="D10" s="16" t="s">
+      <c r="D10" s="17" t="s">
         <v>134</v>
       </c>
-      <c r="E10" s="16" t="s">
+      <c r="E10" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="F10" s="16" t="s">
+      <c r="F10" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="G10" s="16" t="s">
+      <c r="G10" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="H10" s="15" t="s">
+      <c r="H10" s="16" t="s">
         <v>89</v>
       </c>
-      <c r="I10" s="15" t="s">
+      <c r="I10" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="J10" s="16" t="s">
+      <c r="J10" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="K10" s="16" t="s">
+      <c r="K10" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="L10" s="15" t="s">
+      <c r="L10" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="N10" s="16" t="s">
+      <c r="N10" s="17" t="s">
         <v>135</v>
       </c>
-      <c r="O10" s="16" t="s">
+      <c r="O10" s="17" t="s">
         <v>136</v>
       </c>
-      <c r="P10" s="16" t="s">
+      <c r="P10" s="17" t="s">
         <v>137</v>
       </c>
-      <c r="Q10" s="15" t="s">
+      <c r="Q10" s="16" t="s">
         <v>138</v>
       </c>
-      <c r="S10" s="16" t="s">
+      <c r="S10" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="T10" s="15" t="s">
+      <c r="T10" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="U10" s="16" t="s">
+      <c r="U10" s="17" t="s">
         <v>139</v>
       </c>
-      <c r="V10" s="16" t="s">
+      <c r="V10" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="W10" s="16" t="s">
+      <c r="W10" s="17" t="s">
         <v>123</v>
       </c>
-      <c r="X10" s="16" t="s">
+      <c r="X10" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="Y10" s="16" t="s">
+      <c r="Y10" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="Z10" s="16" t="s">
+      <c r="Z10" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="AA10" s="16" t="s">
+      <c r="AA10" s="17" t="s">
         <v>123</v>
       </c>
-      <c r="AB10" s="15" t="s">
+      <c r="AB10" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="AD10" s="16" t="s">
+      <c r="AD10" s="17" t="s">
         <v>140</v>
       </c>
-      <c r="AE10" s="16" t="s">
+      <c r="AE10" s="17" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A11" s="11" t="s">
+    <row r="11" spans="1:31">
+      <c r="A11" s="12" t="s">
         <v>141</v>
       </c>
-      <c r="B11" s="14" t="s">
+      <c r="B11" s="15" t="s">
         <v>142</v>
       </c>
-      <c r="C11" s="15" t="s">
+      <c r="C11" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="D11" s="16" t="s">
+      <c r="D11" s="17" t="s">
         <v>117</v>
       </c>
-      <c r="E11" s="16" t="s">
+      <c r="E11" s="17" t="s">
         <v>106</v>
       </c>
-      <c r="F11" s="16" t="s">
+      <c r="F11" s="17" t="s">
         <v>118</v>
       </c>
-      <c r="G11" s="15" t="s">
+      <c r="G11" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="H11" s="15" t="s">
+      <c r="H11" s="16" t="s">
         <v>143</v>
       </c>
-      <c r="I11" s="16" t="s">
+      <c r="I11" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="J11" s="15" t="s">
+      <c r="J11" s="16" t="s">
         <v>98</v>
       </c>
-      <c r="K11" s="15" t="s">
+      <c r="K11" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="L11" s="16" t="s">
+      <c r="L11" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="N11" s="16" t="s">
+      <c r="N11" s="17" t="s">
         <v>144</v>
       </c>
-      <c r="O11" s="16" t="s">
+      <c r="O11" s="17" t="s">
         <v>145</v>
       </c>
-      <c r="P11" s="16" t="s">
+      <c r="P11" s="17" t="s">
         <v>146</v>
       </c>
-      <c r="Q11" s="16" t="s">
+      <c r="Q11" s="17" t="s">
         <v>106</v>
       </c>
-      <c r="S11" s="15" t="s">
+      <c r="S11" s="16" t="s">
         <v>143</v>
       </c>
-      <c r="T11" s="16" t="s">
+      <c r="T11" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="U11" s="15" t="s">
+      <c r="U11" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="V11" s="15" t="s">
+      <c r="V11" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="W11" s="16" t="s">
+      <c r="W11" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="X11" s="15" t="s">
+      <c r="X11" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="Y11" s="15" t="s">
+      <c r="Y11" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="Z11" s="15" t="s">
+      <c r="Z11" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="AA11" s="15" t="s">
+      <c r="AA11" s="16" t="s">
         <v>147</v>
       </c>
-      <c r="AB11" s="15" t="s">
+      <c r="AB11" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="AD11" s="15" t="s">
+      <c r="AD11" s="16" t="s">
         <v>148</v>
       </c>
-      <c r="AE11" s="15" t="s">
+      <c r="AE11" s="16" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="12" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A12" s="11" t="s">
+    <row r="12" spans="1:31">
+      <c r="A12" s="12" t="s">
         <v>149</v>
       </c>
-      <c r="B12" s="14" t="s">
+      <c r="B12" s="15" t="s">
         <v>150</v>
       </c>
-      <c r="C12" s="15" t="s">
+      <c r="C12" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="D12" s="16" t="s">
+      <c r="D12" s="17" t="s">
         <v>151</v>
       </c>
-      <c r="E12" s="15" t="s">
+      <c r="E12" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="F12" s="15" t="s">
+      <c r="F12" s="16" t="s">
         <v>143</v>
       </c>
-      <c r="G12" s="16" t="s">
+      <c r="G12" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="H12" s="15" t="s">
+      <c r="H12" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="I12" s="16" t="s">
+      <c r="I12" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="J12" s="15" t="s">
+      <c r="J12" s="16" t="s">
         <v>143</v>
       </c>
-      <c r="K12" s="15" t="s">
+      <c r="K12" s="16" t="s">
         <v>143</v>
       </c>
-      <c r="L12" s="16" t="s">
+      <c r="L12" s="17" t="s">
         <v>74</v>
       </c>
-      <c r="N12" s="16" t="s">
+      <c r="N12" s="17" t="s">
         <v>152</v>
       </c>
-      <c r="O12" s="16" t="s">
+      <c r="O12" s="17" t="s">
         <v>152</v>
       </c>
-      <c r="P12" s="15" t="s">
+      <c r="P12" s="16" t="s">
         <v>153</v>
       </c>
-      <c r="Q12" s="15" t="s">
+      <c r="Q12" s="16" t="s">
         <v>143</v>
       </c>
-      <c r="S12" s="15" t="s">
+      <c r="S12" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="T12" s="16" t="s">
+      <c r="T12" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="U12" s="16" t="s">
+      <c r="U12" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="V12" s="16" t="s">
+      <c r="V12" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="W12" s="15" t="s">
+      <c r="W12" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="X12" s="15" t="s">
+      <c r="X12" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="Y12" s="15" t="s">
+      <c r="Y12" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="Z12" s="15" t="s">
+      <c r="Z12" s="16" t="s">
         <v>154</v>
       </c>
-      <c r="AA12" s="12"/>
-      <c r="AB12" s="15" t="s">
+      <c r="AA12" s="13"/>
+      <c r="AB12" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="AD12" s="16" t="s">
+      <c r="AD12" s="17" t="s">
         <v>155</v>
       </c>
-      <c r="AE12" s="15" t="s">
+      <c r="AE12" s="16" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="13" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A13" s="11" t="s">
+    <row r="13" spans="1:31">
+      <c r="A13" s="12" t="s">
         <v>156</v>
       </c>
-      <c r="B13" s="14" t="s">
+      <c r="B13" s="15" t="s">
         <v>157</v>
       </c>
-      <c r="C13" s="15" t="s">
+      <c r="C13" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="D13" s="15" t="s">
+      <c r="D13" s="16" t="s">
         <v>158</v>
       </c>
-      <c r="E13" s="15" t="s">
+      <c r="E13" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="F13" s="15" t="s">
+      <c r="F13" s="16" t="s">
         <v>143</v>
       </c>
-      <c r="G13" s="15" t="s">
+      <c r="G13" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="H13" s="12"/>
-      <c r="I13" s="16" t="s">
+      <c r="H13" s="13"/>
+      <c r="I13" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="J13" s="12"/>
-      <c r="K13" s="15" t="s">
+      <c r="J13" s="13"/>
+      <c r="K13" s="16" t="s">
         <v>143</v>
       </c>
-      <c r="L13" s="15" t="s">
+      <c r="L13" s="16" t="s">
         <v>143</v>
       </c>
-      <c r="N13" s="12"/>
-      <c r="O13" s="12"/>
-      <c r="P13" s="12"/>
-      <c r="Q13" s="12"/>
-      <c r="S13" s="12"/>
-      <c r="T13" s="16" t="s">
+      <c r="N13" s="13"/>
+      <c r="O13" s="13"/>
+      <c r="P13" s="13"/>
+      <c r="Q13" s="13"/>
+      <c r="S13" s="13"/>
+      <c r="T13" s="17" t="s">
         <v>107</v>
       </c>
-      <c r="U13" s="16" t="s">
+      <c r="U13" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="V13" s="16" t="s">
+      <c r="V13" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="W13" s="16" t="s">
+      <c r="W13" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="X13" s="16" t="s">
+      <c r="X13" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="Y13" s="12"/>
-      <c r="Z13" s="16" t="s">
+      <c r="Y13" s="13"/>
+      <c r="Z13" s="17" t="s">
         <v>159</v>
       </c>
-      <c r="AA13" s="16" t="s">
+      <c r="AA13" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="AB13" s="12"/>
-      <c r="AD13" s="16" t="s">
+      <c r="AB13" s="13"/>
+      <c r="AD13" s="17" t="s">
         <v>160</v>
       </c>
-      <c r="AE13" s="16" t="s">
+      <c r="AE13" s="17" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="14" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A14" s="11" t="s">
+    <row r="14" spans="1:31">
+      <c r="A14" s="12" t="s">
         <v>161</v>
       </c>
-      <c r="B14" s="14" t="s">
+      <c r="B14" s="15" t="s">
         <v>162</v>
       </c>
-      <c r="C14" s="16" t="s">
+      <c r="C14" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="D14" s="15" t="s">
+      <c r="D14" s="16" t="s">
         <v>163</v>
       </c>
-      <c r="E14" s="15" t="s">
+      <c r="E14" s="16" t="s">
         <v>106</v>
       </c>
-      <c r="F14" s="16" t="s">
+      <c r="F14" s="17" t="s">
         <v>118</v>
       </c>
-      <c r="G14" s="15" t="s">
+      <c r="G14" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="H14" s="15" t="s">
+      <c r="H14" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="I14" s="16" t="s">
+      <c r="I14" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="J14" s="15" t="s">
+      <c r="J14" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="K14" s="16" t="s">
+      <c r="K14" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="L14" s="15" t="s">
+      <c r="L14" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="N14" s="15" t="s">
+      <c r="N14" s="16" t="s">
         <v>164</v>
       </c>
-      <c r="O14" s="15" t="s">
+      <c r="O14" s="16" t="s">
         <v>165</v>
       </c>
-      <c r="P14" s="15" t="s">
+      <c r="P14" s="16" t="s">
         <v>166</v>
       </c>
-      <c r="Q14" s="15" t="s">
+      <c r="Q14" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="S14" s="15" t="s">
+      <c r="S14" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="T14" s="16" t="s">
+      <c r="T14" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="U14" s="15" t="s">
+      <c r="U14" s="16" t="s">
         <v>167</v>
       </c>
-      <c r="V14" s="16" t="s">
+      <c r="V14" s="17" t="s">
         <v>93</v>
       </c>
-      <c r="W14" s="15" t="s">
+      <c r="W14" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="X14" s="15" t="s">
+      <c r="X14" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="Y14" s="15" t="s">
+      <c r="Y14" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="Z14" s="15" t="s">
+      <c r="Z14" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="AA14" s="15" t="s">
+      <c r="AA14" s="16" t="s">
         <v>127</v>
       </c>
-      <c r="AB14" s="15" t="s">
+      <c r="AB14" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="AD14" s="15" t="s">
+      <c r="AD14" s="16" t="s">
         <v>168</v>
       </c>
-      <c r="AE14" s="15" t="s">
+      <c r="AE14" s="16" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="15" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A15" s="11" t="s">
+    <row r="15" spans="1:31">
+      <c r="A15" s="12" t="s">
         <v>169</v>
       </c>
-      <c r="B15" s="14" t="s">
+      <c r="B15" s="15" t="s">
         <v>170</v>
       </c>
-      <c r="C15" s="15" t="s">
+      <c r="C15" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="D15" s="15" t="s">
+      <c r="D15" s="16" t="s">
         <v>171</v>
       </c>
-      <c r="E15" s="15" t="s">
+      <c r="E15" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="F15" s="15" t="s">
+      <c r="F15" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="G15" s="16" t="s">
+      <c r="G15" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="H15" s="15" t="s">
+      <c r="H15" s="16" t="s">
         <v>127</v>
       </c>
-      <c r="I15" s="15" t="s">
+      <c r="I15" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="J15" s="15" t="s">
+      <c r="J15" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="K15" s="15" t="s">
+      <c r="K15" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="L15" s="16" t="s">
+      <c r="L15" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="N15" s="15" t="s">
+      <c r="N15" s="16" t="s">
         <v>172</v>
       </c>
-      <c r="O15" s="15" t="s">
+      <c r="O15" s="16" t="s">
         <v>172</v>
       </c>
-      <c r="P15" s="15" t="s">
+      <c r="P15" s="16" t="s">
         <v>173</v>
       </c>
-      <c r="Q15" s="15" t="s">
+      <c r="Q15" s="16" t="s">
         <v>174</v>
       </c>
-      <c r="S15" s="12"/>
-      <c r="T15" s="15" t="s">
+      <c r="S15" s="13"/>
+      <c r="T15" s="16" t="s">
         <v>127</v>
       </c>
-      <c r="U15" s="15" t="s">
+      <c r="U15" s="16" t="s">
         <v>139</v>
       </c>
-      <c r="V15" s="16" t="s">
+      <c r="V15" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="W15" s="16" t="s">
+      <c r="W15" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="X15" s="16" t="s">
+      <c r="X15" s="17" t="s">
         <v>107</v>
       </c>
-      <c r="Y15" s="16" t="s">
+      <c r="Y15" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="Z15" s="12"/>
-      <c r="AA15" s="15" t="s">
+      <c r="Z15" s="13"/>
+      <c r="AA15" s="16" t="s">
         <v>127</v>
       </c>
-      <c r="AB15" s="16" t="s">
+      <c r="AB15" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="AD15" s="16" t="s">
+      <c r="AD15" s="17" t="s">
         <v>175</v>
       </c>
-      <c r="AE15" s="15" t="s">
+      <c r="AE15" s="16" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="16" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A16" s="11" t="s">
+    <row r="16" spans="1:31">
+      <c r="A16" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="B16" s="14" t="s">
+      <c r="B16" s="15" t="s">
         <v>176</v>
       </c>
-      <c r="C16" s="16" t="s">
+      <c r="C16" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="D16" s="15" t="s">
+      <c r="D16" s="16" t="s">
         <v>177</v>
       </c>
-      <c r="E16" s="16" t="s">
+      <c r="E16" s="17" t="s">
         <v>85</v>
       </c>
-      <c r="F16" s="16" t="s">
+      <c r="F16" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="G16" s="16" t="s">
+      <c r="G16" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="H16" s="15" t="s">
+      <c r="H16" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="I16" s="15" t="s">
+      <c r="I16" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="J16" s="15" t="s">
+      <c r="J16" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="K16" s="16" t="s">
+      <c r="K16" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="L16" s="15" t="s">
+      <c r="L16" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="N16" s="16" t="s">
+      <c r="N16" s="17" t="s">
         <v>178</v>
       </c>
-      <c r="O16" s="16" t="s">
+      <c r="O16" s="17" t="s">
         <v>179</v>
       </c>
-      <c r="P16" s="16" t="s">
+      <c r="P16" s="17" t="s">
         <v>82</v>
       </c>
-      <c r="Q16" s="16" t="s">
+      <c r="Q16" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="S16" s="15" t="s">
+      <c r="S16" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="T16" s="16" t="s">
+      <c r="T16" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="U16" s="16" t="s">
+      <c r="U16" s="17" t="s">
         <v>139</v>
       </c>
-      <c r="V16" s="16" t="s">
+      <c r="V16" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="W16" s="16" t="s">
+      <c r="W16" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="X16" s="15" t="s">
+      <c r="X16" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="Y16" s="15" t="s">
+      <c r="Y16" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="Z16" s="15" t="s">
+      <c r="Z16" s="16" t="s">
         <v>154</v>
       </c>
-      <c r="AA16" s="15" t="s">
+      <c r="AA16" s="16" t="s">
         <v>127</v>
       </c>
-      <c r="AB16" s="15" t="s">
+      <c r="AB16" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="AD16" s="16" t="s">
+      <c r="AD16" s="17" t="s">
         <v>180</v>
       </c>
-      <c r="AE16" s="15" t="s">
+      <c r="AE16" s="16" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="17" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A17" s="11" t="s">
+    <row r="17" spans="1:28">
+      <c r="A17" s="12" t="s">
         <v>181</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="C17" s="12"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="12"/>
-      <c r="G17" s="12"/>
-      <c r="H17" s="12"/>
-      <c r="I17" s="12"/>
-      <c r="J17" s="12"/>
-      <c r="K17" s="12"/>
-      <c r="L17" s="12"/>
-      <c r="S17" s="12"/>
-      <c r="T17" s="16" t="s">
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="13"/>
+      <c r="I17" s="13"/>
+      <c r="J17" s="13"/>
+      <c r="K17" s="13"/>
+      <c r="L17" s="13"/>
+      <c r="S17" s="13"/>
+      <c r="T17" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="U17" s="15" t="s">
+      <c r="U17" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="V17" s="15" t="s">
+      <c r="V17" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="W17" s="15" t="s">
+      <c r="W17" s="16" t="s">
         <v>89</v>
       </c>
-      <c r="X17" s="12"/>
-      <c r="Y17" s="12"/>
-      <c r="Z17" s="12"/>
-      <c r="AA17" s="12"/>
-      <c r="AB17" s="12"/>
-    </row>
-    <row r="18" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A18" s="11" t="s">
+      <c r="X17" s="13"/>
+      <c r="Y17" s="13"/>
+      <c r="Z17" s="13"/>
+      <c r="AA17" s="13"/>
+      <c r="AB17" s="13"/>
+    </row>
+    <row r="18" spans="1:31">
+      <c r="A18" s="12" t="s">
         <v>183</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="C18" s="12"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="12"/>
-      <c r="G18" s="15" t="s">
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="16" t="s">
         <v>127</v>
       </c>
-      <c r="H18" s="15"/>
-      <c r="I18" s="12"/>
-      <c r="J18" s="12"/>
-      <c r="K18" s="12"/>
-      <c r="L18" s="12"/>
-      <c r="S18" s="12"/>
-      <c r="T18" s="16" t="s">
+      <c r="H18" s="16"/>
+      <c r="I18" s="13"/>
+      <c r="J18" s="13"/>
+      <c r="K18" s="13"/>
+      <c r="L18" s="13"/>
+      <c r="S18" s="13"/>
+      <c r="T18" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="U18" s="16" t="s">
+      <c r="U18" s="17" t="s">
         <v>128</v>
       </c>
-      <c r="V18" s="15" t="s">
+      <c r="V18" s="16" t="s">
         <v>131</v>
       </c>
-      <c r="W18" s="16" t="s">
+      <c r="W18" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="X18" s="16" t="s">
+      <c r="X18" s="17" t="s">
         <v>93</v>
       </c>
-      <c r="Y18" s="12"/>
-      <c r="Z18" s="12"/>
-      <c r="AA18" s="15" t="s">
+      <c r="Y18" s="13"/>
+      <c r="Z18" s="13"/>
+      <c r="AA18" s="16" t="s">
         <v>127</v>
       </c>
-      <c r="AB18" s="16" t="s">
+      <c r="AB18" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="AD18" s="16" t="s">
+      <c r="AD18" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="AE18" s="16" t="s">
+      <c r="AE18" s="17" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="19" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A19" s="11" t="s">
+    <row r="19" spans="1:31">
+      <c r="A19" s="12" t="s">
         <v>185</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="C19" s="15" t="s">
+      <c r="C19" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="D19" s="15" t="s">
+      <c r="D19" s="16" t="s">
         <v>187</v>
       </c>
-      <c r="E19" s="15" t="s">
+      <c r="E19" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="F19" s="16" t="s">
+      <c r="F19" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="G19" s="17"/>
-      <c r="H19" s="16" t="s">
+      <c r="G19" s="18"/>
+      <c r="H19" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="I19" s="12"/>
-      <c r="J19" s="15" t="s">
+      <c r="I19" s="13"/>
+      <c r="J19" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="K19" s="16" t="s">
+      <c r="K19" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="L19" s="15" t="s">
+      <c r="L19" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="M19" s="19"/>
-      <c r="N19" s="16" t="s">
+      <c r="M19" s="20"/>
+      <c r="N19" s="17" t="s">
         <v>188</v>
       </c>
-      <c r="O19" s="16" t="s">
+      <c r="O19" s="17" t="s">
         <v>188</v>
       </c>
-      <c r="P19" s="16" t="s">
+      <c r="P19" s="17" t="s">
         <v>188</v>
       </c>
-      <c r="Q19" s="15" t="s">
+      <c r="Q19" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="R19" s="19"/>
-      <c r="S19" s="16" t="s">
+      <c r="R19" s="20"/>
+      <c r="S19" s="17" t="s">
         <v>80</v>
       </c>
-      <c r="T19" s="15" t="s">
+      <c r="T19" s="16" t="s">
         <v>123</v>
       </c>
-      <c r="U19" s="15" t="s">
+      <c r="U19" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="V19" s="15" t="s">
+      <c r="V19" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="W19" s="15" t="s">
+      <c r="W19" s="16" t="s">
         <v>89</v>
       </c>
-      <c r="X19" s="16" t="s">
+      <c r="X19" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="Y19" s="12"/>
-      <c r="Z19" s="12"/>
-      <c r="AA19" s="26"/>
-      <c r="AB19" s="16" t="s">
+      <c r="Y19" s="13"/>
+      <c r="Z19" s="13"/>
+      <c r="AA19" s="25"/>
+      <c r="AB19" s="17" t="s">
         <v>93</v>
       </c>
-      <c r="AC19" s="19"/>
-      <c r="AD19" s="16" t="s">
+      <c r="AC19" s="20"/>
+      <c r="AD19" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="AE19" s="16" t="s">
+      <c r="AE19" s="17" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="20" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A20" s="11" t="s">
+    <row r="20" spans="1:31">
+      <c r="A20" s="12" t="s">
         <v>189</v>
       </c>
-      <c r="B20" s="14" t="s">
+      <c r="B20" s="15" t="s">
         <v>190</v>
       </c>
-      <c r="C20" s="15" t="s">
+      <c r="C20" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="D20" s="16" t="s">
+      <c r="D20" s="17" t="s">
         <v>191</v>
       </c>
-      <c r="E20" s="15" t="s">
+      <c r="E20" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="F20" s="15" t="s">
+      <c r="F20" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="G20" s="16" t="s">
+      <c r="G20" s="17" t="s">
         <v>127</v>
       </c>
-      <c r="H20" s="15" t="s">
+      <c r="H20" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="I20" s="16" t="s">
+      <c r="I20" s="17" t="s">
         <v>107</v>
       </c>
-      <c r="J20" s="16" t="s">
+      <c r="J20" s="17" t="s">
         <v>127</v>
       </c>
-      <c r="K20" s="15" t="s">
+      <c r="K20" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="L20" s="16" t="s">
+      <c r="L20" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="N20" s="16" t="s">
+      <c r="N20" s="17" t="s">
         <v>192</v>
       </c>
-      <c r="O20" s="16" t="s">
+      <c r="O20" s="17" t="s">
         <v>192</v>
       </c>
-      <c r="P20" s="15" t="s">
+      <c r="P20" s="16" t="s">
         <v>177</v>
       </c>
-      <c r="Q20" s="15" t="s">
+      <c r="Q20" s="16" t="s">
         <v>147</v>
       </c>
-      <c r="S20" s="15" t="s">
+      <c r="S20" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="T20" s="16" t="s">
+      <c r="T20" s="17" t="s">
         <v>90</v>
       </c>
-      <c r="U20" s="16" t="s">
+      <c r="U20" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="V20" s="16" t="s">
+      <c r="V20" s="17" t="s">
         <v>131</v>
       </c>
-      <c r="W20" s="16" t="s">
+      <c r="W20" s="17" t="s">
         <v>127</v>
       </c>
-      <c r="X20" s="15" t="s">
+      <c r="X20" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="Y20" s="15" t="s">
+      <c r="Y20" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="Z20" s="15" t="s">
+      <c r="Z20" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="AA20" s="16" t="s">
+      <c r="AA20" s="17" t="s">
         <v>127</v>
       </c>
-      <c r="AB20" s="15" t="s">
+      <c r="AB20" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="AD20" s="16" t="s">
+      <c r="AD20" s="17" t="s">
         <v>193</v>
       </c>
-      <c r="AE20" s="15" t="s">
+      <c r="AE20" s="16" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="21" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A21" s="11" t="s">
+    <row r="21" spans="1:31">
+      <c r="A21" s="12" t="s">
         <v>194</v>
       </c>
-      <c r="B21" s="14" t="s">
+      <c r="B21" s="15" t="s">
         <v>195</v>
       </c>
-      <c r="C21" s="16" t="s">
+      <c r="C21" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="D21" s="16" t="s">
+      <c r="D21" s="17" t="s">
         <v>196</v>
       </c>
-      <c r="E21" s="16" t="s">
+      <c r="E21" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="F21" s="15" t="s">
+      <c r="F21" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="G21" s="15" t="s">
+      <c r="G21" s="16" t="s">
         <v>143</v>
       </c>
-      <c r="H21" s="16" t="s">
+      <c r="H21" s="17" t="s">
         <v>127</v>
       </c>
-      <c r="I21" s="15" t="s">
+      <c r="I21" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="J21" s="16" t="s">
+      <c r="J21" s="17" t="s">
         <v>197</v>
       </c>
-      <c r="K21" s="16" t="s">
+      <c r="K21" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="L21" s="16" t="s">
+      <c r="L21" s="17" t="s">
         <v>197</v>
       </c>
-      <c r="N21" s="16" t="s">
+      <c r="N21" s="17" t="s">
         <v>198</v>
       </c>
-      <c r="O21" s="16" t="s">
+      <c r="O21" s="17" t="s">
         <v>199</v>
       </c>
-      <c r="P21" s="16" t="s">
+      <c r="P21" s="17" t="s">
         <v>188</v>
       </c>
-      <c r="Q21" s="16" t="s">
+      <c r="Q21" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="S21" s="16" t="s">
+      <c r="S21" s="17" t="s">
         <v>127</v>
       </c>
-      <c r="T21" s="16" t="s">
+      <c r="T21" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="U21" s="15" t="s">
+      <c r="U21" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="V21" s="15" t="s">
+      <c r="V21" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="W21" s="15" t="s">
+      <c r="W21" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="X21" s="15" t="s">
+      <c r="X21" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="Y21" s="16" t="s">
+      <c r="Y21" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="Z21" s="16" t="s">
+      <c r="Z21" s="17" t="s">
         <v>128</v>
       </c>
-      <c r="AA21" s="16" t="s">
+      <c r="AA21" s="17" t="s">
         <v>200</v>
       </c>
-      <c r="AB21" s="16" t="s">
+      <c r="AB21" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="AD21" s="16" t="s">
+      <c r="AD21" s="17" t="s">
         <v>201</v>
       </c>
-      <c r="AE21" s="16" t="s">
+      <c r="AE21" s="17" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="22" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A22" s="11" t="s">
+    <row r="22" spans="1:31">
+      <c r="A22" s="12" t="s">
         <v>202</v>
       </c>
-      <c r="B22" s="14" t="s">
+      <c r="B22" s="15" t="s">
         <v>203</v>
       </c>
-      <c r="C22" s="15" t="s">
+      <c r="C22" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="D22" s="15" t="s">
+      <c r="D22" s="16" t="s">
         <v>204</v>
       </c>
-      <c r="E22" s="15" t="s">
+      <c r="E22" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="F22" s="15" t="s">
+      <c r="F22" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="G22" s="16" t="s">
+      <c r="G22" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="H22" s="15" t="s">
+      <c r="H22" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="I22" s="15" t="s">
+      <c r="I22" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="J22" s="15" t="s">
+      <c r="J22" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="K22" s="15" t="s">
+      <c r="K22" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="L22" s="16" t="s">
+      <c r="L22" s="17" t="s">
         <v>98</v>
       </c>
-      <c r="N22" s="15" t="s">
+      <c r="N22" s="16" t="s">
         <v>205</v>
       </c>
-      <c r="O22" s="15" t="s">
+      <c r="O22" s="16" t="s">
         <v>205</v>
       </c>
-      <c r="P22" s="15" t="s">
+      <c r="P22" s="16" t="s">
         <v>205</v>
       </c>
-      <c r="Q22" s="15" t="s">
+      <c r="Q22" s="16" t="s">
         <v>205</v>
       </c>
-      <c r="S22" s="16" t="s">
+      <c r="S22" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="T22" s="15" t="s">
+      <c r="T22" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="U22" s="15" t="s">
+      <c r="U22" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="V22" s="15" t="s">
+      <c r="V22" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="W22" s="15" t="s">
+      <c r="W22" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="X22" s="16" t="s">
+      <c r="X22" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="Y22" s="16" t="s">
+      <c r="Y22" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="Z22" s="15" t="s">
+      <c r="Z22" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="AA22" s="16" t="s">
+      <c r="AA22" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="AB22" s="16" t="s">
+      <c r="AB22" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="AD22" s="16" t="s">
+      <c r="AD22" s="17" t="s">
         <v>206</v>
       </c>
-      <c r="AE22" s="16" t="s">
+      <c r="AE22" s="17" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="23" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A23" s="11" t="s">
+    <row r="23" spans="1:31">
+      <c r="A23" s="12" t="s">
         <v>207</v>
       </c>
-      <c r="B23" s="29" t="s">
-        <v>296</v>
-      </c>
-      <c r="C23" s="16" t="s">
+      <c r="B23" s="15" t="s">
+        <v>208</v>
+      </c>
+      <c r="C23" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="D23" s="15" t="s">
-        <v>208</v>
-      </c>
-      <c r="E23" s="16" t="s">
+      <c r="D23" s="16" t="s">
+        <v>209</v>
+      </c>
+      <c r="E23" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="F23" s="16" t="s">
+      <c r="F23" s="17" t="s">
         <v>197</v>
       </c>
-      <c r="G23" s="16" t="s">
+      <c r="G23" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="H23" s="16" t="s">
+      <c r="H23" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="I23" s="16" t="s">
+      <c r="I23" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="J23" s="15" t="s">
+      <c r="J23" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="K23" s="16" t="s">
+      <c r="K23" s="17" t="s">
         <v>197</v>
       </c>
-      <c r="L23" s="15" t="s">
+      <c r="L23" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="N23" s="16" t="s">
-        <v>209</v>
-      </c>
-      <c r="O23" s="16" t="s">
-        <v>209</v>
-      </c>
-      <c r="P23" s="16" t="s">
+      <c r="N23" s="17" t="s">
         <v>210</v>
       </c>
-      <c r="Q23" s="16" t="s">
+      <c r="O23" s="17" t="s">
+        <v>210</v>
+      </c>
+      <c r="P23" s="17" t="s">
+        <v>211</v>
+      </c>
+      <c r="Q23" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="S23" s="15" t="s">
+      <c r="S23" s="16" t="s">
         <v>143</v>
       </c>
-      <c r="T23" s="16" t="s">
+      <c r="T23" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="U23" s="15" t="s">
+      <c r="U23" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="V23" s="15" t="s">
+      <c r="V23" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="W23" s="16" t="s">
+      <c r="W23" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="X23" s="15" t="s">
+      <c r="X23" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="Y23" s="15" t="s">
+      <c r="Y23" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="Z23" s="16" t="s">
+      <c r="Z23" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="AA23" s="16" t="s">
-        <v>211</v>
-      </c>
-      <c r="AB23" s="16" t="s">
+      <c r="AA23" s="17" t="s">
+        <v>212</v>
+      </c>
+      <c r="AB23" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="AD23" s="16" t="s">
-        <v>212</v>
-      </c>
-      <c r="AE23" s="15" t="s">
+      <c r="AD23" s="17" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="24" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A24" s="11" t="s">
+      <c r="AE23" s="16" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="24" spans="1:31">
+      <c r="A24" s="12" t="s">
         <v>173</v>
       </c>
-      <c r="B24" s="14" t="s">
-        <v>327</v>
-      </c>
-      <c r="C24" s="16" t="s">
-        <v>319</v>
-      </c>
-      <c r="D24" s="16" t="s">
-        <v>320</v>
-      </c>
-      <c r="E24" s="16" t="s">
-        <v>321</v>
-      </c>
-      <c r="F24" s="15" t="s">
-        <v>322</v>
-      </c>
-      <c r="G24" s="16" t="s">
-        <v>319</v>
-      </c>
-      <c r="H24" s="15" t="s">
-        <v>298</v>
-      </c>
-      <c r="I24" s="15" t="s">
-        <v>323</v>
-      </c>
-      <c r="J24" s="16" t="s">
-        <v>324</v>
-      </c>
-      <c r="K24" s="15" t="s">
-        <v>322</v>
-      </c>
-      <c r="L24" s="15" t="s">
-        <v>322</v>
-      </c>
-      <c r="N24" s="16" t="s">
-        <v>325</v>
-      </c>
-      <c r="O24" s="16" t="s">
-        <v>325</v>
-      </c>
-      <c r="P24" s="16" t="s">
-        <v>325</v>
-      </c>
-      <c r="Q24" s="15" t="s">
-        <v>326</v>
-      </c>
-      <c r="S24" s="15" t="s">
-        <v>298</v>
-      </c>
-      <c r="T24" s="16" t="s">
-        <v>300</v>
-      </c>
-      <c r="U24" s="16" t="s">
-        <v>335</v>
-      </c>
-      <c r="V24" s="16" t="s">
-        <v>301</v>
-      </c>
-      <c r="W24" s="15" t="s">
-        <v>336</v>
-      </c>
-      <c r="X24" s="15" t="s">
-        <v>302</v>
-      </c>
-      <c r="Y24" s="15" t="s">
-        <v>303</v>
-      </c>
-      <c r="Z24" s="15" t="s">
-        <v>304</v>
-      </c>
-      <c r="AA24" s="16" t="s">
-        <v>305</v>
-      </c>
-      <c r="AB24" s="15" t="s">
-        <v>303</v>
-      </c>
-      <c r="AD24" s="16" t="s">
-        <v>337</v>
-      </c>
-      <c r="AE24" s="16" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="25" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A25" s="11" t="s">
-        <v>214</v>
-      </c>
-      <c r="B25" s="14" t="s">
-        <v>357</v>
-      </c>
-      <c r="C25" s="15" t="s">
-        <v>338</v>
-      </c>
-      <c r="D25" s="15" t="s">
-        <v>361</v>
-      </c>
-      <c r="E25" s="15" t="s">
-        <v>342</v>
-      </c>
-      <c r="F25" s="15" t="s">
-        <v>362</v>
-      </c>
-      <c r="G25" s="16" t="s">
-        <v>363</v>
-      </c>
-      <c r="H25" s="15" t="s">
-        <v>364</v>
-      </c>
-      <c r="I25" s="16" t="s">
-        <v>347</v>
-      </c>
-      <c r="J25" s="15" t="s">
-        <v>341</v>
-      </c>
-      <c r="K25" s="15" t="s">
-        <v>362</v>
-      </c>
-      <c r="L25" s="16" t="s">
-        <v>365</v>
-      </c>
-      <c r="N25" s="15" t="s">
-        <v>366</v>
-      </c>
-      <c r="O25" s="15" t="s">
-        <v>366</v>
-      </c>
-      <c r="P25" s="15" t="s">
-        <v>366</v>
-      </c>
-      <c r="Q25" s="15" t="s">
-        <v>367</v>
-      </c>
-      <c r="S25" s="15" t="s">
-        <v>339</v>
-      </c>
-      <c r="T25" s="15" t="s">
-        <v>340</v>
-      </c>
-      <c r="U25" s="17"/>
-      <c r="V25" s="15" t="s">
-        <v>341</v>
-      </c>
-      <c r="W25" s="15" t="s">
-        <v>342</v>
-      </c>
-      <c r="X25" s="15" t="s">
-        <v>343</v>
-      </c>
-      <c r="Y25" s="15" t="s">
-        <v>344</v>
-      </c>
-      <c r="Z25" s="15" t="s">
-        <v>338</v>
-      </c>
-      <c r="AA25" s="15" t="s">
-        <v>345</v>
-      </c>
-      <c r="AB25" s="15" t="s">
-        <v>346</v>
-      </c>
-      <c r="AD25" s="15" t="s">
-        <v>339</v>
-      </c>
-      <c r="AE25" s="15" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="26" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A26" s="11" t="s">
+      <c r="B24" s="15" t="s">
         <v>215</v>
       </c>
-      <c r="B26" s="14" t="s">
-        <v>402</v>
-      </c>
-      <c r="C26" s="16" t="s">
-        <v>392</v>
-      </c>
-      <c r="D26" s="16" t="s">
-        <v>393</v>
-      </c>
-      <c r="E26" s="16" t="s">
-        <v>376</v>
-      </c>
-      <c r="F26" s="16" t="s">
-        <v>372</v>
-      </c>
-      <c r="G26" s="16" t="s">
-        <v>394</v>
-      </c>
-      <c r="H26" s="16" t="s">
-        <v>395</v>
-      </c>
-      <c r="I26" s="15" t="s">
-        <v>396</v>
-      </c>
-      <c r="J26" s="15" t="s">
-        <v>381</v>
-      </c>
-      <c r="K26" s="16" t="s">
-        <v>392</v>
-      </c>
-      <c r="L26" s="16" t="s">
-        <v>392</v>
-      </c>
-      <c r="N26" s="16" t="s">
-        <v>397</v>
-      </c>
-      <c r="O26" s="16" t="s">
-        <v>397</v>
-      </c>
-      <c r="P26" s="16" t="s">
-        <v>398</v>
-      </c>
-      <c r="Q26" s="16" t="s">
-        <v>399</v>
-      </c>
-      <c r="S26" s="16" t="s">
-        <v>368</v>
-      </c>
-      <c r="T26" s="15" t="s">
-        <v>369</v>
-      </c>
-      <c r="U26" s="26"/>
-      <c r="V26" s="15" t="s">
-        <v>370</v>
-      </c>
-      <c r="W26" s="15" t="s">
-        <v>371</v>
-      </c>
-      <c r="X26" s="16" t="s">
-        <v>372</v>
-      </c>
-      <c r="Y26" s="16" t="s">
-        <v>373</v>
-      </c>
-      <c r="Z26" s="15" t="s">
-        <v>374</v>
-      </c>
-      <c r="AA26" s="15" t="s">
-        <v>375</v>
-      </c>
-      <c r="AB26" s="16" t="s">
-        <v>376</v>
-      </c>
-      <c r="AD26" s="16" t="s">
-        <v>377</v>
-      </c>
-      <c r="AE26" s="16" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="27" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A27" s="11" t="s">
+      <c r="C24" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="D24" s="17" t="s">
         <v>216</v>
       </c>
-      <c r="C27" s="14" t="s">
-        <v>429</v>
-      </c>
-      <c r="D27" s="14" t="s">
-        <v>430</v>
-      </c>
-      <c r="E27" s="14" t="s">
-        <v>411</v>
-      </c>
-      <c r="F27" s="14" t="s">
-        <v>431</v>
-      </c>
-      <c r="G27" s="14" t="s">
-        <v>414</v>
-      </c>
-      <c r="H27" s="14" t="s">
-        <v>432</v>
-      </c>
-      <c r="I27" s="14" t="s">
-        <v>432</v>
-      </c>
-      <c r="J27" s="14" t="s">
-        <v>433</v>
-      </c>
-      <c r="K27" s="14" t="s">
-        <v>431</v>
-      </c>
-      <c r="L27" s="14" t="s">
-        <v>434</v>
-      </c>
-      <c r="N27" s="14" t="s">
-        <v>435</v>
-      </c>
-      <c r="O27" s="14" t="s">
-        <v>435</v>
-      </c>
-      <c r="P27" s="14" t="s">
-        <v>436</v>
-      </c>
-      <c r="Q27" s="14" t="s">
-        <v>432</v>
-      </c>
-      <c r="S27" s="14" t="s">
-        <v>407</v>
-      </c>
-      <c r="T27" s="14" t="s">
-        <v>408</v>
-      </c>
-      <c r="U27" s="14" t="s">
-        <v>409</v>
-      </c>
-      <c r="V27" s="14" t="s">
-        <v>410</v>
-      </c>
-      <c r="W27" s="14" t="s">
-        <v>411</v>
-      </c>
-      <c r="X27" s="14" t="s">
-        <v>412</v>
-      </c>
-      <c r="Y27" s="14" t="s">
-        <v>413</v>
-      </c>
-      <c r="Z27" s="11" t="s">
+      <c r="E24" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="F24" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="G24" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="H24" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="I24" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="J24" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="K24" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="L24" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="N24" s="17" t="s">
+        <v>217</v>
+      </c>
+      <c r="O24" s="17" t="s">
+        <v>217</v>
+      </c>
+      <c r="P24" s="17" t="s">
+        <v>217</v>
+      </c>
+      <c r="Q24" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="S24" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="T24" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="U24" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="V24" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="W24" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="X24" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y24" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="Z24" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="AA24" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="AB24" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="AD24" s="17" t="s">
+        <v>218</v>
+      </c>
+      <c r="AE24" s="17" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="25" spans="1:31">
+      <c r="A25" s="12" t="s">
+        <v>219</v>
+      </c>
+      <c r="B25" s="15" t="s">
+        <v>220</v>
+      </c>
+      <c r="C25" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="D25" s="16" t="s">
+        <v>221</v>
+      </c>
+      <c r="E25" s="16" t="s">
+        <v>123</v>
+      </c>
+      <c r="F25" s="16" t="s">
+        <v>197</v>
+      </c>
+      <c r="G25" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="H25" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="I25" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="J25" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="K25" s="16" t="s">
+        <v>197</v>
+      </c>
+      <c r="L25" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="N25" s="16" t="s">
+        <v>222</v>
+      </c>
+      <c r="O25" s="16" t="s">
+        <v>222</v>
+      </c>
+      <c r="P25" s="16" t="s">
+        <v>222</v>
+      </c>
+      <c r="Q25" s="16" t="s">
+        <v>223</v>
+      </c>
+      <c r="S25" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="T25" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="U25" s="18"/>
+      <c r="V25" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="W25" s="16" t="s">
+        <v>123</v>
+      </c>
+      <c r="X25" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y25" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="Z25" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="AA25" s="16" t="s">
+        <v>159</v>
+      </c>
+      <c r="AB25" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="AD25" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE25" s="16" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="26" spans="1:31">
+      <c r="A26" s="12" t="s">
+        <v>224</v>
+      </c>
+      <c r="B26" s="15" t="s">
+        <v>225</v>
+      </c>
+      <c r="C26" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="D26" s="17" t="s">
+        <v>226</v>
+      </c>
+      <c r="E26" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="F26" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="G26" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="H26" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="I26" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="J26" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="K26" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="L26" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="N26" s="17" t="s">
+        <v>227</v>
+      </c>
+      <c r="O26" s="17" t="s">
+        <v>227</v>
+      </c>
+      <c r="P26" s="17" t="s">
+        <v>217</v>
+      </c>
+      <c r="Q26" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="S26" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="T26" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="U26" s="25"/>
+      <c r="V26" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="W26" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="X26" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y26" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="Z26" s="16" t="s">
+        <v>154</v>
+      </c>
+      <c r="AA26" s="16" t="s">
+        <v>123</v>
+      </c>
+      <c r="AB26" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="AD26" s="17" t="s">
+        <v>228</v>
+      </c>
+      <c r="AE26" s="17" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="27" spans="1:31">
+      <c r="A27" s="12" t="s">
+        <v>229</v>
+      </c>
+      <c r="B27" s="12" t="s">
+        <v>230</v>
+      </c>
+      <c r="C27" s="16" t="s">
+        <v>143</v>
+      </c>
+      <c r="D27" s="17" t="s">
+        <v>231</v>
+      </c>
+      <c r="E27" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="F27" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="G27" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="H27" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="I27" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="J27" s="17" t="s">
+        <v>131</v>
+      </c>
+      <c r="K27" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="L27" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="N27" s="17" t="s">
+        <v>232</v>
+      </c>
+      <c r="O27" s="17" t="s">
+        <v>232</v>
+      </c>
+      <c r="P27" s="17" t="s">
+        <v>233</v>
+      </c>
+      <c r="Q27" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="S27" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="T27" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="U27" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="V27" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="W27" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="X27" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y27" s="17" t="s">
+        <v>106</v>
+      </c>
+      <c r="Z27" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="AA27" s="14" t="s">
-        <v>414</v>
-      </c>
-      <c r="AB27" s="14" t="s">
-        <v>415</v>
-      </c>
-      <c r="AD27" s="14" t="s">
-        <v>428</v>
-      </c>
-      <c r="AE27" s="14" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="28" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A28" s="11" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="29" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A29" s="11" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="30" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A30" s="11" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="31" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A31" s="11" t="s">
+      <c r="AA27" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="AB27" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD27" s="17" t="s">
+        <v>234</v>
+      </c>
+      <c r="AE27" s="17" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" s="12" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" s="12" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" s="12" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" s="12" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="32" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A32" s="11" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" s="11" t="s">
-        <v>221</v>
+    <row r="32" spans="1:1">
+      <c r="A32" s="12" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" s="12" t="s">
+        <v>239</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:AU28"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21:T21"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AA21" sqref="E21:P21 R21:V21 X21 Z21 AA21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.6640625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="4.66666666666667" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="24" width="6.77734375" style="1" customWidth="1"/>
-    <col min="25" max="25" width="4.6640625" style="1" customWidth="1"/>
+    <col min="1" max="24" width="6.775" style="1" customWidth="1"/>
+    <col min="25" max="25" width="4.66666666666667" style="1" customWidth="1"/>
     <col min="26" max="26" width="14" style="1" customWidth="1"/>
-    <col min="27" max="27" width="9.6640625" style="1" customWidth="1"/>
-    <col min="28" max="16384" width="4.6640625" style="1"/>
+    <col min="27" max="27" width="9.66666666666667" style="1" customWidth="1"/>
+    <col min="28" max="16384" width="4.66666666666667" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:47" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" ht="45" customHeight="1" spans="1:28">
       <c r="A1" s="1" t="s">
-        <v>222</v>
+        <v>240</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>223</v>
+        <v>241</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>224</v>
+        <v>242</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>225</v>
+        <v>243</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>226</v>
+        <v>244</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>227</v>
+        <v>245</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>228</v>
+        <v>246</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>229</v>
+        <v>247</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>230</v>
+        <v>248</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>231</v>
+        <v>249</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>232</v>
+        <v>250</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>233</v>
+        <v>251</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>234</v>
+        <v>252</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>235</v>
+        <v>253</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>236</v>
+        <v>254</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>237</v>
+        <v>255</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>238</v>
+        <v>256</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>239</v>
+        <v>257</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>240</v>
+        <v>258</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>241</v>
+        <v>259</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>242</v>
+        <v>260</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>243</v>
+        <v>261</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>244</v>
+        <v>262</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="Y1" s="9"/>
+        <v>263</v>
+      </c>
+      <c r="Y1" s="10"/>
       <c r="Z1" s="1" t="s">
-        <v>246</v>
+        <v>264</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>247</v>
+        <v>265</v>
       </c>
       <c r="AB1" s="2" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="2" spans="1:47" x14ac:dyDescent="0.25">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="2" spans="1:47">
       <c r="A2" s="1" t="s">
         <v>114</v>
       </c>
@@ -4312,100 +4406,100 @@
         <v>115</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="D2" s="6" t="s">
+        <v>267</v>
+      </c>
+      <c r="D2" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="F2" s="6" t="s">
-        <v>250</v>
-      </c>
-      <c r="G2" s="6" t="s">
+      <c r="F2" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="G2" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="I2" s="8" t="s">
-        <v>249</v>
-      </c>
-      <c r="J2" s="8" t="s">
-        <v>249</v>
-      </c>
-      <c r="K2" s="6" t="s">
+      <c r="I2" s="9" t="s">
+        <v>267</v>
+      </c>
+      <c r="J2" s="9" t="s">
+        <v>267</v>
+      </c>
+      <c r="K2" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="L2" s="6" t="s">
-        <v>251</v>
-      </c>
-      <c r="M2" s="6" t="s">
+      <c r="L2" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="M2" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="N2" s="6" t="s">
+      <c r="N2" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="O2" s="6" t="s">
+      <c r="O2" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="P2" s="6" t="s">
-        <v>252</v>
-      </c>
-      <c r="Q2" s="6" t="s">
-        <v>253</v>
-      </c>
-      <c r="R2" s="6" t="s">
-        <v>251</v>
-      </c>
-      <c r="S2" s="8" t="s">
+      <c r="P2" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="Q2" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="R2" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="S2" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="T2" s="6" t="s">
-        <v>254</v>
-      </c>
-      <c r="U2" s="6" t="s">
-        <v>255</v>
-      </c>
-      <c r="V2" s="6" t="s">
-        <v>255</v>
-      </c>
-      <c r="W2" s="6" t="s">
+      <c r="T2" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="U2" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="V2" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="W2" s="7" t="s">
         <v>92</v>
       </c>
       <c r="X2" s="4" t="s">
-        <v>256</v>
+        <v>274</v>
       </c>
       <c r="Y2" s="3"/>
-      <c r="Z2" s="8" t="s">
-        <v>257</v>
-      </c>
-      <c r="AA2" s="8" t="s">
+      <c r="Z2" s="9" t="s">
+        <v>275</v>
+      </c>
+      <c r="AA2" s="9" t="s">
         <v>153</v>
       </c>
-      <c r="AB2" s="10"/>
-      <c r="AC2" s="10"/>
-      <c r="AD2" s="10"/>
-      <c r="AE2" s="10"/>
-      <c r="AF2" s="10"/>
-      <c r="AG2" s="10"/>
-      <c r="AH2" s="10"/>
-      <c r="AI2" s="10"/>
-      <c r="AJ2" s="10"/>
-      <c r="AK2" s="10"/>
-      <c r="AL2" s="10"/>
-      <c r="AM2" s="10"/>
-      <c r="AN2" s="10"/>
-      <c r="AO2" s="10"/>
-      <c r="AP2" s="10"/>
-      <c r="AQ2" s="10"/>
-      <c r="AR2" s="10"/>
-      <c r="AS2" s="10"/>
-      <c r="AT2" s="10"/>
-      <c r="AU2" s="10"/>
-    </row>
-    <row r="3" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AB2" s="11"/>
+      <c r="AC2" s="11"/>
+      <c r="AD2" s="11"/>
+      <c r="AE2" s="11"/>
+      <c r="AF2" s="11"/>
+      <c r="AG2" s="11"/>
+      <c r="AH2" s="11"/>
+      <c r="AI2" s="11"/>
+      <c r="AJ2" s="11"/>
+      <c r="AK2" s="11"/>
+      <c r="AL2" s="11"/>
+      <c r="AM2" s="11"/>
+      <c r="AN2" s="11"/>
+      <c r="AO2" s="11"/>
+      <c r="AP2" s="11"/>
+      <c r="AQ2" s="11"/>
+      <c r="AR2" s="11"/>
+      <c r="AS2" s="11"/>
+      <c r="AT2" s="11"/>
+      <c r="AU2" s="11"/>
+    </row>
+    <row r="3" spans="1:27">
       <c r="A3" s="1" t="s">
         <v>120</v>
       </c>
@@ -4413,77 +4507,77 @@
         <v>121</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="D3" s="6" t="s">
+        <v>274</v>
+      </c>
+      <c r="D3" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="F3" s="6" t="s">
-        <v>249</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>252</v>
-      </c>
-      <c r="H3" s="6" t="s">
+      <c r="F3" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="H3" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="I3" s="6" t="s">
-        <v>249</v>
-      </c>
-      <c r="J3" s="6" t="s">
-        <v>258</v>
-      </c>
-      <c r="L3" s="6" t="s">
+      <c r="I3" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="L3" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="M3" s="6" t="s">
-        <v>259</v>
-      </c>
-      <c r="N3" s="6" t="s">
+      <c r="M3" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="N3" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="O3" s="6" t="s">
+      <c r="O3" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="P3" s="6" t="s">
-        <v>252</v>
-      </c>
-      <c r="Q3" s="6" t="s">
+      <c r="P3" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="Q3" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="R3" s="6" t="s">
-        <v>249</v>
-      </c>
-      <c r="S3" s="6" t="s">
+      <c r="R3" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="S3" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="T3" s="6" t="s">
+      <c r="T3" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="U3" s="8" t="s">
-        <v>256</v>
-      </c>
-      <c r="V3" s="6" t="s">
-        <v>255</v>
-      </c>
-      <c r="W3" s="8" t="s">
+      <c r="U3" s="9" t="s">
+        <v>274</v>
+      </c>
+      <c r="V3" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="W3" s="9" t="s">
         <v>118</v>
       </c>
       <c r="X3" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="Y3" s="9"/>
-      <c r="Z3" s="6" t="s">
-        <v>260</v>
-      </c>
-      <c r="AA3" s="6" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="4" spans="1:47" x14ac:dyDescent="0.25">
+        <v>273</v>
+      </c>
+      <c r="Y3" s="10"/>
+      <c r="Z3" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="AA3" s="7" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27">
       <c r="A4" s="1" t="s">
         <v>132</v>
       </c>
@@ -4491,7 +4585,7 @@
         <v>133</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>256</v>
+        <v>274</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>69</v>
@@ -4500,25 +4594,25 @@
         <v>74</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>262</v>
+        <v>280</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>255</v>
+        <v>273</v>
       </c>
       <c r="H4" s="4" t="s">
         <v>80</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>253</v>
+        <v>271</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>250</v>
+        <v>268</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>249</v>
+        <v>267</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>250</v>
+        <v>268</v>
       </c>
       <c r="M4" s="4" t="s">
         <v>87</v>
@@ -4530,13 +4624,13 @@
         <v>131</v>
       </c>
       <c r="P4" s="4" t="s">
-        <v>250</v>
+        <v>268</v>
       </c>
       <c r="Q4" s="5" t="s">
-        <v>256</v>
+        <v>274</v>
       </c>
       <c r="R4" s="4" t="s">
-        <v>255</v>
+        <v>273</v>
       </c>
       <c r="S4" s="4" t="s">
         <v>34</v>
@@ -4545,26 +4639,26 @@
         <v>197</v>
       </c>
       <c r="U4" s="4" t="s">
-        <v>249</v>
+        <v>267</v>
       </c>
       <c r="V4" s="4" t="s">
-        <v>262</v>
+        <v>280</v>
       </c>
       <c r="W4" s="4" t="s">
         <v>63</v>
       </c>
       <c r="X4" s="4" t="s">
-        <v>249</v>
+        <v>267</v>
       </c>
       <c r="Y4" s="3"/>
       <c r="Z4" s="4" t="s">
-        <v>263</v>
+        <v>281</v>
       </c>
       <c r="AA4" s="4" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="5" spans="1:47" x14ac:dyDescent="0.25">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27">
       <c r="A5" s="1" t="s">
         <v>141</v>
       </c>
@@ -4572,19 +4666,19 @@
         <v>142</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>255</v>
+        <v>273</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>61</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>264</v>
+        <v>223</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>256</v>
+        <v>274</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>249</v>
+        <v>267</v>
       </c>
       <c r="H5" s="4" t="s">
         <v>118</v>
@@ -4593,13 +4687,13 @@
         <v>160</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>262</v>
+        <v>280</v>
       </c>
       <c r="K5" s="4" t="s">
-        <v>251</v>
+        <v>269</v>
       </c>
       <c r="L5" s="4" t="s">
-        <v>251</v>
+        <v>269</v>
       </c>
       <c r="M5" s="4" t="s">
         <v>112</v>
@@ -4611,13 +4705,13 @@
         <v>80</v>
       </c>
       <c r="P5" s="4" t="s">
-        <v>252</v>
+        <v>270</v>
       </c>
       <c r="Q5" s="4" t="s">
-        <v>250</v>
+        <v>268</v>
       </c>
       <c r="R5" s="4" t="s">
-        <v>256</v>
+        <v>274</v>
       </c>
       <c r="S5" s="4" t="s">
         <v>42</v>
@@ -4626,10 +4720,10 @@
         <v>29</v>
       </c>
       <c r="U5" s="4" t="s">
-        <v>256</v>
+        <v>274</v>
       </c>
       <c r="V5" s="4" t="s">
-        <v>249</v>
+        <v>267</v>
       </c>
       <c r="W5" s="4" t="s">
         <v>93</v>
@@ -4639,13 +4733,13 @@
       </c>
       <c r="Y5" s="3"/>
       <c r="Z5" s="4" t="s">
-        <v>265</v>
+        <v>282</v>
       </c>
       <c r="AA5" s="4" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="6" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:27">
       <c r="A6" s="1" t="s">
         <v>149</v>
       </c>
@@ -4653,7 +4747,7 @@
         <v>150</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>249</v>
+        <v>267</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>83</v>
@@ -4662,10 +4756,10 @@
         <v>55</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>255</v>
+        <v>273</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>262</v>
+        <v>280</v>
       </c>
       <c r="H6" s="4" t="s">
         <v>78</v>
@@ -4674,31 +4768,31 @@
         <v>160</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>252</v>
+        <v>270</v>
       </c>
       <c r="K6" s="4" t="s">
-        <v>262</v>
+        <v>280</v>
       </c>
       <c r="L6" s="4" t="s">
-        <v>253</v>
+        <v>271</v>
       </c>
       <c r="M6" s="5" t="s">
         <v>111</v>
       </c>
       <c r="N6" s="5" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="O6" s="4" t="s">
         <v>123</v>
       </c>
       <c r="P6" s="5" t="s">
-        <v>249</v>
+        <v>267</v>
       </c>
       <c r="Q6" s="4" t="s">
-        <v>250</v>
+        <v>268</v>
       </c>
       <c r="R6" s="4" t="s">
-        <v>256</v>
+        <v>274</v>
       </c>
       <c r="S6" s="4" t="s">
         <v>85</v>
@@ -4707,26 +4801,26 @@
         <v>55</v>
       </c>
       <c r="U6" s="4" t="s">
-        <v>256</v>
+        <v>274</v>
       </c>
       <c r="V6" s="4" t="s">
-        <v>262</v>
+        <v>280</v>
       </c>
       <c r="W6" s="4" t="s">
         <v>54</v>
       </c>
       <c r="X6" s="4" t="s">
-        <v>256</v>
-      </c>
-      <c r="Y6" s="9"/>
+        <v>274</v>
+      </c>
+      <c r="Y6" s="10"/>
       <c r="Z6" s="5" t="s">
-        <v>266</v>
+        <v>283</v>
       </c>
       <c r="AA6" s="5" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="7" spans="1:47" x14ac:dyDescent="0.25">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27">
       <c r="A7" s="1" t="s">
         <v>156</v>
       </c>
@@ -4734,7 +4828,7 @@
         <v>157</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>252</v>
+        <v>270</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>107</v>
@@ -4743,25 +4837,25 @@
         <v>45</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>249</v>
+        <v>267</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>252</v>
+        <v>270</v>
       </c>
       <c r="H7" s="5" t="s">
         <v>59</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>249</v>
+        <v>267</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>249</v>
+        <v>267</v>
       </c>
       <c r="K7" s="4" t="s">
         <v>160</v>
       </c>
       <c r="L7" s="4" t="s">
-        <v>251</v>
+        <v>269</v>
       </c>
       <c r="M7" s="4" t="s">
         <v>111</v>
@@ -4773,13 +4867,13 @@
         <v>68</v>
       </c>
       <c r="P7" s="2" t="s">
-        <v>255</v>
+        <v>273</v>
       </c>
       <c r="Q7" s="4" t="s">
-        <v>250</v>
+        <v>268</v>
       </c>
       <c r="R7" s="4" t="s">
-        <v>256</v>
+        <v>274</v>
       </c>
       <c r="S7" s="4" t="s">
         <v>70</v>
@@ -4788,26 +4882,26 @@
         <v>174</v>
       </c>
       <c r="U7" s="4" t="s">
-        <v>249</v>
+        <v>267</v>
       </c>
       <c r="V7" s="4" t="s">
-        <v>255</v>
+        <v>273</v>
       </c>
       <c r="W7" s="4" t="s">
         <v>54</v>
       </c>
       <c r="X7" s="4" t="s">
-        <v>249</v>
-      </c>
-      <c r="Y7" s="9"/>
+        <v>267</v>
+      </c>
+      <c r="Y7" s="10"/>
       <c r="Z7" s="4" t="s">
-        <v>267</v>
+        <v>284</v>
       </c>
       <c r="AA7" s="4" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="8" spans="1:47" x14ac:dyDescent="0.25">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27">
       <c r="A8" s="1" t="s">
         <v>161</v>
       </c>
@@ -4815,34 +4909,34 @@
         <v>162</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>251</v>
+        <v>269</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>107</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>269</v>
+        <v>286</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>252</v>
+        <v>270</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>249</v>
+        <v>267</v>
       </c>
       <c r="H8" s="4" t="s">
         <v>123</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>255</v>
+        <v>273</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>258</v>
+        <v>276</v>
       </c>
       <c r="K8" s="4" t="s">
-        <v>255</v>
+        <v>273</v>
       </c>
       <c r="L8" s="5" t="s">
-        <v>251</v>
+        <v>269</v>
       </c>
       <c r="M8" s="4" t="s">
         <v>154</v>
@@ -4854,13 +4948,13 @@
         <v>98</v>
       </c>
       <c r="P8" s="4" t="s">
-        <v>252</v>
+        <v>270</v>
       </c>
       <c r="Q8" s="5" t="s">
-        <v>251</v>
+        <v>269</v>
       </c>
       <c r="R8" s="4" t="s">
-        <v>250</v>
+        <v>268</v>
       </c>
       <c r="S8" s="4" t="s">
         <v>70</v>
@@ -4869,26 +4963,26 @@
         <v>139</v>
       </c>
       <c r="U8" s="4" t="s">
-        <v>249</v>
+        <v>267</v>
       </c>
       <c r="V8" s="4" t="s">
-        <v>256</v>
+        <v>274</v>
       </c>
       <c r="W8" s="4" t="s">
         <v>40</v>
       </c>
       <c r="X8" s="4" t="s">
-        <v>249</v>
-      </c>
-      <c r="Y8" s="9"/>
+        <v>267</v>
+      </c>
+      <c r="Y8" s="10"/>
       <c r="Z8" s="5" t="s">
-        <v>270</v>
+        <v>287</v>
       </c>
       <c r="AA8" s="5" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="9" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:27">
       <c r="A9" s="1" t="s">
         <v>169</v>
       </c>
@@ -4896,7 +4990,7 @@
         <v>170</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>258</v>
+        <v>276</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>74</v>
@@ -4905,25 +4999,25 @@
         <v>69</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>249</v>
+        <v>267</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>251</v>
+        <v>269</v>
       </c>
       <c r="H9" s="4" t="s">
         <v>123</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>249</v>
+        <v>267</v>
       </c>
       <c r="J9" s="4" t="s">
-        <v>251</v>
+        <v>269</v>
       </c>
       <c r="K9" s="4" t="s">
-        <v>250</v>
+        <v>268</v>
       </c>
       <c r="L9" s="4" t="s">
-        <v>255</v>
+        <v>273</v>
       </c>
       <c r="M9" s="5" t="s">
         <v>39</v>
@@ -4935,13 +5029,13 @@
         <v>90</v>
       </c>
       <c r="P9" s="4" t="s">
-        <v>250</v>
+        <v>268</v>
       </c>
       <c r="Q9" s="5" t="s">
-        <v>258</v>
+        <v>276</v>
       </c>
       <c r="R9" s="4" t="s">
-        <v>249</v>
+        <v>267</v>
       </c>
       <c r="S9" s="4" t="s">
         <v>70</v>
@@ -4950,26 +5044,26 @@
         <v>54</v>
       </c>
       <c r="U9" s="5" t="s">
-        <v>258</v>
+        <v>276</v>
       </c>
       <c r="V9" s="4" t="s">
-        <v>253</v>
+        <v>271</v>
       </c>
       <c r="W9" s="4" t="s">
         <v>98</v>
       </c>
       <c r="X9" s="4" t="s">
-        <v>249</v>
-      </c>
-      <c r="Y9" s="9"/>
+        <v>267</v>
+      </c>
+      <c r="Y9" s="10"/>
       <c r="Z9" s="5" t="s">
-        <v>271</v>
+        <v>288</v>
       </c>
       <c r="AA9" s="5" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="10" spans="1:47" x14ac:dyDescent="0.25">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27">
       <c r="A10" s="1" t="s">
         <v>57</v>
       </c>
@@ -4977,7 +5071,7 @@
         <v>176</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>258</v>
+        <v>276</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>85</v>
@@ -4986,25 +5080,25 @@
         <v>118</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>249</v>
+        <v>267</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>249</v>
+        <v>267</v>
       </c>
       <c r="H10" s="4" t="s">
         <v>118</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>253</v>
+        <v>271</v>
       </c>
       <c r="J10" s="4" t="s">
-        <v>249</v>
+        <v>267</v>
       </c>
       <c r="K10" s="4" t="s">
-        <v>253</v>
+        <v>271</v>
       </c>
       <c r="L10" s="4" t="s">
-        <v>249</v>
+        <v>267</v>
       </c>
       <c r="M10" s="4" t="s">
         <v>129</v>
@@ -5016,12 +5110,12 @@
         <v>42</v>
       </c>
       <c r="P10" s="5" t="s">
-        <v>258</v>
+        <v>276</v>
       </c>
       <c r="Q10" s="4" t="s">
-        <v>253</v>
-      </c>
-      <c r="R10" s="7"/>
+        <v>271</v>
+      </c>
+      <c r="R10" s="8"/>
       <c r="S10" s="5" t="s">
         <v>30</v>
       </c>
@@ -5029,10 +5123,10 @@
         <v>118</v>
       </c>
       <c r="U10" s="4" t="s">
-        <v>251</v>
+        <v>269</v>
       </c>
       <c r="V10" s="4" t="s">
-        <v>251</v>
+        <v>269</v>
       </c>
       <c r="W10" s="4" t="s">
         <v>78</v>
@@ -5040,15 +5134,15 @@
       <c r="X10" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="Y10" s="9"/>
+      <c r="Y10" s="10"/>
       <c r="Z10" s="4" t="s">
-        <v>272</v>
+        <v>289</v>
       </c>
       <c r="AA10" s="5" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="11" spans="1:47" x14ac:dyDescent="0.25">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26">
       <c r="A11" s="1" t="s">
         <v>181</v>
       </c>
@@ -5056,7 +5150,7 @@
         <v>182</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>250</v>
+        <v>268</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>62</v>
@@ -5065,37 +5159,37 @@
         <v>44</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>258</v>
+        <v>276</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>256</v>
+        <v>274</v>
       </c>
       <c r="H11" s="4" t="s">
         <v>118</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>256</v>
+        <v>274</v>
       </c>
       <c r="J11" s="4" t="s">
-        <v>253</v>
+        <v>271</v>
       </c>
       <c r="K11" s="4" t="s">
-        <v>256</v>
+        <v>274</v>
       </c>
       <c r="L11" s="4" t="s">
-        <v>249</v>
-      </c>
-      <c r="M11" s="7"/>
-      <c r="N11" s="7"/>
+        <v>267</v>
+      </c>
+      <c r="M11" s="8"/>
+      <c r="N11" s="8"/>
       <c r="O11" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="P11" s="7"/>
+      <c r="P11" s="8"/>
       <c r="Q11" s="4" t="s">
-        <v>262</v>
+        <v>280</v>
       </c>
       <c r="R11" s="4" t="s">
-        <v>255</v>
+        <v>273</v>
       </c>
       <c r="S11" s="4" t="s">
         <v>55</v>
@@ -5103,9 +5197,9 @@
       <c r="T11" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="U11" s="7"/>
+      <c r="U11" s="8"/>
       <c r="V11" s="4" t="s">
-        <v>251</v>
+        <v>269</v>
       </c>
       <c r="W11" s="5" t="s">
         <v>60</v>
@@ -5114,10 +5208,10 @@
         <v>160</v>
       </c>
       <c r="Z11" s="4" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="12" spans="1:47" x14ac:dyDescent="0.25">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26">
       <c r="A12" s="1" t="s">
         <v>183</v>
       </c>
@@ -5125,7 +5219,7 @@
         <v>184</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>251</v>
+        <v>269</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>127</v>
@@ -5134,27 +5228,27 @@
         <v>32</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>250</v>
+        <v>268</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>262</v>
+        <v>280</v>
       </c>
       <c r="H12" s="4" t="s">
         <v>107</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>251</v>
+        <v>269</v>
       </c>
       <c r="J12" s="4" t="s">
-        <v>253</v>
+        <v>271</v>
       </c>
       <c r="K12" s="4" t="s">
-        <v>252</v>
+        <v>270</v>
       </c>
       <c r="L12" s="4" t="s">
-        <v>252</v>
-      </c>
-      <c r="M12" s="7"/>
+        <v>270</v>
+      </c>
+      <c r="M12" s="8"/>
       <c r="N12" s="4" t="s">
         <v>123</v>
       </c>
@@ -5162,13 +5256,13 @@
         <v>68</v>
       </c>
       <c r="P12" s="4" t="s">
-        <v>252</v>
+        <v>270</v>
       </c>
       <c r="Q12" s="4" t="s">
-        <v>253</v>
+        <v>271</v>
       </c>
       <c r="R12" s="4" t="s">
-        <v>252</v>
+        <v>270</v>
       </c>
       <c r="S12" s="4" t="s">
         <v>69</v>
@@ -5176,7 +5270,7 @@
       <c r="T12" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="U12" s="7"/>
+      <c r="U12" s="8"/>
       <c r="V12" s="4" t="s">
         <v>160</v>
       </c>
@@ -5187,10 +5281,10 @@
         <v>160</v>
       </c>
       <c r="Z12" s="4" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="13" spans="1:47" x14ac:dyDescent="0.25">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26">
       <c r="A13" s="1" t="s">
         <v>185</v>
       </c>
@@ -5198,7 +5292,7 @@
         <v>186</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>262</v>
+        <v>280</v>
       </c>
       <c r="D13" s="5" t="s">
         <v>70</v>
@@ -5207,23 +5301,23 @@
         <v>200</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>251</v>
-      </c>
-      <c r="G13" s="7"/>
+        <v>269</v>
+      </c>
+      <c r="G13" s="8"/>
       <c r="H13" s="4" t="s">
         <v>107</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>251</v>
+        <v>269</v>
       </c>
       <c r="J13" s="4" t="s">
-        <v>251</v>
+        <v>269</v>
       </c>
       <c r="K13" s="4" t="s">
         <v>160</v>
       </c>
       <c r="L13" s="4" t="s">
-        <v>252</v>
+        <v>270</v>
       </c>
       <c r="M13" s="4" t="s">
         <v>69</v>
@@ -5235,10 +5329,10 @@
         <v>29</v>
       </c>
       <c r="P13" s="4" t="s">
-        <v>251</v>
+        <v>269</v>
       </c>
       <c r="Q13" s="4" t="s">
-        <v>258</v>
+        <v>276</v>
       </c>
       <c r="R13" s="4" t="s">
         <v>160</v>
@@ -5250,22 +5344,22 @@
         <v>78</v>
       </c>
       <c r="U13" s="4" t="s">
-        <v>258</v>
+        <v>276</v>
       </c>
       <c r="V13" s="4" t="s">
-        <v>253</v>
+        <v>271</v>
       </c>
       <c r="W13" s="4" t="s">
         <v>78</v>
       </c>
       <c r="X13" s="4" t="s">
-        <v>249</v>
+        <v>267</v>
       </c>
       <c r="Z13" s="4" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="14" spans="1:47" x14ac:dyDescent="0.25">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26">
       <c r="A14" s="1" t="s">
         <v>189</v>
       </c>
@@ -5273,7 +5367,7 @@
         <v>190</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>249</v>
+        <v>267</v>
       </c>
       <c r="D14" s="5" t="s">
         <v>60</v>
@@ -5282,26 +5376,26 @@
         <v>78</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>249</v>
-      </c>
-      <c r="G14" s="7"/>
+        <v>267</v>
+      </c>
+      <c r="G14" s="8"/>
       <c r="H14" s="4" t="s">
         <v>89</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>256</v>
+        <v>274</v>
       </c>
       <c r="J14" s="4" t="s">
-        <v>252</v>
+        <v>270</v>
       </c>
       <c r="K14" s="4" t="s">
-        <v>258</v>
+        <v>276</v>
       </c>
       <c r="L14" s="4" t="s">
-        <v>258</v>
+        <v>276</v>
       </c>
       <c r="M14" s="4" t="s">
-        <v>276</v>
+        <v>293</v>
       </c>
       <c r="N14" s="4" t="s">
         <v>30</v>
@@ -5310,10 +5404,10 @@
         <v>50</v>
       </c>
       <c r="P14" s="4" t="s">
-        <v>252</v>
+        <v>270</v>
       </c>
       <c r="Q14" s="4" t="s">
-        <v>255</v>
+        <v>273</v>
       </c>
       <c r="R14" s="4" t="s">
         <v>160</v>
@@ -5325,22 +5419,22 @@
         <v>44</v>
       </c>
       <c r="U14" s="4" t="s">
-        <v>256</v>
+        <v>274</v>
       </c>
       <c r="V14" s="4" t="s">
-        <v>250</v>
+        <v>268</v>
       </c>
       <c r="W14" s="4" t="s">
         <v>45</v>
       </c>
       <c r="X14" s="4" t="s">
-        <v>253</v>
+        <v>271</v>
       </c>
       <c r="Z14" s="5" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="15" spans="1:47" x14ac:dyDescent="0.25">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27">
       <c r="A15" s="1" t="s">
         <v>194</v>
       </c>
@@ -5348,7 +5442,7 @@
         <v>195</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>249</v>
+        <v>267</v>
       </c>
       <c r="D15" s="5" t="s">
         <v>111</v>
@@ -5357,25 +5451,25 @@
         <v>93</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>249</v>
+        <v>267</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>256</v>
+        <v>274</v>
       </c>
       <c r="H15" s="4" t="s">
         <v>41</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>256</v>
+        <v>274</v>
       </c>
       <c r="J15" s="4" t="s">
-        <v>253</v>
+        <v>271</v>
       </c>
       <c r="K15" s="4" t="s">
-        <v>251</v>
+        <v>269</v>
       </c>
       <c r="L15" s="4" t="s">
-        <v>258</v>
+        <v>276</v>
       </c>
       <c r="M15" s="4" t="s">
         <v>107</v>
@@ -5387,40 +5481,40 @@
         <v>85</v>
       </c>
       <c r="P15" s="4" t="s">
-        <v>252</v>
+        <v>270</v>
       </c>
       <c r="Q15" s="4" t="s">
-        <v>258</v>
+        <v>276</v>
       </c>
       <c r="R15" s="4" t="s">
-        <v>256</v>
+        <v>274</v>
       </c>
       <c r="S15" s="5" t="s">
         <v>33</v>
       </c>
       <c r="T15" s="5" t="s">
-        <v>278</v>
+        <v>295</v>
       </c>
       <c r="U15" s="4" t="s">
-        <v>262</v>
+        <v>280</v>
       </c>
       <c r="V15" s="4" t="s">
-        <v>255</v>
+        <v>273</v>
       </c>
       <c r="W15" s="4" t="s">
         <v>32</v>
       </c>
       <c r="X15" s="4" t="s">
-        <v>256</v>
+        <v>274</v>
       </c>
       <c r="Z15" s="5" t="s">
-        <v>279</v>
+        <v>296</v>
       </c>
       <c r="AA15" s="5" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="16" spans="1:47" x14ac:dyDescent="0.25">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28">
       <c r="A16" s="1" t="s">
         <v>202</v>
       </c>
@@ -5428,7 +5522,7 @@
         <v>203</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>250</v>
+        <v>268</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>131</v>
@@ -5437,25 +5531,25 @@
         <v>70</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>249</v>
+        <v>267</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>262</v>
+        <v>280</v>
       </c>
       <c r="H16" s="4" t="s">
         <v>33</v>
       </c>
       <c r="I16" s="4" t="s">
-        <v>255</v>
+        <v>273</v>
       </c>
       <c r="J16" s="4" t="s">
         <v>160</v>
       </c>
       <c r="K16" s="4" t="s">
-        <v>256</v>
+        <v>274</v>
       </c>
       <c r="L16" s="5" t="s">
-        <v>250</v>
+        <v>268</v>
       </c>
       <c r="M16" s="4" t="s">
         <v>111</v>
@@ -5467,51 +5561,51 @@
         <v>30</v>
       </c>
       <c r="P16" s="4" t="s">
-        <v>252</v>
+        <v>270</v>
       </c>
       <c r="Q16" s="4" t="s">
         <v>160</v>
       </c>
       <c r="R16" s="4" t="s">
-        <v>249</v>
+        <v>267</v>
       </c>
       <c r="S16" s="4" t="s">
         <v>33</v>
       </c>
       <c r="T16" s="4" t="s">
-        <v>258</v>
+        <v>276</v>
       </c>
       <c r="U16" s="4" t="s">
-        <v>249</v>
+        <v>267</v>
       </c>
       <c r="V16" s="4" t="s">
-        <v>255</v>
+        <v>273</v>
       </c>
       <c r="W16" s="4" t="s">
         <v>50</v>
       </c>
       <c r="X16" s="4" t="s">
-        <v>258</v>
+        <v>276</v>
       </c>
       <c r="Z16" s="4" t="s">
-        <v>281</v>
+        <v>298</v>
       </c>
       <c r="AA16" s="4" t="s">
-        <v>282</v>
+        <v>299</v>
       </c>
       <c r="AB16" s="5" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="17" spans="1:28" x14ac:dyDescent="0.25">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="17" spans="1:27">
       <c r="A17" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="B17" s="28" t="s">
-        <v>296</v>
-      </c>
-      <c r="C17" s="28" t="s">
-        <v>297</v>
+      <c r="B17" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>274</v>
       </c>
       <c r="D17" s="4" t="s">
         <v>52</v>
@@ -5520,7 +5614,7 @@
         <v>55</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>250</v>
+        <v>268</v>
       </c>
       <c r="G17" s="4" t="s">
         <v>160</v>
@@ -5529,19 +5623,19 @@
         <v>118</v>
       </c>
       <c r="I17" s="4" t="s">
-        <v>250</v>
+        <v>268</v>
       </c>
       <c r="J17" s="5" t="s">
-        <v>256</v>
+        <v>274</v>
       </c>
       <c r="K17" s="4" t="s">
-        <v>255</v>
+        <v>273</v>
       </c>
       <c r="L17" s="4" t="s">
-        <v>252</v>
+        <v>270</v>
       </c>
       <c r="M17" s="4" t="s">
-        <v>283</v>
+        <v>300</v>
       </c>
       <c r="N17" s="4" t="s">
         <v>154</v>
@@ -5549,26 +5643,26 @@
       <c r="O17" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="P17" s="6" t="s">
-        <v>251</v>
+      <c r="P17" s="7" t="s">
+        <v>269</v>
       </c>
       <c r="Q17" s="5" t="s">
-        <v>256</v>
+        <v>274</v>
       </c>
       <c r="R17" s="4" t="s">
-        <v>253</v>
+        <v>271</v>
       </c>
       <c r="S17" s="4" t="s">
         <v>60</v>
       </c>
       <c r="T17" s="4" t="s">
-        <v>255</v>
+        <v>273</v>
       </c>
       <c r="U17" s="4" t="s">
-        <v>251</v>
-      </c>
-      <c r="V17" s="6" t="s">
-        <v>252</v>
+        <v>269</v>
+      </c>
+      <c r="V17" s="7" t="s">
+        <v>270</v>
       </c>
       <c r="W17" s="4" t="s">
         <v>83</v>
@@ -5576,433 +5670,440 @@
       <c r="X17" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="Z17" s="8" t="s">
-        <v>284</v>
+      <c r="Z17" s="9" t="s">
+        <v>301</v>
       </c>
       <c r="AA17" s="5" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="18" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:27">
       <c r="A18" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="B18" s="30" t="s">
-        <v>327</v>
-      </c>
-      <c r="C18" s="30" t="s">
-        <v>328</v>
+      <c r="B18" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>274</v>
       </c>
       <c r="D18" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="I18" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="J18" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="K18" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="L18" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="M18" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="N18" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="O18" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="P18" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="Q18" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="R18" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="S18" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="T18" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="U18" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="V18" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="W18" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="X18" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="Z18" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="AA18" s="5" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="19" spans="1:27">
+      <c r="A19" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="I19" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="J19" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="K19" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="L19" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="M19" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="N19" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="O19" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="P19" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="Q19" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="R19" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="S19" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="T19" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="U19" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="V19" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="W19" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="X19" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="Z19" s="5" t="s">
+        <v>304</v>
+      </c>
+      <c r="AA19" s="5" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="20" spans="1:28">
+      <c r="A20" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="H20" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="I20" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="J20" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="K20" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="L20" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="M20" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="N20" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="O20" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="P20" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="Q20" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="R20" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="S20" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="T20" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="U20" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="V20" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="W20" s="8"/>
+      <c r="X20" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="Z20" s="5" t="s">
+        <v>305</v>
+      </c>
+      <c r="AA20" s="5" t="s">
         <v>306</v>
       </c>
-      <c r="E18" s="4" t="s">
+      <c r="AB20" s="5" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="21" spans="1:27">
+      <c r="A21" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="H21" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="I21" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="J21" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="K21" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="L21" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="M21" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="N21" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="O21" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="P21" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="Q21" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="R21" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="S21" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="T21" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="U21" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="V21" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="W21" s="8"/>
+      <c r="X21" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="Z21" s="4" t="s">
         <v>307</v>
       </c>
-      <c r="F18" s="5" t="s">
+      <c r="AA21" s="4" t="s">
         <v>308</v>
       </c>
-      <c r="G18" s="4" t="s">
+    </row>
+    <row r="22" spans="1:27">
+      <c r="A22" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="K22" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="AA22" s="2" t="s">
         <v>309</v>
       </c>
-      <c r="H18" s="4" t="s">
-        <v>310</v>
-      </c>
-      <c r="I18" s="4" t="s">
-        <v>311</v>
-      </c>
-      <c r="J18" s="4" t="s">
-        <v>312</v>
-      </c>
-      <c r="K18" s="4" t="s">
-        <v>250</v>
-      </c>
-      <c r="L18" s="4" t="s">
-        <v>313</v>
-      </c>
-      <c r="M18" s="4" t="s">
-        <v>314</v>
-      </c>
-      <c r="N18" s="4" t="s">
-        <v>315</v>
-      </c>
-      <c r="O18" s="4" t="s">
-        <v>301</v>
-      </c>
-      <c r="P18" s="4" t="s">
-        <v>311</v>
-      </c>
-      <c r="Q18" s="4" t="s">
-        <v>316</v>
-      </c>
-      <c r="R18" s="4" t="s">
-        <v>316</v>
-      </c>
-      <c r="S18" s="4" t="s">
-        <v>301</v>
-      </c>
-      <c r="T18" s="4" t="s">
-        <v>317</v>
-      </c>
-      <c r="U18" s="4" t="s">
-        <v>318</v>
-      </c>
-      <c r="V18" s="4" t="s">
-        <v>329</v>
-      </c>
-      <c r="W18" s="5" t="s">
-        <v>330</v>
-      </c>
-      <c r="X18" s="4" t="s">
-        <v>311</v>
-      </c>
-      <c r="Z18" s="4" t="s">
-        <v>332</v>
-      </c>
-      <c r="AA18" s="5" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="19" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="B19" s="30" t="s">
-        <v>357</v>
-      </c>
-      <c r="C19" s="30" t="s">
-        <v>329</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>344</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>347</v>
-      </c>
-      <c r="F19" s="4" t="s">
-        <v>328</v>
-      </c>
-      <c r="G19" s="5" t="s">
-        <v>329</v>
-      </c>
-      <c r="H19" s="4" t="s">
-        <v>348</v>
-      </c>
-      <c r="I19" s="5" t="s">
-        <v>329</v>
-      </c>
-      <c r="J19" s="4" t="s">
-        <v>349</v>
-      </c>
-      <c r="K19" s="4" t="s">
-        <v>253</v>
-      </c>
-      <c r="L19" s="4" t="s">
-        <v>350</v>
-      </c>
-      <c r="M19" s="4" t="s">
-        <v>351</v>
-      </c>
-      <c r="N19" s="4" t="s">
-        <v>352</v>
-      </c>
-      <c r="O19" s="4" t="s">
-        <v>342</v>
-      </c>
-      <c r="P19" s="4" t="s">
-        <v>349</v>
-      </c>
-      <c r="Q19" s="4" t="s">
-        <v>350</v>
-      </c>
-      <c r="R19" s="4" t="s">
-        <v>328</v>
-      </c>
-      <c r="S19" s="4" t="s">
-        <v>347</v>
-      </c>
-      <c r="T19" s="4" t="s">
-        <v>333</v>
-      </c>
-      <c r="U19" s="4" t="s">
-        <v>328</v>
-      </c>
-      <c r="V19" s="5" t="s">
-        <v>329</v>
-      </c>
-      <c r="W19" s="5" t="s">
-        <v>331</v>
-      </c>
-      <c r="X19" s="4" t="s">
-        <v>328</v>
-      </c>
-      <c r="Z19" s="5" t="s">
-        <v>359</v>
-      </c>
-      <c r="AA19" s="5" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="20" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="B20" s="31" t="s">
-        <v>402</v>
-      </c>
-      <c r="C20" s="31" t="s">
-        <v>404</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>378</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>369</v>
-      </c>
-      <c r="F20" s="5" t="s">
-        <v>379</v>
-      </c>
-      <c r="G20" s="4" t="s">
-        <v>380</v>
-      </c>
-      <c r="H20" s="4" t="s">
-        <v>381</v>
-      </c>
-      <c r="I20" s="4" t="s">
-        <v>382</v>
-      </c>
-      <c r="J20" s="4" t="s">
-        <v>383</v>
-      </c>
-      <c r="K20" s="4" t="s">
-        <v>262</v>
-      </c>
-      <c r="L20" s="4" t="s">
-        <v>384</v>
-      </c>
-      <c r="M20" s="5" t="s">
-        <v>385</v>
-      </c>
-      <c r="N20" s="5" t="s">
-        <v>378</v>
-      </c>
-      <c r="O20" s="4" t="s">
-        <v>386</v>
-      </c>
-      <c r="P20" s="4" t="s">
-        <v>383</v>
-      </c>
-      <c r="Q20" s="4" t="s">
-        <v>380</v>
-      </c>
-      <c r="R20" s="5" t="s">
-        <v>379</v>
-      </c>
-      <c r="S20" s="4" t="s">
-        <v>387</v>
-      </c>
-      <c r="T20" s="4" t="s">
-        <v>380</v>
-      </c>
-      <c r="U20" s="4" t="s">
-        <v>388</v>
-      </c>
-      <c r="V20" s="4" t="s">
-        <v>380</v>
-      </c>
-      <c r="W20" s="7"/>
-      <c r="X20" s="4" t="s">
-        <v>388</v>
-      </c>
-      <c r="Z20" s="5" t="s">
-        <v>389</v>
-      </c>
-      <c r="AA20" s="5" t="s">
-        <v>390</v>
-      </c>
-      <c r="AB20" s="5" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="21" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="D21" s="33" t="s">
-        <v>416</v>
-      </c>
-      <c r="E21" s="33" t="s">
-        <v>411</v>
-      </c>
-      <c r="F21" s="33" t="s">
-        <v>417</v>
-      </c>
-      <c r="G21" s="33" t="s">
-        <v>418</v>
-      </c>
-      <c r="H21" s="33" t="s">
-        <v>419</v>
-      </c>
-      <c r="I21" s="33" t="s">
-        <v>420</v>
-      </c>
-      <c r="J21" s="33" t="s">
-        <v>418</v>
-      </c>
-      <c r="K21" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="L21" s="33" t="s">
-        <v>421</v>
-      </c>
-      <c r="M21" s="33" t="s">
-        <v>422</v>
-      </c>
-      <c r="N21" s="33" t="s">
-        <v>411</v>
-      </c>
-      <c r="O21" s="33" t="s">
-        <v>410</v>
-      </c>
-      <c r="P21" s="33" t="s">
-        <v>423</v>
-      </c>
-      <c r="Q21" s="33" t="s">
-        <v>424</v>
-      </c>
-      <c r="R21" s="33" t="s">
-        <v>417</v>
-      </c>
-      <c r="S21" s="33" t="s">
-        <v>425</v>
-      </c>
-      <c r="T21" s="33" t="s">
-        <v>420</v>
-      </c>
-      <c r="U21" s="33" t="s">
-        <v>417</v>
-      </c>
-      <c r="V21" s="33" t="s">
-        <v>418</v>
-      </c>
-      <c r="W21" s="7"/>
-      <c r="X21" s="33" t="s">
-        <v>418</v>
-      </c>
-      <c r="Z21" s="33" t="s">
-        <v>426</v>
-      </c>
-      <c r="AA21" s="33" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="22" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="K22" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="AA22" s="2" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="23" spans="1:28" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:1">
       <c r="A23" s="1" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="24" spans="1:28" x14ac:dyDescent="0.25">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
       <c r="A24" s="1" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="25" spans="1:28" x14ac:dyDescent="0.25">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
       <c r="A25" s="1" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="26" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1">
       <c r="A26" s="1" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="27" spans="1:28" x14ac:dyDescent="0.25">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
       <c r="A27" s="1" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="28" spans="1:28" x14ac:dyDescent="0.25">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
       <c r="A28" s="1" t="s">
-        <v>403</v>
+        <v>310</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:J25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D22" sqref="C22:D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="5.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="5.775" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="4" width="5.77734375" style="1"/>
-    <col min="5" max="6" width="3.77734375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="6.6640625" style="1" customWidth="1"/>
-    <col min="8" max="9" width="5.77734375" style="1"/>
-    <col min="10" max="10" width="11.44140625" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="5.77734375" style="1"/>
+    <col min="1" max="4" width="5.775" style="1"/>
+    <col min="5" max="6" width="3.775" style="1" customWidth="1"/>
+    <col min="7" max="7" width="6.66666666666667" style="1" customWidth="1"/>
+    <col min="8" max="9" width="5.775" style="1"/>
+    <col min="10" max="10" width="11.4416666666667" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="5.775" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="1" ht="28.5" spans="1:10">
       <c r="A1" s="1" t="s">
-        <v>222</v>
+        <v>240</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>286</v>
+        <v>311</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>287</v>
+        <v>312</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>288</v>
+        <v>313</v>
       </c>
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
-      <c r="G1" s="34" t="s">
-        <v>289</v>
-      </c>
-      <c r="H1" s="34"/>
-      <c r="I1" s="34"/>
-      <c r="J1" s="34"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G1" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+    </row>
+    <row r="2" spans="3:10">
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
       <c r="G2" s="2" t="s">
-        <v>290</v>
+        <v>315</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>291</v>
+        <v>316</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>292</v>
+        <v>317</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
         <v>114</v>
       </c>
@@ -6018,7 +6119,7 @@
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
         <v>120</v>
       </c>
@@ -6034,7 +6135,7 @@
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
         <v>132</v>
       </c>
@@ -6050,7 +6151,7 @@
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
         <v>141</v>
       </c>
@@ -6066,7 +6167,7 @@
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
         <v>149</v>
       </c>
@@ -6082,7 +6183,7 @@
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
         <v>156</v>
       </c>
@@ -6098,7 +6199,7 @@
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
         <v>161</v>
       </c>
@@ -6114,7 +6215,7 @@
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
         <v>169</v>
       </c>
@@ -6130,7 +6231,7 @@
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
         <v>57</v>
       </c>
@@ -6146,7 +6247,7 @@
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
         <v>181</v>
       </c>
@@ -6162,7 +6263,7 @@
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
         <v>183</v>
       </c>
@@ -6178,13 +6279,13 @@
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
       <c r="G13" s="5" t="s">
-        <v>252</v>
+        <v>270</v>
       </c>
       <c r="H13" s="4" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
         <v>185</v>
       </c>
@@ -6200,13 +6301,13 @@
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
       <c r="G14" s="5" t="s">
-        <v>255</v>
+        <v>273</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
         <v>189</v>
       </c>
@@ -6225,10 +6326,10 @@
         <v>90</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
         <v>194</v>
       </c>
@@ -6244,13 +6345,13 @@
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
       <c r="G16" s="4" t="s">
-        <v>252</v>
+        <v>270</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
         <v>202</v>
       </c>
@@ -6269,15 +6370,15 @@
         <v>98</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="B18" s="28" t="s">
-        <v>296</v>
+      <c r="B18" s="2" t="s">
+        <v>208</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>28</v>
@@ -6286,110 +6387,113 @@
         <v>28</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>258</v>
-      </c>
-      <c r="I18" s="27" t="s">
-        <v>295</v>
+        <v>276</v>
+      </c>
+      <c r="I18" s="6" t="s">
+        <v>38</v>
       </c>
       <c r="J18" s="5" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="B19" s="30" t="s">
-        <v>327</v>
+      <c r="B19" s="2" t="s">
+        <v>215</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>298</v>
+        <v>29</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>334</v>
+        <v>80</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="B20" s="30" t="s">
-        <v>357</v>
+        <v>219</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>220</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>356</v>
+        <v>53</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>353</v>
+        <v>89</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>354</v>
+        <v>280</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>328</v>
+        <v>274</v>
       </c>
       <c r="I20" s="5" t="s">
-        <v>349</v>
+        <v>270</v>
       </c>
       <c r="J20" s="5" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="B21" s="31" t="s">
-        <v>402</v>
+        <v>224</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>225</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>386</v>
+        <v>41</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>401</v>
+        <v>38</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>383</v>
+        <v>270</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="C22" s="32" t="s">
-        <v>406</v>
-      </c>
-      <c r="D22" s="32" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+        <v>229</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
       <c r="A23" s="1" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
       <c r="A24" s="1" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="H25" s="30" t="s">
-        <v>358</v>
+        <v>236</v>
+      </c>
+    </row>
+    <row r="25" spans="8:8">
+      <c r="H25" s="2" t="s">
+        <v>309</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="G1:J1"/>
   </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>